--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system.wiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27717C2-5CD0-4F4F-84D9-823AD785FE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E2128-6369-4DB7-AE45-35B4B65F9B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="276">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -144,23 +144,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>iggy.plants</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>images/鬼雨.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>planetfamilia</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>planetfamilia_</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C8Y4Aswpjog</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1044,9 +1032,6 @@
     <t>images/IMG_4791.jpg</t>
   </si>
   <si>
-    <t>images/IMG_4792.jpg</t>
-  </si>
-  <si>
     <t>C0fwt82rVR7</t>
   </si>
   <si>
@@ -1058,6 +1043,25 @@
     <rPh sb="0" eb="2">
       <t>ホウオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C8pDV4tIxGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4792.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4926.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4927.jpg</t>
+  </si>
+  <si>
+    <t>イランエメラルド Q3 QUETZAL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1136,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,6 +1151,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1483,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:H264"/>
+  <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A158" sqref="A158"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="J153" sqref="J153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1691,22 +1701,22 @@
         <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1714,290 +1724,290 @@
         <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
@@ -2006,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -2015,7 +2025,7 @@
         <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>12</v>
@@ -2023,7 +2033,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>9</v>
@@ -2032,7 +2042,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -2041,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>12</v>
@@ -2049,7 +2059,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>9</v>
@@ -2075,7 +2085,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>9</v>
@@ -2084,7 +2094,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -2093,7 +2103,7 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>12</v>
@@ -2101,3392 +2111,3409 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>83</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>117</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H52" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="H56" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="H61" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="H70" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="H73" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>177</v>
-      </c>
       <c r="H76" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E77" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="H84" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D89" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F89" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="H89" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>185</v>
+        <v>123</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>184</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="H94" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H104" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>206</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E114" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="H114" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>225</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="H120" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D130" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E130" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="H130" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D136" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G136" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E136" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="H136" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E144" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="H144" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E145" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G150" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E150" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="H150" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D153" s="1" t="s">
+      <c r="E154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G154" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E153" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
-      <c r="G154" s="1"/>
-      <c r="H154" s="1"/>
+      <c r="H154" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="1"/>
@@ -6578,16 +6605,6 @@
       <c r="G263" s="1"/>
       <c r="H263" s="1"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A264" s="1"/>
-      <c r="B264" s="1"/>
-      <c r="C264" s="1"/>
-      <c r="D264" s="1"/>
-      <c r="E264" s="1"/>
-      <c r="F264" s="1"/>
-      <c r="G264" s="1"/>
-      <c r="H264" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588E2128-6369-4DB7-AE45-35B4B65F9B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E011FE3-944A-45F9-BF60-75AD4F4B0097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="419">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -1063,6 +1063,479 @@
   <si>
     <t>イランエメラルド Q3 QUETZAL</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ココペリガーデン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kokopelligarden_fuk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4961.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAkL0G4TLE2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4962.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4963.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4964.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4965.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4966.jpg</t>
+  </si>
+  <si>
+    <t>C_MYpN6y2hk</t>
+  </si>
+  <si>
+    <t>C_MYpN6y2hk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4967.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4968.jpg</t>
+  </si>
+  <si>
+    <t>C_U8cKGS7lp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4969.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4970.jpg</t>
+  </si>
+  <si>
+    <t>C1L3zzzrd2p</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4971.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4972.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4973.jpg</t>
+  </si>
+  <si>
+    <t>C01bnlXrDaI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4974.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4975.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4976.jpg</t>
+  </si>
+  <si>
+    <t>C0eUdfhr_xi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cz0EYc1rVvn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4977.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4978.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4979.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4980.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4981.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4982.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4983.jpg</t>
+  </si>
+  <si>
+    <t>CzuSEb6yCpx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4984.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4985.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4986.jpg</t>
+  </si>
+  <si>
+    <t>Czr9q6FPoBK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CzfFnr1vyz-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4987.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4988.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4989.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4990.jpg</t>
+  </si>
+  <si>
+    <t>CzdvHdmLc4w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4991.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4992.jpg</t>
+  </si>
+  <si>
+    <t>CzH6dpUPRdz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4993.jpg</t>
+  </si>
+  <si>
+    <t>Cxsuz6rrO8e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4994.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4995.jpg</t>
+  </si>
+  <si>
+    <t>CxqLA5Cr3-o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_4996.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4997.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_4998.jpg</t>
+  </si>
+  <si>
+    <t>CxU7E_jrRNl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CxPw_XwLKTX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5001.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5002.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CwodL4_Pco1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5003.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5004.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5005.jpg</t>
+  </si>
+  <si>
+    <t>gurichan_fukuoka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5006.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5007.jpg</t>
+  </si>
+  <si>
+    <t>CvcWSLUyPfd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5008.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5009.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5010.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5011.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5012.jpg</t>
+  </si>
+  <si>
+    <t>CvB2SPIreZD</t>
+  </si>
+  <si>
+    <t>CvB2SPIreZD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cu4gm-9y9cj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5013.jpg</t>
+  </si>
+  <si>
+    <t>Cu4jpwXS1Ob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5014.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5015.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5016.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5017.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5018.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5019.jpg</t>
+  </si>
+  <si>
+    <t>Cu4ZyiZSKh8</t>
+  </si>
+  <si>
+    <t>Cu4ZyiZSKh8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CvSSY_ESUGU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5020.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5021.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5022.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5023.jpg</t>
+  </si>
+  <si>
+    <t>DEGptzHz-la</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5025.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5026.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5027.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5028.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5029.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5030.jpg</t>
+  </si>
+  <si>
+    <t>DDq6elozNej</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5031.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5032.jpg</t>
+  </si>
+  <si>
+    <t>DDMQGiLz_bZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5033.jpg</t>
+  </si>
+  <si>
+    <t>DB0LOa3Tsrd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5034.jpg</t>
+  </si>
+  <si>
+    <t>DBuJD9RT1Wp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5035.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5036.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5037.jpg</t>
+  </si>
+  <si>
+    <t>C88yg5SyxYW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5038.jpg</t>
+  </si>
+  <si>
+    <t>C7P_ydoSVnC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5039.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5040.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5041.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5042.jpg</t>
+  </si>
+  <si>
+    <t>C6Wcnclvc8o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5044.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C00oGULrxqc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5047.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5048.jpg</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-018</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-018</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ KPG-020</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-007</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-006</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-009</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-008</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-005</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-004</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-016</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-015</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-017</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-011</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-001</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-002</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-003</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-008</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-016</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-021</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-017</t>
+  </si>
+  <si>
+    <t>オアハカ KKP-017</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぐりちゃん</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1134,13 +1607,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1153,10 +1639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,9 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
   <dimension ref="A1:H263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="J153" sqref="J153"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -5473,7 +5954,7 @@
       <c r="C153" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E153" s="1" t="s">
@@ -5499,7 +5980,7 @@
       <c r="C154" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="D154" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E154" s="1" t="s">
@@ -5516,824 +5997,2136 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-      <c r="G155" s="1"/>
-      <c r="H155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
-      <c r="G157" s="1"/>
-      <c r="H157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
-      <c r="G158" s="1"/>
-      <c r="H158" s="1"/>
+      <c r="A158" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="1"/>
-      <c r="H159" s="1"/>
+      <c r="A159" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
-      <c r="G161" s="1"/>
-      <c r="H161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
+      <c r="A177" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
+      <c r="A178" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
+      <c r="A179" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="1"/>
+      <c r="A182" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-      <c r="F183" s="1"/>
-      <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
+      <c r="A183" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
+      <c r="A184" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
+      <c r="A185" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
+      <c r="A186" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
+      <c r="A187" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
+      <c r="A188" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
+      <c r="A189" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
+      <c r="A190" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
+      <c r="A191" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
+      <c r="A192" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
+      <c r="A199" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="1"/>
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
+      <c r="A202" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
+      <c r="A203" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-      <c r="D204" s="1"/>
-      <c r="E204" s="1"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
+      <c r="A204" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
-      <c r="E205" s="1"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
+      <c r="A205" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-      <c r="D206" s="1"/>
-      <c r="E206" s="1"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
+      <c r="A206" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-      <c r="D207" s="1"/>
-      <c r="E207" s="1"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
+      <c r="A207" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-      <c r="D208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
+      <c r="A208" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-      <c r="D209" s="1"/>
-      <c r="E209" s="1"/>
-      <c r="F209" s="1"/>
-      <c r="G209" s="1"/>
-      <c r="H209" s="1"/>
+      <c r="A209" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-      <c r="D210" s="1"/>
-      <c r="E210" s="1"/>
-      <c r="F210" s="1"/>
-      <c r="G210" s="1"/>
-      <c r="H210" s="1"/>
+      <c r="A210" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-      <c r="D211" s="1"/>
-      <c r="E211" s="1"/>
-      <c r="F211" s="1"/>
-      <c r="G211" s="1"/>
-      <c r="H211" s="1"/>
+      <c r="A211" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-      <c r="D212" s="1"/>
-      <c r="E212" s="1"/>
-      <c r="F212" s="1"/>
-      <c r="G212" s="1"/>
-      <c r="H212" s="1"/>
+      <c r="A212" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-      <c r="D213" s="1"/>
-      <c r="E213" s="1"/>
-      <c r="F213" s="1"/>
-      <c r="G213" s="1"/>
-      <c r="H213" s="1"/>
+      <c r="A213" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
-      <c r="E214" s="1"/>
-      <c r="F214" s="1"/>
-      <c r="G214" s="1"/>
-      <c r="H214" s="1"/>
+      <c r="A214" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
+      <c r="A215" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="1"/>
-      <c r="F216" s="1"/>
-      <c r="G216" s="1"/>
-      <c r="H216" s="1"/>
+      <c r="A216" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-      <c r="D217" s="1"/>
-      <c r="E217" s="1"/>
-      <c r="F217" s="1"/>
-      <c r="G217" s="1"/>
-      <c r="H217" s="1"/>
+      <c r="A217" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A218" s="1"/>
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-      <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
-      <c r="F218" s="1"/>
-      <c r="G218" s="1"/>
-      <c r="H218" s="1"/>
+      <c r="A218" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A219" s="1"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1"/>
-      <c r="F219" s="1"/>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1"/>
+      <c r="A219" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A220" s="1"/>
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-      <c r="D220" s="1"/>
-      <c r="E220" s="1"/>
-      <c r="F220" s="1"/>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
+      <c r="A220" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A221" s="1"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1"/>
-      <c r="F221" s="1"/>
-      <c r="G221" s="1"/>
-      <c r="H221" s="1"/>
+      <c r="A221" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A222" s="1"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
-      <c r="E222" s="1"/>
-      <c r="F222" s="1"/>
-      <c r="G222" s="1"/>
-      <c r="H222" s="1"/>
+      <c r="A222" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A223" s="1"/>
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-      <c r="D223" s="1"/>
-      <c r="E223" s="1"/>
-      <c r="F223" s="1"/>
-      <c r="G223" s="1"/>
-      <c r="H223" s="1"/>
+      <c r="A223" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A224" s="1"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="1"/>
-      <c r="F224" s="1"/>
-      <c r="G224" s="1"/>
-      <c r="H224" s="1"/>
+      <c r="A224" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A225" s="1"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-      <c r="D225" s="1"/>
-      <c r="E225" s="1"/>
-      <c r="F225" s="1"/>
-      <c r="G225" s="1"/>
-      <c r="H225" s="1"/>
+      <c r="A225" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A226" s="1"/>
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-      <c r="D226" s="1"/>
-      <c r="E226" s="1"/>
-      <c r="F226" s="1"/>
-      <c r="G226" s="1"/>
-      <c r="H226" s="1"/>
+      <c r="A226" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-      <c r="D227" s="1"/>
-      <c r="E227" s="1"/>
-      <c r="F227" s="1"/>
-      <c r="G227" s="1"/>
-      <c r="H227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A228" s="1"/>
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-      <c r="D228" s="1"/>
-      <c r="E228" s="1"/>
-      <c r="F228" s="1"/>
-      <c r="G228" s="1"/>
-      <c r="H228" s="1"/>
+      <c r="A228" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A229" s="1"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-      <c r="D229" s="1"/>
-      <c r="E229" s="1"/>
-      <c r="F229" s="1"/>
-      <c r="G229" s="1"/>
-      <c r="H229" s="1"/>
+      <c r="A229" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A230" s="1"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-      <c r="D230" s="1"/>
-      <c r="E230" s="1"/>
-      <c r="F230" s="1"/>
-      <c r="G230" s="1"/>
-      <c r="H230" s="1"/>
+      <c r="A230" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G230" t="s">
+        <v>387</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A231" s="1"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-      <c r="D231" s="1"/>
-      <c r="E231" s="1"/>
-      <c r="F231" s="1"/>
-      <c r="G231" s="1"/>
-      <c r="H231" s="1"/>
+      <c r="A231" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A232" s="1"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="E232" s="1"/>
-      <c r="F232" s="1"/>
-      <c r="G232" s="1"/>
-      <c r="H232" s="1"/>
+      <c r="A232" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="1"/>
-      <c r="F233" s="1"/>
-      <c r="G233" s="1"/>
-      <c r="H233" s="1"/>
+      <c r="A233" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
+      <c r="A234" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
+      <c r="A235" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
+      <c r="A236" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A237" s="1"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E011FE3-944A-45F9-BF60-75AD4F4B0097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A52ECC-5A1F-4816-B2BD-B2352C7BD218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="770">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -1536,6 +1536,1276 @@
   </si>
   <si>
     <t>ぐりちゃん</t>
+  </si>
+  <si>
+    <t>魔丸</t>
+    <rPh sb="0" eb="2">
+      <t>ママル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5062.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5063.jpg</t>
+  </si>
+  <si>
+    <t>DCCBbb1TPfO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBbDJ7AzWOe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラック＆ブルー BB</t>
+  </si>
+  <si>
+    <t>ブラック＆ブルー BB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5064.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5065.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5066.jpg</t>
+  </si>
+  <si>
+    <t>C_vGdfQSwJn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5067.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5068.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5069.jpg</t>
+  </si>
+  <si>
+    <t>C-EkqULy2AA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5070.jpg</t>
+  </si>
+  <si>
+    <t>C7jeMANv8M7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5071.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5072.jpg</t>
+  </si>
+  <si>
+    <t>C7oezifvM1f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5073.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5074.jpg</t>
+  </si>
+  <si>
+    <t>白鯨</t>
+    <rPh sb="0" eb="2">
+      <t>ハクゲイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C7BL0c3L5F5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5075.jpg</t>
+  </si>
+  <si>
+    <t>C3hBr2urn66</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5076.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5077.jpg</t>
+  </si>
+  <si>
+    <t>C3cKrT4rxSM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5078.jpg</t>
+  </si>
+  <si>
+    <t>DEm2yKLT2iB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5079.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5080.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5081.jpg</t>
+  </si>
+  <si>
+    <t>DEggEq0TGEU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5082.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5083.jpg</t>
+  </si>
+  <si>
+    <t>DEunt_Izsff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョム CHAM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5084.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5085.jpg</t>
+  </si>
+  <si>
+    <t>DCW-5qeTrE8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ KPG-004</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5086.jpg</t>
+  </si>
+  <si>
+    <t>DB8YFrdTrlf</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5087.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5088.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5089.jpg</t>
+  </si>
+  <si>
+    <t>DBrDIeAztKT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グリフィン Griffin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5090.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5091.jpg</t>
+  </si>
+  <si>
+    <t>C_owaGFSjId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローズ Rose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5092.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5093.jpg</t>
+  </si>
+  <si>
+    <t>C_XSx0GyGdR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5094.jpg</t>
+  </si>
+  <si>
+    <t>C0x0C5KL2ek</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5095.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5096.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5097.jpg</t>
+  </si>
+  <si>
+    <t>CzbHPC7Lbo9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5098.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5099.jpg</t>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEBva-SzZNE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熔岩</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5100.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5101.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5102.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5103.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5104.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5105.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5106.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5107.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5108.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5109.jpg</t>
+  </si>
+  <si>
+    <t>DDT9J0_zf_1</t>
+  </si>
+  <si>
+    <t>DDT9J0_zf_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5110.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5111.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5112.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5113.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5114.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5115.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5116.jpg</t>
+  </si>
+  <si>
+    <t>DDT9WmnTYRQ</t>
+  </si>
+  <si>
+    <t>DDT9WmnTYRQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クレイジー crazy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5117.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5118.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5119.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5120.jpg</t>
+  </si>
+  <si>
+    <t>DDOt2W8zXvr</t>
+  </si>
+  <si>
+    <t>DDOt2W8zXvr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラックファイヤー 黑火焰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5121.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5122.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5123.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5124.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5125.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5126.jpg</t>
+  </si>
+  <si>
+    <t>C0OVyCIrjl7</t>
+  </si>
+  <si>
+    <t>C0OVyCIrjl7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャークソード 鯊魚劍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5127.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5128.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5129.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5130.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5131.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5132.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5133.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5134.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5135.jpg</t>
+  </si>
+  <si>
+    <t>CtyfOBVrOmv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白犀牛</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ctln6qLrTY9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドキャットウィーズル 紅猫</t>
+    <rPh sb="13" eb="14">
+      <t>ベニ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5136.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5137.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5138.jpg</t>
+  </si>
+  <si>
+    <t>CrAm5MiP0Z5</t>
+  </si>
+  <si>
+    <t>CrAm5MiP0Z5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5139.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5140.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5141.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5142.jpg</t>
+  </si>
+  <si>
+    <t>紫櫻</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cq2Z-nFLLQz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魚刺</t>
+    <rPh sb="0" eb="1">
+      <t>ウオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5143.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5144.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5145.jpg</t>
+  </si>
+  <si>
+    <t>PLANTS by FRAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>plants_by_frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5147.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホオジロザメ 大白鯊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5148.jpg</t>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウボシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5149.jpg</t>
+  </si>
+  <si>
+    <t>狼人</t>
+    <rPh sb="0" eb="1">
+      <t>オオカミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5150.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5151.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5152.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5153.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5154.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5155.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5156.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5157.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5158.jpg</t>
+  </si>
+  <si>
+    <t>恐竜牙齒 ハデス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5159.jpg</t>
+  </si>
+  <si>
+    <t>ジャガーノート 破壊神</t>
+    <rPh sb="8" eb="11">
+      <t>ハカイシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5160.jpg</t>
+  </si>
+  <si>
+    <t>DBuf_kSTQvF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBGVlD3zyra</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCaH3DyTGfF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCoSXWKz39G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC355-gzHq0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDG6SMlThS3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCIYcXlTdkh</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB-yMQcTPIP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DA-ptczzhzn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5161.jpg</t>
+  </si>
+  <si>
+    <t>DA8H2m-zmU8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5162.jpg</t>
+  </si>
+  <si>
+    <t>DA0qNGczWpd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒豹 ブラックパンサー</t>
+    <rPh sb="0" eb="2">
+      <t>クロヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5163.jpg</t>
+  </si>
+  <si>
+    <t>DAnmeAqTTPN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5164.jpg</t>
+  </si>
+  <si>
+    <t>白天狗</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAiULbfTQV0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5165.jpg</t>
+  </si>
+  <si>
+    <t>DAaj8mSTPgD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5167.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DANtV7jTUij</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5168.jpg</t>
+  </si>
+  <si>
+    <t>姫厳龍 姬嚴龍</t>
+    <rPh sb="0" eb="1">
+      <t>ヒメ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAIZPMcTD8P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5169.jpg</t>
+  </si>
+  <si>
+    <t>DACaVcDTn8R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5170.jpg</t>
+  </si>
+  <si>
+    <t>C_6Z7fMz911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーザー 凱撒</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5171.jpg</t>
+  </si>
+  <si>
+    <t>穿山甲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_3zfLuTXoE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5172.jpg</t>
+  </si>
+  <si>
+    <t>C_2VLXBTrRZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5173.jpg</t>
+  </si>
+  <si>
+    <t>C_1GfNBzCkC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5174.jpg</t>
+  </si>
+  <si>
+    <t>C_0BhL0zFdU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5175.jpg</t>
+  </si>
+  <si>
+    <t>金蟬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_aS6cgSSl9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5176.jpg</t>
+  </si>
+  <si>
+    <t>C_JydqRS3V6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5177.jpg</t>
+  </si>
+  <si>
+    <t>C_Hc8Fhy48Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5178.jpg</t>
+  </si>
+  <si>
+    <t>黒鯨</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クジラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_C8laZyJEu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5179.jpg</t>
+  </si>
+  <si>
+    <t>C_AM7dPyE3e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5180.jpg</t>
+  </si>
+  <si>
+    <t>C-wZcv4yO-k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5181.jpg</t>
+  </si>
+  <si>
+    <t>C-tLvo-TAZP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5182.jpg</t>
+  </si>
+  <si>
+    <t>C-q8UGmy-ux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5183.jpg</t>
+  </si>
+  <si>
+    <t>羽毛</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-oEqJOTwep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5184.jpg</t>
+  </si>
+  <si>
+    <t>C-l2CATyXkb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5185.jpg</t>
+  </si>
+  <si>
+    <t>C-UN4tlSbtr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5186.jpg</t>
+  </si>
+  <si>
+    <t>C-SF-7JSVSg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5187.jpg</t>
+  </si>
+  <si>
+    <t>鳳凰</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C9_4AHkS3jO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5188.jpg</t>
+  </si>
+  <si>
+    <t>狂鯨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C97Etg2SXAV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5189.jpg</t>
+  </si>
+  <si>
+    <t>C93oo9sSNNe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5190.jpg</t>
+  </si>
+  <si>
+    <t>パンダ 熊猫</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C9pnkMkSF09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5191.jpg</t>
+  </si>
+  <si>
+    <t>C9l9-TbSn2g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5192.jpg</t>
+  </si>
+  <si>
+    <t>C9hdDj6p107</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5193.jpg</t>
+  </si>
+  <si>
+    <t>C9ex92USNgg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5194.jpg</t>
+  </si>
+  <si>
+    <t>イルカ 海豚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C9R1clHSqXz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5195.jpg</t>
+  </si>
+  <si>
+    <t>C9EeMSjSwmq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5196.jpg</t>
+  </si>
+  <si>
+    <t>C9Ht5_pygvG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンゲイ 胖鯨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5197.jpg</t>
+  </si>
+  <si>
+    <t>C9Cwrcay7JJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5198.jpg</t>
+  </si>
+  <si>
+    <t>C9CIKFgy06v</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5199.jpg</t>
+  </si>
+  <si>
+    <t>C8skn5eS6f2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5200.jpg</t>
+  </si>
+  <si>
+    <t>C8qIRgdSNPq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5201.jpg</t>
+  </si>
+  <si>
+    <t>C8nUu5SSzZ-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5202.jpg</t>
+  </si>
+  <si>
+    <t>C8l5J6bysBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5203.jpg</t>
+  </si>
+  <si>
+    <t>不明</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C8EwpY3vlWC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5204.jpg</t>
+  </si>
+  <si>
+    <t>C7zAYNNvcKV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5205.jpg</t>
+  </si>
+  <si>
+    <t>C7RebBNSZLw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5206.jpg</t>
+  </si>
+  <si>
+    <t>C68sk_5vrfO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6Gph0iPVZo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5207.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5208.jpg</t>
+  </si>
+  <si>
+    <t>C5zrVnNLQ8u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5209.jpg</t>
+  </si>
+  <si>
+    <t>C5gBz7eLCeK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5210.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5211.jpg</t>
+  </si>
+  <si>
+    <t>C5NYSBtrJfA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C4vQq8OrNtU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5212.jpg</t>
+  </si>
+  <si>
+    <t>C4g4AHDyDkY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5213.jpg</t>
+  </si>
+  <si>
+    <t>C4IdrkuSxIk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5214.jpg</t>
+  </si>
+  <si>
+    <t>C37q9NkLrAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5215.jpg</t>
+  </si>
+  <si>
+    <t>C3SiL7mr1VE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5216.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5217.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5218.jpg</t>
+  </si>
+  <si>
+    <t>C3PTAmxr690</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C3OpFlCPsBq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5219.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5220.jpg</t>
+  </si>
+  <si>
+    <t>C2wiyQ2rARx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5221.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5222.jpg</t>
+  </si>
+  <si>
+    <t>C2rmZ-jr21g</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C2cgpFhLCBF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5223.jpg</t>
+  </si>
+  <si>
+    <t>C2Rs6ElSC6A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5224.jpg</t>
+  </si>
+  <si>
+    <t>C2MUlfaLTkD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5225.jpg</t>
+  </si>
+  <si>
+    <t>C2JX2wHrc3q</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5226.jpg</t>
+  </si>
+  <si>
+    <t>C1eObaCrnJ5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5227.jpg</t>
+  </si>
+  <si>
+    <t>C1RlS59remY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5228.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5229.jpg</t>
+  </si>
+  <si>
+    <t>C1CZhiLLnGH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5230.jpg</t>
+  </si>
+  <si>
+    <t>C027_QZrMa2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5231.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5232.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5233.jpg</t>
+  </si>
+  <si>
+    <t>黒犀牛</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0eIQN6rXtm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5234.jpg</t>
+  </si>
+  <si>
+    <t>C0YqlZ-rFV9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5235.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5236.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5237.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5238.jpg</t>
+  </si>
+  <si>
+    <t>Czv3vqQLyR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CzYmrQMrsFt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5239.jpg</t>
+  </si>
+  <si>
+    <t>Cx4-dC2rUxZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5240.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5241.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5242.jpg</t>
+  </si>
+  <si>
+    <t>カニ 螃蟹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CvRz75LLDgD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5243.jpg</t>
+  </si>
+  <si>
+    <t>CstSE97LK6P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5244.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5245.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5246.jpg</t>
+  </si>
+  <si>
+    <t>CstQxnzrB4X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5247.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5248.jpg</t>
+  </si>
+  <si>
+    <t>CrAFmmSr1Dn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ClP4WLbr6w9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5249.jpg</t>
+  </si>
+  <si>
+    <t>CjfoYnBrPGd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5250.jpg</t>
+  </si>
+  <si>
+    <t>CjVVSKDrLle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5251.jpg</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +2843,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1596,37 +2866,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,10 +2882,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1976,17 +3219,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:H263"/>
+  <dimension ref="A1:H424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
@@ -2124,7 +3367,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>425</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -2973,7 +4216,7 @@
       <c r="F38" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -6032,7 +7275,7 @@
       <c r="C156" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D156" s="4" t="s">
+      <c r="D156" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E156" s="1" t="s">
@@ -6058,7 +7301,7 @@
       <c r="C157" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E157" s="1" t="s">
@@ -6084,7 +7327,7 @@
       <c r="C158" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="D158" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E158" s="1" t="s">
@@ -6110,7 +7353,7 @@
       <c r="C159" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D159" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E159" s="1" t="s">
@@ -7589,7 +8832,7 @@
       <c r="B216" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C216" s="4" t="s">
+      <c r="C216" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D216" s="1" t="s">
@@ -7598,7 +8841,7 @@
       <c r="E216" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F216" s="4" t="s">
+      <c r="F216" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G216" s="1" t="s">
@@ -7615,7 +8858,7 @@
       <c r="B217" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C217" s="4" t="s">
+      <c r="C217" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D217" s="1" t="s">
@@ -7624,7 +8867,7 @@
       <c r="E217" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F217" s="4" t="s">
+      <c r="F217" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G217" s="1" t="s">
@@ -7641,7 +8884,7 @@
       <c r="B218" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C218" s="4" t="s">
+      <c r="C218" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D218" s="1" t="s">
@@ -7650,7 +8893,7 @@
       <c r="E218" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F218" s="4" t="s">
+      <c r="F218" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G218" s="1" t="s">
@@ -7667,7 +8910,7 @@
       <c r="B219" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C219" s="4" t="s">
+      <c r="C219" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D219" s="1" t="s">
@@ -7676,7 +8919,7 @@
       <c r="E219" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F219" s="4" t="s">
+      <c r="F219" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G219" s="1" t="s">
@@ -7693,7 +8936,7 @@
       <c r="B220" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C220" s="4" t="s">
+      <c r="C220" s="1" t="s">
         <v>340</v>
       </c>
       <c r="D220" s="1" t="s">
@@ -7702,7 +8945,7 @@
       <c r="E220" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F220" s="4" t="s">
+      <c r="F220" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G220" s="1" t="s">
@@ -7728,7 +8971,7 @@
       <c r="E221" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F221" s="4" t="s">
+      <c r="F221" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G221" s="1" t="s">
@@ -7754,7 +8997,7 @@
       <c r="E222" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F222" s="4" t="s">
+      <c r="F222" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G222" s="1" t="s">
@@ -7780,7 +9023,7 @@
       <c r="E223" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F223" s="4" t="s">
+      <c r="F223" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G223" s="1" t="s">
@@ -7806,7 +9049,7 @@
       <c r="E224" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F224" s="4" t="s">
+      <c r="F224" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G224" s="1" t="s">
@@ -7832,7 +9075,7 @@
       <c r="E225" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F225" s="4" t="s">
+      <c r="F225" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G225" s="1" t="s">
@@ -7858,7 +9101,7 @@
       <c r="E226" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F226" s="4" t="s">
+      <c r="F226" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G226" s="1" t="s">
@@ -7884,7 +9127,7 @@
       <c r="E227" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F227" s="4" t="s">
+      <c r="F227" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G227" s="1" t="s">
@@ -7910,7 +9153,7 @@
       <c r="E228" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="F228" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G228" s="1" t="s">
@@ -7936,7 +9179,7 @@
       <c r="E229" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F229" s="4" t="s">
+      <c r="F229" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G229" s="1" t="s">
@@ -7962,10 +9205,10 @@
       <c r="E230" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F230" s="4" t="s">
+      <c r="F230" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="1" t="s">
         <v>387</v>
       </c>
       <c r="H230" s="1" t="s">
@@ -7988,7 +9231,7 @@
       <c r="E231" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F231" s="4" t="s">
+      <c r="F231" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G231" s="1" t="s">
@@ -8014,7 +9257,7 @@
       <c r="E232" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F232" s="4" t="s">
+      <c r="F232" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G232" s="1" t="s">
@@ -8040,7 +9283,7 @@
       <c r="E233" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F233" s="4" t="s">
+      <c r="F233" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G233" s="1" t="s">
@@ -8066,7 +9309,7 @@
       <c r="E234" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F234" s="4" t="s">
+      <c r="F234" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G234" s="1" t="s">
@@ -8092,7 +9335,7 @@
       <c r="E235" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F235" s="4" t="s">
+      <c r="F235" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G235" s="1" t="s">
@@ -8118,7 +9361,7 @@
       <c r="E236" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="F236" s="4" t="s">
+      <c r="F236" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G236" s="1" t="s">
@@ -8129,274 +9372,4892 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
+      <c r="A237" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
+      <c r="A238" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
+      <c r="A239" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
+      <c r="A240" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
+      <c r="A241" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
+      <c r="A242" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
+      <c r="A243" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
+      <c r="A244" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
+      <c r="A245" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
+      <c r="A246" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
+      <c r="A247" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
+      <c r="A248" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
+      <c r="A249" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
+      <c r="A250" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
+      <c r="A251" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
+      <c r="A252" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
+      <c r="A253" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
+      <c r="A254" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
+      <c r="A255" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
+      <c r="A256" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
+      <c r="A257" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A258" s="1"/>
-      <c r="B258" s="1"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="1"/>
-      <c r="H258" s="1"/>
+      <c r="A258" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-      <c r="D259" s="1"/>
-      <c r="E259" s="1"/>
-      <c r="F259" s="1"/>
-      <c r="G259" s="1"/>
-      <c r="H259" s="1"/>
+      <c r="A259" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A260" s="1"/>
-      <c r="B260" s="1"/>
-      <c r="C260" s="1"/>
-      <c r="D260" s="1"/>
-      <c r="E260" s="1"/>
-      <c r="F260" s="1"/>
-      <c r="G260" s="1"/>
-      <c r="H260" s="1"/>
+      <c r="A260" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A261" s="1"/>
-      <c r="B261" s="1"/>
-      <c r="C261" s="1"/>
-      <c r="D261" s="1"/>
-      <c r="E261" s="1"/>
-      <c r="F261" s="1"/>
-      <c r="G261" s="1"/>
-      <c r="H261" s="1"/>
+      <c r="A261" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A262" s="1"/>
-      <c r="B262" s="1"/>
-      <c r="C262" s="1"/>
-      <c r="D262" s="1"/>
-      <c r="E262" s="1"/>
-      <c r="F262" s="1"/>
-      <c r="G262" s="1"/>
-      <c r="H262" s="1"/>
+      <c r="A262" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A263" s="1"/>
-      <c r="B263" s="1"/>
-      <c r="C263" s="1"/>
-      <c r="D263" s="1"/>
-      <c r="E263" s="1"/>
-      <c r="F263" s="1"/>
-      <c r="G263" s="1"/>
-      <c r="H263" s="1"/>
+      <c r="A263" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A264" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A265" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A266" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A267" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A268" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A269" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A270" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A271" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A272" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A273" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A274" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A275" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A276" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A277" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A278" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A279" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A280" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A281" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A282" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A283" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A284" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A285" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A286" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A287" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A288" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A289" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A290" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A291" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A292" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A293" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A294" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A295" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A296" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A297" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A298" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A299" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A300" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A301" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A302" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A303" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A304" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A305" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A306" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A307" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A308" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A309" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A310" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A311" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A312" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A313" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A314" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A315" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A316" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A317" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A318" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A319" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A320" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A321" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A322" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A323" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A324" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A325" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A326" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A327" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A328" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A329" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A330" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A331" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A332" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A333" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A334" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A335" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A336" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A337" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A338" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A339" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A340" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A341" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A342" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A343" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A344" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A345" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A346" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A347" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A348" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A349" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A350" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A351" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A352" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A353" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A354" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A355" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A356" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A357" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A358" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A359" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A360" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A361" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A362" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G362" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H362" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A363" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A364" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A365" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E365" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H365" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A366" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="H366" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A367" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H367" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A368" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G368" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="H368" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A369" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H369" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A370" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E370" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="H370" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A371" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H371" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A372" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H372" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A373" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E373" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H373" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A374" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H374" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A375" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H375" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A376" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A377" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="H377" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A378" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A379" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="H379" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A380" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A381" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A382" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A383" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A384" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A385" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A386" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A387" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A388" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A389" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A390" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A391" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A392" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A393" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A394" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A395" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A396" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A397" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A398" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A399" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A400" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A401" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A402" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A403" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A404" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A405" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A406" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A407" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A408" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A409" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A410" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A411" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A412" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A413" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A414" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A415" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A416" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A417" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A418" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A419" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A420" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A421" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A422" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A423" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A424" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>485</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C30AD6-8C82-492A-8D28-DE2A016F6D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1AB7F6-C90A-477E-BE6D-D54CCB42276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$274</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$279</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="598">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -995,36 +995,6 @@
     <t>オアハカ KPG-008</t>
   </si>
   <si>
-    <t>オアハカ KKP-005</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-004</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-016</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-015</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-017</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-011</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-001</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-002</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-003</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-008</t>
-  </si>
-  <si>
     <t>オアハカ KPG-016</t>
   </si>
   <si>
@@ -1032,10 +1002,6 @@
   </si>
   <si>
     <t>オアハカ KPG-017</t>
-  </si>
-  <si>
-    <t>オアハカ KKP-017</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ぐりちゃん</t>
@@ -2185,6 +2151,112 @@
     <rPh sb="0" eb="2">
       <t>フメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ KPG-005</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-004</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-015</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-011</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-001</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-002</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-003</t>
+  </si>
+  <si>
+    <t>DDBsRf9Tx4f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッファロー Buffalo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5358.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEXX-razAFZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG-001 Ivory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG-002 KAZEMI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG-003 Raging bull</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG-006 SWALLOW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5354.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5355.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5356.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5357.jpg</t>
+  </si>
+  <si>
+    <t>agave_galaxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFAgvZYzxZA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG-100 galaxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AG-120 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AG-140 Psycho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5351.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5352.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5353.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDBtnwTzelJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5359.jpg</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2599,9 +2671,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:H279"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="F297" sqref="F297"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2747,7 +2821,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -4593,7 +4667,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>128</v>
@@ -4619,7 +4693,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>128</v>
@@ -4645,7 +4719,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>257</v>
+        <v>570</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>128</v>
@@ -4671,7 +4745,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>257</v>
+        <v>570</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>128</v>
@@ -4697,7 +4771,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>128</v>
@@ -4723,7 +4797,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>128</v>
@@ -4749,7 +4823,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>128</v>
@@ -4775,7 +4849,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>259</v>
+        <v>571</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>128</v>
@@ -4801,7 +4875,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>259</v>
+        <v>571</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>128</v>
@@ -4827,7 +4901,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>128</v>
@@ -4853,7 +4927,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>128</v>
@@ -4879,7 +4953,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>128</v>
@@ -4905,7 +4979,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>261</v>
+        <v>572</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>128</v>
@@ -4931,7 +5005,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>261</v>
+        <v>572</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>128</v>
@@ -4957,7 +5031,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>128</v>
@@ -4983,7 +5057,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>128</v>
@@ -5009,7 +5083,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>256</v>
+        <v>569</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>128</v>
@@ -5021,7 +5095,7 @@
         <v>191</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>192</v>
@@ -5035,7 +5109,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>262</v>
+        <v>573</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>128</v>
@@ -5061,7 +5135,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>262</v>
+        <v>573</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>128</v>
@@ -5087,7 +5161,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>128</v>
@@ -5113,7 +5187,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>128</v>
@@ -5139,7 +5213,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>128</v>
@@ -5165,7 +5239,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>128</v>
@@ -5191,7 +5265,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>128</v>
@@ -5217,7 +5291,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>263</v>
+        <v>574</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>128</v>
@@ -5243,7 +5317,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>262</v>
+        <v>573</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>128</v>
@@ -5269,7 +5343,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>262</v>
+        <v>573</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>128</v>
@@ -5295,7 +5369,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>264</v>
+        <v>575</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>128</v>
@@ -5321,7 +5395,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>264</v>
+        <v>575</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>128</v>
@@ -5347,7 +5421,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>264</v>
+        <v>575</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>128</v>
@@ -5373,7 +5447,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>264</v>
+        <v>575</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>128</v>
@@ -5399,7 +5473,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>261</v>
+        <v>572</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>128</v>
@@ -5425,7 +5499,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>261</v>
+        <v>572</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>128</v>
@@ -5451,7 +5525,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>261</v>
+        <v>572</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>128</v>
@@ -5477,7 +5551,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>261</v>
+        <v>572</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>128</v>
@@ -5506,7 +5580,7 @@
         <v>251</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>192</v>
@@ -5515,7 +5589,7 @@
         <v>220</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>192</v>
@@ -5532,7 +5606,7 @@
         <v>251</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>192</v>
@@ -5541,7 +5615,7 @@
         <v>221</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>192</v>
@@ -5558,7 +5632,7 @@
         <v>251</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>192</v>
@@ -5567,7 +5641,7 @@
         <v>222</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>192</v>
@@ -5584,7 +5658,7 @@
         <v>251</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>192</v>
@@ -5593,7 +5667,7 @@
         <v>223</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>192</v>
@@ -5610,7 +5684,7 @@
         <v>251</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>192</v>
@@ -5619,7 +5693,7 @@
         <v>224</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>192</v>
@@ -5636,7 +5710,7 @@
         <v>251</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>192</v>
@@ -5645,7 +5719,7 @@
         <v>225</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>192</v>
@@ -5659,10 +5733,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>192</v>
@@ -5671,7 +5745,7 @@
         <v>227</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>192</v>
@@ -5685,10 +5759,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>192</v>
@@ -5697,7 +5771,7 @@
         <v>228</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>192</v>
@@ -5714,7 +5788,7 @@
         <v>251</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>192</v>
@@ -5723,7 +5797,7 @@
         <v>230</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>192</v>
@@ -5740,7 +5814,7 @@
         <v>251</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>192</v>
@@ -5749,7 +5823,7 @@
         <v>232</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>192</v>
@@ -5763,10 +5837,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>192</v>
@@ -5775,7 +5849,7 @@
         <v>234</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>192</v>
@@ -5789,10 +5863,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>192</v>
@@ -5801,7 +5875,7 @@
         <v>235</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>192</v>
@@ -5815,10 +5889,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>192</v>
@@ -5827,7 +5901,7 @@
         <v>236</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>192</v>
@@ -5844,7 +5918,7 @@
         <v>251</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>192</v>
@@ -5853,7 +5927,7 @@
         <v>238</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>192</v>
@@ -5867,10 +5941,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>192</v>
@@ -5879,7 +5953,7 @@
         <v>240</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>192</v>
@@ -5893,10 +5967,10 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>192</v>
@@ -5905,7 +5979,7 @@
         <v>241</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>192</v>
@@ -5919,10 +5993,10 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>192</v>
@@ -5931,7 +6005,7 @@
         <v>242</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>192</v>
@@ -5945,10 +6019,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>192</v>
@@ -5957,7 +6031,7 @@
         <v>243</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>192</v>
@@ -5971,10 +6045,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>192</v>
@@ -5983,7 +6057,7 @@
         <v>245</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>192</v>
@@ -6000,7 +6074,7 @@
         <v>253</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>192</v>
@@ -6009,7 +6083,7 @@
         <v>247</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>192</v>
@@ -6026,7 +6100,7 @@
         <v>253</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>192</v>
@@ -6035,7 +6109,7 @@
         <v>248</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>192</v>
@@ -6049,7 +6123,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>9</v>
@@ -6058,7 +6132,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>9</v>
@@ -6067,7 +6141,7 @@
         <v>9</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>12</v>
@@ -6075,7 +6149,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>9</v>
@@ -6084,7 +6158,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>9</v>
@@ -6093,7 +6167,7 @@
         <v>9</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>12</v>
@@ -6101,7 +6175,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>9</v>
@@ -6110,7 +6184,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>9</v>
@@ -6119,7 +6193,7 @@
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>12</v>
@@ -6127,7 +6201,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>9</v>
@@ -6136,7 +6210,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>9</v>
@@ -6145,7 +6219,7 @@
         <v>9</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>12</v>
@@ -6153,7 +6227,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>9</v>
@@ -6162,7 +6236,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>9</v>
@@ -6171,7 +6245,7 @@
         <v>9</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>12</v>
@@ -6188,7 +6262,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
@@ -6197,7 +6271,7 @@
         <v>9</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>12</v>
@@ -6214,7 +6288,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>9</v>
@@ -6223,7 +6297,7 @@
         <v>9</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>12</v>
@@ -6240,7 +6314,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>9</v>
@@ -6266,7 +6340,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>9</v>
@@ -6275,7 +6349,7 @@
         <v>9</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>12</v>
@@ -6292,7 +6366,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>9</v>
@@ -6301,7 +6375,7 @@
         <v>9</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>12</v>
@@ -6318,7 +6392,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
@@ -6327,7 +6401,7 @@
         <v>9</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>12</v>
@@ -6344,7 +6418,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>9</v>
@@ -6353,7 +6427,7 @@
         <v>9</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>12</v>
@@ -6370,7 +6444,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
@@ -6379,7 +6453,7 @@
         <v>9</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>12</v>
@@ -6387,7 +6461,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>9</v>
@@ -6396,7 +6470,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>9</v>
@@ -6405,7 +6479,7 @@
         <v>9</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>12</v>
@@ -6413,7 +6487,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>9</v>
@@ -6422,7 +6496,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>9</v>
@@ -6431,7 +6505,7 @@
         <v>9</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>12</v>
@@ -6439,7 +6513,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>9</v>
@@ -6448,7 +6522,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>9</v>
@@ -6457,7 +6531,7 @@
         <v>9</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>12</v>
@@ -6474,7 +6548,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
@@ -6483,7 +6557,7 @@
         <v>9</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>12</v>
@@ -6500,7 +6574,7 @@
         <v>129</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>128</v>
@@ -6509,7 +6583,7 @@
         <v>129</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>72</v>
@@ -6526,7 +6600,7 @@
         <v>129</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>128</v>
@@ -6535,7 +6609,7 @@
         <v>129</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>72</v>
@@ -6552,7 +6626,7 @@
         <v>129</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>128</v>
@@ -6561,7 +6635,7 @@
         <v>129</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>72</v>
@@ -6578,7 +6652,7 @@
         <v>129</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>128</v>
@@ -6587,7 +6661,7 @@
         <v>129</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>72</v>
@@ -6604,7 +6678,7 @@
         <v>129</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>128</v>
@@ -6613,7 +6687,7 @@
         <v>129</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>72</v>
@@ -6621,7 +6695,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>128</v>
@@ -6630,7 +6704,7 @@
         <v>129</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>128</v>
@@ -6639,7 +6713,7 @@
         <v>129</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>72</v>
@@ -6647,7 +6721,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>128</v>
@@ -6656,7 +6730,7 @@
         <v>129</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>128</v>
@@ -6665,7 +6739,7 @@
         <v>129</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>72</v>
@@ -6673,7 +6747,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>128</v>
@@ -6682,7 +6756,7 @@
         <v>129</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>128</v>
@@ -6691,7 +6765,7 @@
         <v>129</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>132</v>
@@ -6699,7 +6773,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>128</v>
@@ -6708,7 +6782,7 @@
         <v>129</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>128</v>
@@ -6717,7 +6791,7 @@
         <v>129</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>65</v>
@@ -6725,7 +6799,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>128</v>
@@ -6734,7 +6808,7 @@
         <v>129</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>128</v>
@@ -6743,7 +6817,7 @@
         <v>129</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>65</v>
@@ -6751,7 +6825,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>128</v>
@@ -6760,7 +6834,7 @@
         <v>129</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>128</v>
@@ -6769,7 +6843,7 @@
         <v>129</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>65</v>
@@ -6777,7 +6851,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>128</v>
@@ -6786,7 +6860,7 @@
         <v>129</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>128</v>
@@ -6795,7 +6869,7 @@
         <v>129</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>72</v>
@@ -6803,7 +6877,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>128</v>
@@ -6812,7 +6886,7 @@
         <v>129</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>128</v>
@@ -6821,7 +6895,7 @@
         <v>129</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>72</v>
@@ -6829,7 +6903,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>128</v>
@@ -6838,7 +6912,7 @@
         <v>129</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>128</v>
@@ -6847,7 +6921,7 @@
         <v>129</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>72</v>
@@ -6855,7 +6929,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>128</v>
@@ -6864,7 +6938,7 @@
         <v>129</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>128</v>
@@ -6873,7 +6947,7 @@
         <v>129</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>72</v>
@@ -6881,7 +6955,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>128</v>
@@ -6890,7 +6964,7 @@
         <v>129</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>128</v>
@@ -6899,7 +6973,7 @@
         <v>129</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>72</v>
@@ -6916,7 +6990,7 @@
         <v>129</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>128</v>
@@ -6925,10 +6999,10 @@
         <v>129</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.4">
@@ -6942,7 +7016,7 @@
         <v>129</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>128</v>
@@ -6951,10 +7025,10 @@
         <v>129</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.4">
@@ -6968,7 +7042,7 @@
         <v>129</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>128</v>
@@ -6977,15 +7051,15 @@
         <v>129</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>128</v>
@@ -6994,7 +7068,7 @@
         <v>129</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>128</v>
@@ -7003,7 +7077,7 @@
         <v>129</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>65</v>
@@ -7011,7 +7085,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>128</v>
@@ -7020,7 +7094,7 @@
         <v>129</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>128</v>
@@ -7029,7 +7103,7 @@
         <v>129</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>65</v>
@@ -7040,22 +7114,22 @@
         <v>118</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>65</v>
@@ -7063,158 +7137,158 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="E177" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.4">
@@ -7222,13 +7296,13 @@
         <v>31</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>25</v>
@@ -7237,7 +7311,7 @@
         <v>26</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>65</v>
@@ -7248,13 +7322,13 @@
         <v>31</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>25</v>
@@ -7263,7 +7337,7 @@
         <v>26</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>65</v>
@@ -7274,13 +7348,13 @@
         <v>31</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>25</v>
@@ -7289,7 +7363,7 @@
         <v>26</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>65</v>
@@ -7300,13 +7374,13 @@
         <v>31</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>25</v>
@@ -7315,7 +7389,7 @@
         <v>26</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>65</v>
@@ -7326,13 +7400,13 @@
         <v>31</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>25</v>
@@ -7341,7 +7415,7 @@
         <v>26</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>65</v>
@@ -7349,54 +7423,54 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.4">
@@ -7404,25 +7478,25 @@
         <v>120</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.4">
@@ -7430,129 +7504,129 @@
         <v>121</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.4">
@@ -7560,129 +7634,129 @@
         <v>117</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.4">
@@ -7690,22 +7764,22 @@
         <v>121</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>65</v>
@@ -7716,22 +7790,22 @@
         <v>118</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>65</v>
@@ -7739,132 +7813,132 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.4">
@@ -7872,77 +7946,77 @@
         <v>120</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.4">
@@ -7950,22 +8024,22 @@
         <v>118</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>65</v>
@@ -7973,158 +8047,158 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F207" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H209" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F212" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.4">
@@ -8132,51 +8206,51 @@
         <v>117</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.4">
@@ -8184,22 +8258,22 @@
         <v>121</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>65</v>
@@ -8210,22 +8284,22 @@
         <v>118</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>65</v>
@@ -8233,106 +8307,106 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.4">
@@ -8340,103 +8414,103 @@
         <v>60</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.4">
@@ -8444,48 +8518,48 @@
         <v>122</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F225" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>65</v>
@@ -8493,54 +8567,54 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.4">
@@ -8548,22 +8622,22 @@
         <v>118</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>65</v>
@@ -8571,158 +8645,158 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.4">
@@ -8730,25 +8804,25 @@
         <v>117</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.4">
@@ -8756,22 +8830,22 @@
         <v>118</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>65</v>
@@ -8779,28 +8853,28 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.4">
@@ -8808,22 +8882,22 @@
         <v>121</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>65</v>
@@ -8834,25 +8908,25 @@
         <v>120</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.4">
@@ -8860,233 +8934,233 @@
         <v>120</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.4">
@@ -9094,22 +9168,22 @@
         <v>121</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>65</v>
@@ -9120,25 +9194,25 @@
         <v>120</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.4">
@@ -9146,51 +9220,51 @@
         <v>120</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.4">
@@ -9198,25 +9272,25 @@
         <v>122</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.4">
@@ -9224,25 +9298,25 @@
         <v>122</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.4">
@@ -9250,51 +9324,51 @@
         <v>122</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.4">
@@ -9302,25 +9376,25 @@
         <v>60</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.4">
@@ -9328,25 +9402,25 @@
         <v>60</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.4">
@@ -9354,25 +9428,25 @@
         <v>60</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.4">
@@ -9380,51 +9454,51 @@
         <v>60</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.4">
@@ -9432,22 +9506,22 @@
         <v>123</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>65</v>
@@ -9458,22 +9532,22 @@
         <v>123</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>65</v>
@@ -9484,22 +9558,22 @@
         <v>123</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>65</v>
@@ -9507,28 +9581,28 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.4">
@@ -9536,25 +9610,25 @@
         <v>64</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.4">
@@ -9562,25 +9636,25 @@
         <v>64</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.4">
@@ -9588,169 +9662,169 @@
         <v>64</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>69</v>
@@ -9759,7 +9833,7 @@
         <v>70</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>72</v>
@@ -9767,16 +9841,16 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>69</v>
@@ -9785,7 +9859,7 @@
         <v>70</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>72</v>
@@ -9793,16 +9867,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>69</v>
@@ -9811,7 +9885,7 @@
         <v>70</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>72</v>
@@ -9819,16 +9893,16 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C278" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D278" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="D278" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>69</v>
@@ -9837,40 +9911,274 @@
         <v>70</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A279" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>574</v>
+      <c r="A279" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>563</v>
       </c>
       <c r="D279" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A280" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G280" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E279" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F279" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G279" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="H279" s="3" t="s">
+      <c r="H280" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A281" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G281" s="3" t="s">
         <v>579</v>
       </c>
+      <c r="H281" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A282" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A283" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A284" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A285" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A286" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A287" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A288" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H274" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}"/>
+  <autoFilter ref="A1:H279" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1AB7F6-C90A-477E-BE6D-D54CCB42276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD19F38-A294-460C-8AFA-C366FED72577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="603">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -2258,6 +2258,24 @@
   <si>
     <t>images/IMG_5359.jpg</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ KPG-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5376.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFEXkQKzvWr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5377.jpg</t>
+  </si>
+  <si>
+    <t>images/IMG_5378.jpg</t>
   </si>
 </sst>
 </file>
@@ -2671,10 +2689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
-      <selection activeCell="F297" sqref="F297"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9944,7 +9962,7 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A280" s="3" t="s">
+      <c r="A280" s="1" t="s">
         <v>577</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -9962,15 +9980,15 @@
       <c r="F280" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G280" s="3" t="s">
+      <c r="G280" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H280" s="3" t="s">
+      <c r="H280" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A281" s="3" t="s">
+      <c r="A281" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -9982,21 +10000,21 @@
       <c r="D281" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E281" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F281" s="3" t="s">
+      <c r="F281" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G281" s="3" t="s">
+      <c r="G281" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H281" s="3" t="s">
+      <c r="H281" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A282" s="3" t="s">
+      <c r="A282" s="1" t="s">
         <v>581</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -10008,21 +10026,21 @@
       <c r="D282" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E282" s="3" t="s">
+      <c r="E282" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F282" s="3" t="s">
+      <c r="F282" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G282" s="3" t="s">
+      <c r="G282" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H282" s="3" t="s">
+      <c r="H282" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A283" s="3" t="s">
+      <c r="A283" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -10034,21 +10052,21 @@
       <c r="D283" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="E283" s="3" t="s">
+      <c r="E283" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F283" s="3" t="s">
+      <c r="F283" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G283" s="3" t="s">
+      <c r="G283" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H283" s="3" t="s">
+      <c r="H283" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A284" s="3" t="s">
+      <c r="A284" s="1" t="s">
         <v>583</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -10060,21 +10078,21 @@
       <c r="D284" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="E284" s="3" t="s">
+      <c r="E284" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F284" s="3" t="s">
+      <c r="F284" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G284" s="3" t="s">
+      <c r="G284" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H284" s="3" t="s">
+      <c r="H284" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A285" s="3" t="s">
+      <c r="A285" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -10086,21 +10104,21 @@
       <c r="D285" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="E285" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F285" s="3" t="s">
+      <c r="F285" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G285" s="3" t="s">
+      <c r="G285" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H285" s="3" t="s">
+      <c r="H285" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A286" s="3" t="s">
+      <c r="A286" s="1" t="s">
         <v>591</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -10112,21 +10130,21 @@
       <c r="D286" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E286" s="3" t="s">
+      <c r="E286" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F286" s="3" t="s">
+      <c r="F286" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G286" s="3" t="s">
+      <c r="G286" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H286" s="3" t="s">
+      <c r="H286" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A287" s="3" t="s">
+      <c r="A287" s="1" t="s">
         <v>592</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -10138,21 +10156,21 @@
       <c r="D287" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="E287" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F287" s="3" t="s">
+      <c r="F287" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G287" s="3" t="s">
+      <c r="G287" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H287" s="3" t="s">
+      <c r="H287" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A288" s="3" t="s">
+      <c r="A288" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -10164,17 +10182,95 @@
       <c r="D288" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="E288" s="3" t="s">
+      <c r="E288" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F288" s="3" t="s">
+      <c r="F288" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="G288" s="3" t="s">
+      <c r="G288" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H288" s="3" t="s">
+      <c r="H288" s="1" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A289" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A290" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A291" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8599988D-FCB5-4AD7-8A72-9FC1ECA84B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF268C32-70BF-43C1-8938-E0FADFE202A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="693">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -2233,6 +2233,315 @@
   </si>
   <si>
     <t>images/IMG_5378.avif</t>
+  </si>
+  <si>
+    <t>C-aN8irSWVy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goodtaniku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5396.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DE9VgWWT9Xd</t>
+  </si>
+  <si>
+    <t>DE9VgWWT9Xd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生08</t>
+  </si>
+  <si>
+    <t>GT実生08</t>
+    <rPh sb="2" eb="4">
+      <t>ミショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5397.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5398.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5399.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5400.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5401.avif</t>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DE4VFmeTqd_</t>
+  </si>
+  <si>
+    <t>DE4VFmeTqd_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生09</t>
+  </si>
+  <si>
+    <t>GT実生10</t>
+  </si>
+  <si>
+    <t>GT実生10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5404.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5405.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5406.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5407.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5408.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5403.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5409.avif</t>
+  </si>
+  <si>
+    <t>DEhewVXzs94</t>
+  </si>
+  <si>
+    <t>DEhewVXzs94</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5410.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5411.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5412.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5413.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5414.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5415.avif</t>
+  </si>
+  <si>
+    <t>DEFt0HITxUi</t>
+  </si>
+  <si>
+    <t>DEFt0HITxUi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生04</t>
+  </si>
+  <si>
+    <t>GT実生04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5416.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5417.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5418.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5419.avif</t>
+  </si>
+  <si>
+    <t>DDGt9F8ze7K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5422.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5423.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5424.avif</t>
+  </si>
+  <si>
+    <t>GTオアハカ05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GTオアハカ07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC_fbdOTs7a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5425.avif</t>
+  </si>
+  <si>
+    <t>DC3LnOkTrOb</t>
+  </si>
+  <si>
+    <t>DC3LnOkTrOb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生07</t>
+  </si>
+  <si>
+    <t>GT実生07</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5426.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5427.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5430.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5431.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5429.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5432.avif</t>
+  </si>
+  <si>
+    <t>DCPION_TN5K</t>
+  </si>
+  <si>
+    <t>DCPION_TN5K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生06</t>
+  </si>
+  <si>
+    <t>GT実生06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5433.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5434.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5435.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5436.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5437.avif</t>
+  </si>
+  <si>
+    <t>DCLRIZ8zbl8</t>
+  </si>
+  <si>
+    <t>DCLRIZ8zbl8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生01</t>
+  </si>
+  <si>
+    <t>GT実生01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5438.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5439.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5440.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5441.avif</t>
+  </si>
+  <si>
+    <t>DBdIehITNsq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生05</t>
+  </si>
+  <si>
+    <t>GT実生05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5442.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5443.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5444.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5445.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5446.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5447.avif</t>
+  </si>
+  <si>
+    <t>グッド多肉</t>
+    <rPh sb="3" eb="5">
+      <t>タニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5402.avif</t>
   </si>
 </sst>
 </file>
@@ -2643,11 +2952,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -10227,6 +10534,1280 @@
         <v>82</v>
       </c>
     </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A292" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A293" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A294" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A295" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A296" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A297" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A298" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A299" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A300" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A301" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A302" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A303" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A304" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A305" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A306" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A307" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A308" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A309" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A310" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A311" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A312" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A313" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A314" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A315" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A316" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A317" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A318" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A319" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A320" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A321" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A322" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A323" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A324" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A325" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A326" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A327" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A328" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F328" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A329" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A330" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A331" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A332" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A333" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A334" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A335" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A336" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A337" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A338" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A339" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A340" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>616</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H279" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}"/>
   <phoneticPr fontId="1"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF268C32-70BF-43C1-8938-E0FADFE202A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D01E232-BBC0-43A0-AB7E-2CA986C0EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="701">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -2542,6 +2542,34 @@
   </si>
   <si>
     <t>images/IMG_5402.avif</t>
+  </si>
+  <si>
+    <t>DDTa_dYzbCj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT2025</t>
+  </si>
+  <si>
+    <t>GT2025</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5451.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5450.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5452.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5453.avif</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2636,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2617,6 +2645,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2952,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:H340"/>
+  <dimension ref="A1:H344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11784,7 +11815,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>690</v>
@@ -11806,6 +11837,110 @@
       </c>
       <c r="H340" s="1" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A341" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A342" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A343" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A344" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D01E232-BBC0-43A0-AB7E-2CA986C0EDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EDCE6D-82D0-4FC8-AC26-BE087D962FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2752" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="736">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -2358,30 +2358,7 @@
     <t>images/IMG_5415.avif</t>
   </si>
   <si>
-    <t>DEFt0HITxUi</t>
-  </si>
-  <si>
-    <t>DEFt0HITxUi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GT実生04</t>
-  </si>
-  <si>
-    <t>GT実生04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>images/IMG_5416.avif</t>
-  </si>
-  <si>
-    <t>images/IMG_5417.avif</t>
-  </si>
-  <si>
-    <t>images/IMG_5418.avif</t>
-  </si>
-  <si>
-    <t>images/IMG_5419.avif</t>
   </si>
   <si>
     <t>DDGt9F8ze7K</t>
@@ -2548,10 +2525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GT実生05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GT2025</t>
   </si>
   <si>
@@ -2570,6 +2543,159 @@
   </si>
   <si>
     <t>images/IMG_5453.avif</t>
+  </si>
+  <si>
+    <t>C-9nNPYyUd2</t>
+  </si>
+  <si>
+    <t>C-9nNPYyUd2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生03</t>
+  </si>
+  <si>
+    <t>GT実生03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5472.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5473.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5475.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5476.avif</t>
+  </si>
+  <si>
+    <t>C9_U3gMySLt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5477.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCdSqqfzT8e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GT実生ホリダ01 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5478.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5479.avif</t>
+  </si>
+  <si>
+    <t>DAidFVNzclm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5480.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5481.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5482.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5483.avif</t>
+  </si>
+  <si>
+    <t>GT実生ホリダsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5485.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5486.avif</t>
+  </si>
+  <si>
+    <t>DDtvSf_zrjs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GT実生12</t>
+  </si>
+  <si>
+    <t>GT実生12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBJZKLsTkWb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5494.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5495.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5496.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5497.avif</t>
+  </si>
+  <si>
+    <t>GT実生11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDSI14oTHUI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5498.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5499.avif</t>
+  </si>
+  <si>
+    <t>GT実生ホリダ02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCipQR2Tp2c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5500.avif</t>
+  </si>
+  <si>
+    <t>C-VBBQLS21w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GTオアハカ01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5501.avif</t>
+  </si>
+  <si>
+    <t>is_display</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2636,7 +2762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2645,9 +2771,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2983,9 +3106,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:H344"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2996,10 +3121,10 @@
     <col min="5" max="5" width="19.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3024,8 +3149,11 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I1" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3050,8 +3178,11 @@
       <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -3076,8 +3207,11 @@
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -3102,8 +3236,11 @@
       <c r="H4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -3128,8 +3265,11 @@
       <c r="H5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -3154,8 +3294,11 @@
       <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3180,8 +3323,11 @@
       <c r="H7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -3206,8 +3352,11 @@
       <c r="H8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3232,8 +3381,11 @@
       <c r="H9" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -3258,8 +3410,11 @@
       <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -3284,8 +3439,11 @@
       <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -3310,8 +3468,11 @@
       <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -3336,8 +3497,11 @@
       <c r="H13" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -3362,8 +3526,11 @@
       <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -3388,8 +3555,11 @@
       <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -3414,8 +3584,11 @@
       <c r="H16" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -3440,8 +3613,11 @@
       <c r="H17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3466,8 +3642,11 @@
       <c r="H18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -3492,8 +3671,11 @@
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -3518,8 +3700,11 @@
       <c r="H20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -3544,8 +3729,11 @@
       <c r="H21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -3570,8 +3758,11 @@
       <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -3596,8 +3787,11 @@
       <c r="H23" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -3622,8 +3816,11 @@
       <c r="H24" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -3648,8 +3845,11 @@
       <c r="H25" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3674,8 +3874,11 @@
       <c r="H26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3700,8 +3903,11 @@
       <c r="H27" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -3726,8 +3932,11 @@
       <c r="H28" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -3752,8 +3961,11 @@
       <c r="H29" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -3778,8 +3990,11 @@
       <c r="H30" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -3804,8 +4019,11 @@
       <c r="H31" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -3830,8 +4048,11 @@
       <c r="H32" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -3856,8 +4077,11 @@
       <c r="H33" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -3882,8 +4106,11 @@
       <c r="H34" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -3908,8 +4135,11 @@
       <c r="H35" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I35" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3934,8 +4164,11 @@
       <c r="H36" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I36" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -3960,8 +4193,11 @@
       <c r="H37" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I37" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -3986,8 +4222,11 @@
       <c r="H38" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I38" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -4012,8 +4251,11 @@
       <c r="H39" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I39" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -4038,8 +4280,11 @@
       <c r="H40" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I40" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -4064,8 +4309,11 @@
       <c r="H41" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I41" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -4090,8 +4338,11 @@
       <c r="H42" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I42" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -4116,8 +4367,11 @@
       <c r="H43" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I43" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -4142,8 +4396,11 @@
       <c r="H44" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I44" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -4168,8 +4425,11 @@
       <c r="H45" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I45" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -4194,8 +4454,11 @@
       <c r="H46" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I46" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
@@ -4220,8 +4483,11 @@
       <c r="H47" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
@@ -4246,8 +4512,11 @@
       <c r="H48" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I48" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -4272,8 +4541,11 @@
       <c r="H49" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I49" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -4298,8 +4570,11 @@
       <c r="H50" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I50" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
@@ -4324,8 +4599,11 @@
       <c r="H51" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -4350,8 +4628,11 @@
       <c r="H52" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I52" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -4376,8 +4657,11 @@
       <c r="H53" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I53" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -4402,8 +4686,11 @@
       <c r="H54" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I54" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -4428,8 +4715,11 @@
       <c r="H55" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I55" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -4454,8 +4744,11 @@
       <c r="H56" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I56" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
@@ -4480,8 +4773,11 @@
       <c r="H57" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I57" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
@@ -4506,8 +4802,11 @@
       <c r="H58" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I58" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -4532,8 +4831,11 @@
       <c r="H59" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I59" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -4558,8 +4860,11 @@
       <c r="H60" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I60" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
@@ -4584,8 +4889,11 @@
       <c r="H61" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I61" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4610,8 +4918,11 @@
       <c r="H62" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I62" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -4636,8 +4947,11 @@
       <c r="H63" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I63" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -4662,8 +4976,11 @@
       <c r="H64" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I64" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -4688,8 +5005,11 @@
       <c r="H65" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I65" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>123</v>
       </c>
@@ -4714,8 +5034,11 @@
       <c r="H66" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I66" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
@@ -4740,8 +5063,11 @@
       <c r="H67" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I67" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
@@ -4766,8 +5092,11 @@
       <c r="H68" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I68" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
@@ -4792,8 +5121,11 @@
       <c r="H69" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I69" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -4818,8 +5150,11 @@
       <c r="H70" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I70" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
@@ -4844,8 +5179,11 @@
       <c r="H71" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I71" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>121</v>
       </c>
@@ -4870,8 +5208,11 @@
       <c r="H72" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I72" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
@@ -4896,8 +5237,11 @@
       <c r="H73" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I73" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
@@ -4922,8 +5266,11 @@
       <c r="H74" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I74" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
@@ -4948,8 +5295,11 @@
       <c r="H75" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I75" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>122</v>
       </c>
@@ -4974,8 +5324,11 @@
       <c r="H76" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I76" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>291</v>
       </c>
@@ -5000,8 +5353,11 @@
       <c r="H77" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I77" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>291</v>
       </c>
@@ -5026,8 +5382,11 @@
       <c r="H78" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I78" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>292</v>
       </c>
@@ -5052,8 +5411,11 @@
       <c r="H79" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I79" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>292</v>
       </c>
@@ -5078,8 +5440,11 @@
       <c r="H80" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I80" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>125</v>
       </c>
@@ -5104,8 +5469,11 @@
       <c r="H81" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I81" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
@@ -5130,8 +5498,11 @@
       <c r="H82" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I82" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>291</v>
       </c>
@@ -5156,8 +5527,11 @@
       <c r="H83" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I83" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>293</v>
       </c>
@@ -5182,8 +5556,11 @@
       <c r="H84" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I84" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>293</v>
       </c>
@@ -5208,8 +5585,11 @@
       <c r="H85" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I85" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>127</v>
       </c>
@@ -5234,8 +5614,11 @@
       <c r="H86" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I86" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
@@ -5260,8 +5643,11 @@
       <c r="H87" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I87" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>127</v>
       </c>
@@ -5286,8 +5672,11 @@
       <c r="H88" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I88" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>294</v>
       </c>
@@ -5312,8 +5701,11 @@
       <c r="H89" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I89" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>294</v>
       </c>
@@ -5338,8 +5730,11 @@
       <c r="H90" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I90" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>291</v>
       </c>
@@ -5364,8 +5759,11 @@
       <c r="H91" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I91" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>291</v>
       </c>
@@ -5390,8 +5788,11 @@
       <c r="H92" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I92" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>291</v>
       </c>
@@ -5416,8 +5817,11 @@
       <c r="H93" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I93" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>295</v>
       </c>
@@ -5442,8 +5846,11 @@
       <c r="H94" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I94" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>295</v>
       </c>
@@ -5468,8 +5875,11 @@
       <c r="H95" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I95" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -5494,8 +5904,11 @@
       <c r="H96" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I96" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>125</v>
       </c>
@@ -5520,8 +5933,11 @@
       <c r="H97" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I97" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
@@ -5546,8 +5962,11 @@
       <c r="H98" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I98" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
@@ -5572,8 +5991,11 @@
       <c r="H99" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I99" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>125</v>
       </c>
@@ -5598,8 +6020,11 @@
       <c r="H100" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I100" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>296</v>
       </c>
@@ -5624,8 +6049,11 @@
       <c r="H101" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I101" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>295</v>
       </c>
@@ -5650,8 +6078,11 @@
       <c r="H102" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I102" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>295</v>
       </c>
@@ -5676,8 +6107,11 @@
       <c r="H103" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I103" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>297</v>
       </c>
@@ -5702,8 +6136,11 @@
       <c r="H104" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I104" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>297</v>
       </c>
@@ -5728,8 +6165,11 @@
       <c r="H105" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I105" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>297</v>
       </c>
@@ -5754,8 +6194,11 @@
       <c r="H106" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I106" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>297</v>
       </c>
@@ -5780,8 +6223,11 @@
       <c r="H107" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I107" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>294</v>
       </c>
@@ -5806,8 +6252,11 @@
       <c r="H108" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I108" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>294</v>
       </c>
@@ -5832,8 +6281,11 @@
       <c r="H109" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I109" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>294</v>
       </c>
@@ -5858,8 +6310,11 @@
       <c r="H110" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I110" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>294</v>
       </c>
@@ -5884,8 +6339,11 @@
       <c r="H111" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I111" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -5910,8 +6368,11 @@
       <c r="H112" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I112" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -5936,8 +6397,11 @@
       <c r="H113" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I113" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>120</v>
       </c>
@@ -5962,8 +6426,11 @@
       <c r="H114" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I114" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
@@ -5988,8 +6455,11 @@
       <c r="H115" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I115" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -6014,8 +6484,11 @@
       <c r="H116" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I116" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -6040,8 +6513,11 @@
       <c r="H117" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I117" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>124</v>
       </c>
@@ -6066,8 +6542,11 @@
       <c r="H118" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I118" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
@@ -6092,8 +6571,11 @@
       <c r="H119" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I119" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
@@ -6118,8 +6600,11 @@
       <c r="H120" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I120" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -6144,8 +6629,11 @@
       <c r="H121" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I121" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
@@ -6170,8 +6658,11 @@
       <c r="H122" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I122" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -6196,8 +6687,11 @@
       <c r="H123" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I123" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -6222,8 +6716,11 @@
       <c r="H124" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I124" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>120</v>
       </c>
@@ -6248,8 +6745,11 @@
       <c r="H125" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I125" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
@@ -6274,8 +6774,11 @@
       <c r="H126" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I126" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -6300,8 +6803,11 @@
       <c r="H127" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I127" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -6326,8 +6832,11 @@
       <c r="H128" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I128" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
@@ -6352,8 +6861,11 @@
       <c r="H129" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I129" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>125</v>
       </c>
@@ -6378,8 +6890,11 @@
       <c r="H130" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I130" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>122</v>
       </c>
@@ -6404,8 +6919,11 @@
       <c r="H131" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I131" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>122</v>
       </c>
@@ -6430,8 +6948,11 @@
       <c r="H132" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I132" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
@@ -6456,8 +6977,11 @@
       <c r="H133" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I133" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>129</v>
       </c>
@@ -6482,8 +7006,11 @@
       <c r="H134" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I134" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -6508,8 +7035,11 @@
       <c r="H135" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I135" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>133</v>
       </c>
@@ -6534,8 +7064,11 @@
       <c r="H136" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I136" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
@@ -6560,8 +7093,11 @@
       <c r="H137" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I137" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -6586,8 +7122,11 @@
       <c r="H138" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I138" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -6612,8 +7151,11 @@
       <c r="H139" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I139" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>12</v>
       </c>
@@ -6638,8 +7180,11 @@
       <c r="H140" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I140" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -6664,8 +7209,11 @@
       <c r="H141" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I141" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -6690,8 +7238,11 @@
       <c r="H142" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I142" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -6716,8 +7267,11 @@
       <c r="H143" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I143" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -6742,8 +7296,11 @@
       <c r="H144" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I144" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>16</v>
       </c>
@@ -6768,8 +7325,11 @@
       <c r="H145" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I145" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
@@ -6794,8 +7354,11 @@
       <c r="H146" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I146" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>133</v>
       </c>
@@ -6820,8 +7383,11 @@
       <c r="H147" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I147" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>132</v>
       </c>
@@ -6846,8 +7412,11 @@
       <c r="H148" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I148" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
@@ -6872,8 +7441,11 @@
       <c r="H149" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I149" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>52</v>
       </c>
@@ -6898,8 +7470,11 @@
       <c r="H150" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I150" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>52</v>
       </c>
@@ -6924,8 +7499,11 @@
       <c r="H151" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I151" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>52</v>
       </c>
@@ -6950,8 +7528,11 @@
       <c r="H152" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I152" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>56</v>
       </c>
@@ -6976,8 +7557,11 @@
       <c r="H153" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I153" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>56</v>
       </c>
@@ -7002,8 +7586,11 @@
       <c r="H154" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I154" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>145</v>
       </c>
@@ -7028,8 +7615,11 @@
       <c r="H155" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I155" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>145</v>
       </c>
@@ -7054,8 +7644,11 @@
       <c r="H156" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I156" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>147</v>
       </c>
@@ -7080,8 +7673,11 @@
       <c r="H157" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I157" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>149</v>
       </c>
@@ -7106,8 +7702,11 @@
       <c r="H158" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I158" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>149</v>
       </c>
@@ -7132,8 +7731,11 @@
       <c r="H159" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I159" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>149</v>
       </c>
@@ -7158,8 +7760,11 @@
       <c r="H160" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I160" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>151</v>
       </c>
@@ -7184,8 +7789,11 @@
       <c r="H161" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I161" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>151</v>
       </c>
@@ -7210,8 +7818,11 @@
       <c r="H162" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I162" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
@@ -7236,8 +7847,11 @@
       <c r="H163" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I163" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>153</v>
       </c>
@@ -7262,8 +7876,11 @@
       <c r="H164" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I164" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>145</v>
       </c>
@@ -7288,8 +7905,11 @@
       <c r="H165" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I165" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
@@ -7314,8 +7934,11 @@
       <c r="H166" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I166" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>40</v>
       </c>
@@ -7340,8 +7963,11 @@
       <c r="H167" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I167" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>40</v>
       </c>
@@ -7366,8 +7992,11 @@
       <c r="H168" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I168" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>138</v>
       </c>
@@ -7392,8 +8021,11 @@
       <c r="H169" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I169" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>138</v>
       </c>
@@ -7418,8 +8050,11 @@
       <c r="H170" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I170" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>71</v>
       </c>
@@ -7444,8 +8079,11 @@
       <c r="H171" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I171" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>165</v>
       </c>
@@ -7470,8 +8108,11 @@
       <c r="H172" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I172" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>166</v>
       </c>
@@ -7496,8 +8137,11 @@
       <c r="H173" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I173" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>167</v>
       </c>
@@ -7522,8 +8166,11 @@
       <c r="H174" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I174" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>165</v>
       </c>
@@ -7548,8 +8195,11 @@
       <c r="H175" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I175" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>165</v>
       </c>
@@ -7574,8 +8224,11 @@
       <c r="H176" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I176" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>165</v>
       </c>
@@ -7600,8 +8253,11 @@
       <c r="H177" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I177" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>23</v>
       </c>
@@ -7626,8 +8282,11 @@
       <c r="H178" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I178" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>23</v>
       </c>
@@ -7652,8 +8311,11 @@
       <c r="H179" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I179" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>23</v>
       </c>
@@ -7678,8 +8340,11 @@
       <c r="H180" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I180" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>23</v>
       </c>
@@ -7704,8 +8369,11 @@
       <c r="H181" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I181" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>23</v>
       </c>
@@ -7730,8 +8398,11 @@
       <c r="H182" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I182" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>168</v>
       </c>
@@ -7756,8 +8427,11 @@
       <c r="H183" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I183" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>169</v>
       </c>
@@ -7782,8 +8456,11 @@
       <c r="H184" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I184" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>73</v>
       </c>
@@ -7808,8 +8485,11 @@
       <c r="H185" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I185" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>74</v>
       </c>
@@ -7834,8 +8514,11 @@
       <c r="H186" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I186" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
@@ -7860,8 +8543,11 @@
       <c r="H187" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I187" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>160</v>
       </c>
@@ -7886,8 +8572,11 @@
       <c r="H188" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I188" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>183</v>
       </c>
@@ -7912,8 +8601,11 @@
       <c r="H189" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I189" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>167</v>
       </c>
@@ -7938,8 +8630,11 @@
       <c r="H190" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I190" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>70</v>
       </c>
@@ -7964,8 +8659,11 @@
       <c r="H191" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I191" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>188</v>
       </c>
@@ -7990,8 +8688,11 @@
       <c r="H192" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I192" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>168</v>
       </c>
@@ -8016,8 +8717,11 @@
       <c r="H193" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I193" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -8042,8 +8746,11 @@
       <c r="H194" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I194" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
@@ -8068,8 +8775,11 @@
       <c r="H195" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I195" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>74</v>
       </c>
@@ -8094,8 +8804,11 @@
       <c r="H196" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I196" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>71</v>
       </c>
@@ -8120,8 +8833,11 @@
       <c r="H197" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I197" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>165</v>
       </c>
@@ -8146,8 +8862,11 @@
       <c r="H198" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I198" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -8172,8 +8891,11 @@
       <c r="H199" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I199" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>138</v>
       </c>
@@ -8198,8 +8920,11 @@
       <c r="H200" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I200" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>167</v>
       </c>
@@ -8224,8 +8949,11 @@
       <c r="H201" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I201" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>202</v>
       </c>
@@ -8250,8 +8978,11 @@
       <c r="H202" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I202" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>73</v>
       </c>
@@ -8276,8 +9007,11 @@
       <c r="H203" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I203" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>169</v>
       </c>
@@ -8302,8 +9036,11 @@
       <c r="H204" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I204" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>192</v>
       </c>
@@ -8328,8 +9065,11 @@
       <c r="H205" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I205" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>71</v>
       </c>
@@ -8354,8 +9094,11 @@
       <c r="H206" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I206" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>208</v>
       </c>
@@ -8380,8 +9123,11 @@
       <c r="H207" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I207" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>160</v>
       </c>
@@ -8406,8 +9152,11 @@
       <c r="H208" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I208" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>168</v>
       </c>
@@ -8432,8 +9181,11 @@
       <c r="H209" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I209" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>161</v>
       </c>
@@ -8458,8 +9210,11 @@
       <c r="H210" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I210" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -8484,8 +9239,11 @@
       <c r="H211" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I211" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>215</v>
       </c>
@@ -8510,8 +9268,11 @@
       <c r="H212" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I212" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>70</v>
       </c>
@@ -8536,8 +9297,11 @@
       <c r="H213" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I213" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
@@ -8562,8 +9326,11 @@
       <c r="H214" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I214" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>74</v>
       </c>
@@ -8588,8 +9355,11 @@
       <c r="H215" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I215" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>71</v>
       </c>
@@ -8614,8 +9384,11 @@
       <c r="H216" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I216" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>165</v>
       </c>
@@ -8640,8 +9413,11 @@
       <c r="H217" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I217" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>223</v>
       </c>
@@ -8666,8 +9442,11 @@
       <c r="H218" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I218" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>158</v>
       </c>
@@ -8692,8 +9471,11 @@
       <c r="H219" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I219" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>227</v>
       </c>
@@ -8718,8 +9500,11 @@
       <c r="H220" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I220" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>40</v>
       </c>
@@ -8744,8 +9529,11 @@
       <c r="H221" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I221" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>188</v>
       </c>
@@ -8770,8 +9558,11 @@
       <c r="H222" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I222" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>159</v>
       </c>
@@ -8796,8 +9587,11 @@
       <c r="H223" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I223" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>192</v>
       </c>
@@ -8822,8 +9616,11 @@
       <c r="H224" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I224" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>75</v>
       </c>
@@ -8848,8 +9645,11 @@
       <c r="H225" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I225" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -8874,8 +9674,11 @@
       <c r="H226" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I226" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>165</v>
       </c>
@@ -8900,8 +9703,11 @@
       <c r="H227" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I227" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>192</v>
       </c>
@@ -8926,8 +9732,11 @@
       <c r="H228" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I228" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>71</v>
       </c>
@@ -8952,8 +9761,11 @@
       <c r="H229" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I229" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>227</v>
       </c>
@@ -8978,8 +9790,11 @@
       <c r="H230" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I230" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>168</v>
       </c>
@@ -9004,8 +9819,11 @@
       <c r="H231" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I231" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>169</v>
       </c>
@@ -9030,8 +9848,11 @@
       <c r="H232" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I232" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>215</v>
       </c>
@@ -9056,8 +9877,11 @@
       <c r="H233" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I233" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>192</v>
       </c>
@@ -9082,8 +9906,11 @@
       <c r="H234" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I234" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>160</v>
       </c>
@@ -9108,8 +9935,11 @@
       <c r="H235" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I235" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>70</v>
       </c>
@@ -9134,8 +9964,11 @@
       <c r="H236" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I236" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>71</v>
       </c>
@@ -9160,8 +9993,11 @@
       <c r="H237" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I237" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>227</v>
       </c>
@@ -9186,8 +10022,11 @@
       <c r="H238" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I238" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>74</v>
       </c>
@@ -9212,8 +10051,11 @@
       <c r="H239" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I239" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>73</v>
       </c>
@@ -9238,8 +10080,11 @@
       <c r="H240" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I240" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>73</v>
       </c>
@@ -9264,8 +10109,11 @@
       <c r="H241" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I241" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>138</v>
       </c>
@@ -9290,8 +10138,11 @@
       <c r="H242" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I242" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>138</v>
       </c>
@@ -9316,8 +10167,11 @@
       <c r="H243" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I243" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
         <v>160</v>
       </c>
@@ -9342,8 +10196,11 @@
       <c r="H244" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I244" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>168</v>
       </c>
@@ -9368,8 +10225,11 @@
       <c r="H245" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I245" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>192</v>
       </c>
@@ -9394,8 +10254,11 @@
       <c r="H246" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I246" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>169</v>
       </c>
@@ -9420,8 +10283,11 @@
       <c r="H247" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I247" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>165</v>
       </c>
@@ -9446,8 +10312,11 @@
       <c r="H248" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I248" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>227</v>
       </c>
@@ -9472,8 +10341,11 @@
       <c r="H249" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I249" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>74</v>
       </c>
@@ -9498,8 +10370,11 @@
       <c r="H250" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I250" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>73</v>
       </c>
@@ -9524,8 +10399,11 @@
       <c r="H251" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I251" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>73</v>
       </c>
@@ -9550,8 +10428,11 @@
       <c r="H252" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I252" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>160</v>
       </c>
@@ -9576,8 +10457,11 @@
       <c r="H253" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I253" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>75</v>
       </c>
@@ -9602,8 +10486,11 @@
       <c r="H254" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I254" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>75</v>
       </c>
@@ -9628,8 +10515,11 @@
       <c r="H255" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I255" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>75</v>
       </c>
@@ -9654,8 +10544,11 @@
       <c r="H256" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I256" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>260</v>
       </c>
@@ -9680,8 +10573,11 @@
       <c r="H257" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I257" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>40</v>
       </c>
@@ -9706,8 +10602,11 @@
       <c r="H258" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I258" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>40</v>
       </c>
@@ -9732,8 +10631,11 @@
       <c r="H259" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I259" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>40</v>
       </c>
@@ -9758,8 +10660,11 @@
       <c r="H260" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I260" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>40</v>
       </c>
@@ -9784,8 +10689,11 @@
       <c r="H261" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I261" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>138</v>
       </c>
@@ -9810,8 +10718,11 @@
       <c r="H262" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I262" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>76</v>
       </c>
@@ -9836,8 +10747,11 @@
       <c r="H263" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I263" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>76</v>
       </c>
@@ -9862,8 +10776,11 @@
       <c r="H264" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I264" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>76</v>
       </c>
@@ -9888,8 +10805,11 @@
       <c r="H265" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I265" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>266</v>
       </c>
@@ -9914,8 +10834,11 @@
       <c r="H266" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I266" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>43</v>
       </c>
@@ -9940,8 +10863,11 @@
       <c r="H267" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I267" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>43</v>
       </c>
@@ -9966,8 +10892,11 @@
       <c r="H268" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I268" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>43</v>
       </c>
@@ -9992,8 +10921,11 @@
       <c r="H269" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I269" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>188</v>
       </c>
@@ -10018,8 +10950,11 @@
       <c r="H270" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I270" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>158</v>
       </c>
@@ -10044,8 +10979,11 @@
       <c r="H271" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I271" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>138</v>
       </c>
@@ -10070,8 +11008,11 @@
       <c r="H272" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I272" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>192</v>
       </c>
@@ -10096,8 +11037,11 @@
       <c r="H273" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I273" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>138</v>
       </c>
@@ -10122,8 +11066,11 @@
       <c r="H274" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I274" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>275</v>
       </c>
@@ -10148,8 +11095,11 @@
       <c r="H275" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I275" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>278</v>
       </c>
@@ -10174,8 +11124,11 @@
       <c r="H276" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I276" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>280</v>
       </c>
@@ -10200,8 +11153,11 @@
       <c r="H277" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I277" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>283</v>
       </c>
@@ -10226,8 +11182,11 @@
       <c r="H278" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I278" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>285</v>
       </c>
@@ -10252,8 +11211,11 @@
       <c r="H279" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I279" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>299</v>
       </c>
@@ -10278,8 +11240,11 @@
       <c r="H280" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I280" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>301</v>
       </c>
@@ -10304,8 +11269,11 @@
       <c r="H281" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I281" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>302</v>
       </c>
@@ -10330,8 +11298,11 @@
       <c r="H282" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I282" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>303</v>
       </c>
@@ -10356,8 +11327,11 @@
       <c r="H283" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I283" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>304</v>
       </c>
@@ -10382,8 +11356,11 @@
       <c r="H284" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I284" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>307</v>
       </c>
@@ -10408,8 +11385,11 @@
       <c r="H285" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I285" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>308</v>
       </c>
@@ -10434,8 +11414,11 @@
       <c r="H286" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I286" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>309</v>
       </c>
@@ -10460,8 +11443,11 @@
       <c r="H287" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I287" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>303</v>
       </c>
@@ -10486,8 +11472,11 @@
       <c r="H288" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I288" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>311</v>
       </c>
@@ -10512,8 +11501,11 @@
       <c r="H289" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I289" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>311</v>
       </c>
@@ -10538,8 +11530,11 @@
       <c r="H290" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I290" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>311</v>
       </c>
@@ -10564,13 +11559,16 @@
       <c r="H291" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I291" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>604</v>
@@ -10579,7 +11577,7 @@
         <v>605</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>604</v>
@@ -10590,13 +11588,16 @@
       <c r="H292" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I292" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>604</v>
@@ -10605,7 +11606,7 @@
         <v>611</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>604</v>
@@ -10616,13 +11617,16 @@
       <c r="H293" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I293" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>604</v>
@@ -10631,7 +11635,7 @@
         <v>612</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>604</v>
@@ -10642,13 +11646,16 @@
       <c r="H294" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I294" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>604</v>
@@ -10657,7 +11664,7 @@
         <v>613</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>604</v>
@@ -10668,13 +11675,16 @@
       <c r="H295" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I295" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>604</v>
@@ -10683,7 +11693,7 @@
         <v>614</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>604</v>
@@ -10694,13 +11704,16 @@
       <c r="H296" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I296" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>609</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>604</v>
@@ -10709,7 +11722,7 @@
         <v>615</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>604</v>
@@ -10720,22 +11733,25 @@
       <c r="H297" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I297" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>604</v>
@@ -10746,13 +11762,16 @@
       <c r="H298" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I298" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>604</v>
@@ -10761,7 +11780,7 @@
         <v>627</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>604</v>
@@ -10772,13 +11791,16 @@
       <c r="H299" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I299" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>621</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>604</v>
@@ -10787,7 +11809,7 @@
         <v>622</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>604</v>
@@ -10798,13 +11820,16 @@
       <c r="H300" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I300" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>621</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>604</v>
@@ -10813,7 +11838,7 @@
         <v>623</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>604</v>
@@ -10824,13 +11849,16 @@
       <c r="H301" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I301" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>604</v>
@@ -10839,7 +11867,7 @@
         <v>624</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>604</v>
@@ -10850,13 +11878,16 @@
       <c r="H302" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I302" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>604</v>
@@ -10865,7 +11896,7 @@
         <v>625</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>604</v>
@@ -10876,13 +11907,16 @@
       <c r="H303" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I303" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>604</v>
@@ -10891,7 +11925,7 @@
         <v>626</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>604</v>
@@ -10902,13 +11936,16 @@
       <c r="H304" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I304" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>604</v>
@@ -10917,7 +11954,7 @@
         <v>628</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>604</v>
@@ -10928,13 +11965,16 @@
       <c r="H305" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I305" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>631</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>604</v>
@@ -10943,7 +11983,7 @@
         <v>632</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>604</v>
@@ -10954,13 +11994,16 @@
       <c r="H306" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I306" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>604</v>
@@ -10969,7 +12012,7 @@
         <v>633</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>604</v>
@@ -10980,13 +12023,16 @@
       <c r="H307" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I307" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>604</v>
@@ -10995,7 +12041,7 @@
         <v>634</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>604</v>
@@ -11006,13 +12052,16 @@
       <c r="H308" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I308" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>604</v>
@@ -11021,7 +12070,7 @@
         <v>635</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>604</v>
@@ -11032,13 +12081,16 @@
       <c r="H309" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I309" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>604</v>
@@ -11047,7 +12099,7 @@
         <v>636</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>604</v>
@@ -11058,13 +12110,16 @@
       <c r="H310" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I310" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>619</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C311" s="1" t="s">
         <v>604</v>
@@ -11073,7 +12128,7 @@
         <v>637</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>604</v>
@@ -11084,22 +12139,25 @@
       <c r="H311" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I311" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>604</v>
@@ -11110,22 +12168,25 @@
       <c r="H312" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I312" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D313" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="E313" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>604</v>
@@ -11136,143 +12197,161 @@
       <c r="H313" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I313" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I314" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D315" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G315" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="E315" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>638</v>
-      </c>
       <c r="H315" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="I315" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I316" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D317" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G317" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F317" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G317" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I317" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I318" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>604</v>
@@ -11281,310 +12360,346 @@
         <v>653</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.4">
+        <v>616</v>
+      </c>
+      <c r="I319" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I320" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I321" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I322" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I323" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I324" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I325" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I326" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G327" s="1" t="s">
         <v>667</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="E327" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F327" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G327" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I327" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I328" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G329" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B329" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C329" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="E329" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G329" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I329" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G330" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="B330" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D330" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="E330" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F330" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G330" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I330" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C331" s="1" t="s">
         <v>604</v>
@@ -11593,7 +12708,7 @@
         <v>677</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>604</v>
@@ -11604,13 +12719,16 @@
       <c r="H331" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I331" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>604</v>
@@ -11619,7 +12737,7 @@
         <v>678</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>604</v>
@@ -11630,13 +12748,16 @@
       <c r="H332" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I332" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>604</v>
@@ -11645,24 +12766,27 @@
         <v>679</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I333" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>604</v>
@@ -11671,232 +12795,259 @@
         <v>680</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I334" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I335" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C336" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I336" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D337" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="C337" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D337" s="1" t="s">
+      <c r="E337" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G337" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="E337" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F337" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G337" s="1" t="s">
-        <v>681</v>
-      </c>
       <c r="H337" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+      <c r="I337" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C338" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D338" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I338" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A339" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E338" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="F338" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G338" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="H338" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A339" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="B339" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+      <c r="I339" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>604</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+      <c r="I340" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G341" s="3" t="s">
-        <v>693</v>
+      <c r="G341" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A342" s="3" t="s">
+      <c r="I341" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A342" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>604</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G342" s="3" t="s">
-        <v>693</v>
+      <c r="G342" s="1" t="s">
+        <v>694</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I342" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>604</v>
@@ -11905,24 +13056,27 @@
         <v>699</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G343" s="3" t="s">
+      <c r="G343" s="1" t="s">
         <v>693</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A344" s="3" t="s">
-        <v>695</v>
+      <c r="I343" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A344" s="1" t="s">
+        <v>696</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>604</v>
@@ -11931,16 +13085,512 @@
         <v>700</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="G344" s="3" t="s">
+      <c r="G344" s="1" t="s">
         <v>693</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>157</v>
+      </c>
+      <c r="I344" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A345" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G345" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I345" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A346" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I346" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A347" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G347" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I347" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A348" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G348" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I348" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A349" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G349" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I349" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A350" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G350" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I350" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A351" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G351" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I351" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A352" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I352" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A353" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I353" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A354" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G354" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I354" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A355" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I355" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A356" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I356" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A357" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I357" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A358" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G358" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H358" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I358" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A359" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G359" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="H359" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I359" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A360" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G360" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="H360" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I360" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A361" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="H361" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I361" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EDCE6D-82D0-4FC8-AC26-BE087D962FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB034D49-B689-4DE4-9B81-0E0E0C2D4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="843">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -880,10 +880,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>穿山甲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C_3zfLuTXoE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2695,6 +2691,385 @@
   </si>
   <si>
     <t>is_display</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDBnLdOzn5k</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GTオアハカ08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5583.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5584.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5585.avif</t>
+  </si>
+  <si>
+    <t>C_xiyHFzvgl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kin_diatechno</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IVORYw.a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5522.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5523.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5524.avif</t>
+  </si>
+  <si>
+    <t>DFKYQBASbc0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5525.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5526.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5527.avif</t>
+  </si>
+  <si>
+    <t>DE-AsZ0T7mK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5528.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5529.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5530.avif</t>
+  </si>
+  <si>
+    <t>金牛角</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DE2ZMHay5ie</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5531.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5532.avif</t>
+  </si>
+  <si>
+    <t>Studs5th</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEsFWndz35n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5533.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5534.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5535.avif</t>
+  </si>
+  <si>
+    <t>DEfeVfaz-EP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5536.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5537.avif</t>
+  </si>
+  <si>
+    <t>DEct6JqTAH8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5538.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5539.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5540.avif</t>
+  </si>
+  <si>
+    <t>ホオジロザメ 大白鯊</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マカロン 麻花龍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キリン 麒麟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>センザンコウ 穿山甲</t>
+  </si>
+  <si>
+    <t>C-ifAxEyMAc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天狗之疣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5541.avif</t>
+  </si>
+  <si>
+    <t>C-Ky2FiScdA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5543.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5544.avif</t>
+  </si>
+  <si>
+    <t>夜燕</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C97atc9SGiP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シユウ 蚩尤</t>
+    <rPh sb="4" eb="6">
+      <t>シユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5545.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5546.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5547.avif</t>
+  </si>
+  <si>
+    <t>C4dH0KFLbGu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5548.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5549.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5550.avif</t>
+  </si>
+  <si>
+    <t>C4JAp9PP9iF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5551.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5552.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5553.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5554.avif</t>
+  </si>
+  <si>
+    <t>C3xK4wgL9LU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5555.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5556.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5557.avif</t>
+  </si>
+  <si>
+    <t>C3AT2N_LuUB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5562.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5563.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5564.avif</t>
+  </si>
+  <si>
+    <t>冰雹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C3nHqu_r8qn</t>
+  </si>
+  <si>
+    <t>C3nHqu_r8qn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5566.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5567.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5568.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5558.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5559.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5560.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5561.avif</t>
+  </si>
+  <si>
+    <t>C2zf9_FrYkD</t>
+  </si>
+  <si>
+    <t>C2zf9_FrYkD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5565.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒蛇</t>
+    <rPh sb="0" eb="2">
+      <t>ドクヘビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C2m8FjfrF2a</t>
+  </si>
+  <si>
+    <t>C2m8FjfrF2a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5569.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5570.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5571.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5572.avif</t>
+  </si>
+  <si>
+    <t>Cz-MR37LFGj</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5574.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5575.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5577.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5578.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5579.avif</t>
+  </si>
+  <si>
+    <t>C2eyyParUUb</t>
+  </si>
+  <si>
+    <t>C2eyyParUUb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5573.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5576.avif</t>
+  </si>
+  <si>
+    <t>マカ 麻花</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cz3p6yTLUaM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5580.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5581.avif</t>
+  </si>
+  <si>
+    <t>U.F.O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CzhNBi_yGzU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5582.avif</t>
+  </si>
+  <si>
+    <t>Studs sp</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2733,7 +3108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2756,13 +3131,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2771,6 +3170,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3106,11 +3514,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -3150,7 +3556,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -3164,7 +3570,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -3193,7 +3599,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
@@ -3222,7 +3628,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -3251,7 +3657,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
@@ -3280,7 +3686,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
@@ -3309,7 +3715,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>9</v>
@@ -3338,7 +3744,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -3367,7 +3773,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -3396,7 +3802,7 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>19</v>
@@ -3425,7 +3831,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
@@ -3454,7 +3860,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>19</v>
@@ -3483,7 +3889,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
@@ -3512,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
@@ -3541,7 +3947,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>19</v>
@@ -3570,7 +3976,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>19</v>
@@ -3599,7 +4005,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>19</v>
@@ -3628,7 +4034,7 @@
         <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>19</v>
@@ -3657,7 +4063,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>9</v>
@@ -3686,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -3715,7 +4121,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>9</v>
@@ -3744,7 +4150,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>9</v>
@@ -3773,7 +4179,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>9</v>
@@ -3802,7 +4208,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>46</v>
@@ -3831,7 +4237,7 @@
         <v>47</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>46</v>
@@ -3860,7 +4266,7 @@
         <v>47</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>46</v>
@@ -3889,7 +4295,7 @@
         <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>46</v>
@@ -3918,7 +4324,7 @@
         <v>47</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>46</v>
@@ -3947,7 +4353,7 @@
         <v>47</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>46</v>
@@ -3976,7 +4382,7 @@
         <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>46</v>
@@ -4005,7 +4411,7 @@
         <v>47</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>46</v>
@@ -4034,7 +4440,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>46</v>
@@ -4063,7 +4469,7 @@
         <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>46</v>
@@ -4092,7 +4498,7 @@
         <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>46</v>
@@ -4121,7 +4527,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>46</v>
@@ -4150,7 +4556,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>46</v>
@@ -4179,7 +4585,7 @@
         <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>46</v>
@@ -4208,7 +4614,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>46</v>
@@ -4237,7 +4643,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>46</v>
@@ -4266,7 +4672,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>46</v>
@@ -4295,7 +4701,7 @@
         <v>47</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>46</v>
@@ -4324,7 +4730,7 @@
         <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>46</v>
@@ -4353,7 +4759,7 @@
         <v>47</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>46</v>
@@ -4382,7 +4788,7 @@
         <v>47</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>46</v>
@@ -4411,7 +4817,7 @@
         <v>47</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>46</v>
@@ -4440,7 +4846,7 @@
         <v>47</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>46</v>
@@ -4469,7 +4875,7 @@
         <v>47</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>46</v>
@@ -4498,7 +4904,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>46</v>
@@ -4527,7 +4933,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>46</v>
@@ -4556,7 +4962,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>46</v>
@@ -4585,7 +4991,7 @@
         <v>80</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>79</v>
@@ -4614,7 +5020,7 @@
         <v>80</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>79</v>
@@ -4643,7 +5049,7 @@
         <v>80</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>79</v>
@@ -4672,7 +5078,7 @@
         <v>80</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>79</v>
@@ -4701,7 +5107,7 @@
         <v>80</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>79</v>
@@ -4730,7 +5136,7 @@
         <v>80</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>79</v>
@@ -4759,7 +5165,7 @@
         <v>80</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>79</v>
@@ -4788,7 +5194,7 @@
         <v>80</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>79</v>
@@ -4817,7 +5223,7 @@
         <v>80</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>79</v>
@@ -4846,7 +5252,7 @@
         <v>80</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>79</v>
@@ -4875,7 +5281,7 @@
         <v>80</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>79</v>
@@ -4904,7 +5310,7 @@
         <v>80</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>79</v>
@@ -4933,7 +5339,7 @@
         <v>80</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>79</v>
@@ -4962,7 +5368,7 @@
         <v>80</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>79</v>
@@ -4991,7 +5397,7 @@
         <v>80</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>79</v>
@@ -5020,7 +5426,7 @@
         <v>80</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>79</v>
@@ -5049,7 +5455,7 @@
         <v>80</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>79</v>
@@ -5078,7 +5484,7 @@
         <v>80</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>79</v>
@@ -5107,7 +5513,7 @@
         <v>80</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>79</v>
@@ -5136,7 +5542,7 @@
         <v>80</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>79</v>
@@ -5165,7 +5571,7 @@
         <v>80</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>79</v>
@@ -5194,7 +5600,7 @@
         <v>80</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>79</v>
@@ -5223,7 +5629,7 @@
         <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>79</v>
@@ -5252,7 +5658,7 @@
         <v>80</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>79</v>
@@ -5281,7 +5687,7 @@
         <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>79</v>
@@ -5310,7 +5716,7 @@
         <v>80</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>79</v>
@@ -5330,7 +5736,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>79</v>
@@ -5339,7 +5745,7 @@
         <v>80</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>79</v>
@@ -5359,7 +5765,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>79</v>
@@ -5368,7 +5774,7 @@
         <v>80</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>79</v>
@@ -5388,7 +5794,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>79</v>
@@ -5397,7 +5803,7 @@
         <v>80</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>79</v>
@@ -5417,7 +5823,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>79</v>
@@ -5426,7 +5832,7 @@
         <v>80</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>79</v>
@@ -5455,7 +5861,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>79</v>
@@ -5484,7 +5890,7 @@
         <v>80</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>79</v>
@@ -5504,7 +5910,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>79</v>
@@ -5513,7 +5919,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>79</v>
@@ -5533,7 +5939,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>79</v>
@@ -5542,7 +5948,7 @@
         <v>80</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>79</v>
@@ -5562,7 +5968,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>79</v>
@@ -5571,7 +5977,7 @@
         <v>80</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>79</v>
@@ -5600,7 +6006,7 @@
         <v>80</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>79</v>
@@ -5629,7 +6035,7 @@
         <v>80</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>79</v>
@@ -5658,7 +6064,7 @@
         <v>80</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>79</v>
@@ -5678,7 +6084,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>79</v>
@@ -5687,7 +6093,7 @@
         <v>80</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>79</v>
@@ -5707,7 +6113,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>79</v>
@@ -5716,7 +6122,7 @@
         <v>80</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>79</v>
@@ -5736,7 +6142,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>79</v>
@@ -5745,7 +6151,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>79</v>
@@ -5765,7 +6171,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>79</v>
@@ -5774,7 +6180,7 @@
         <v>80</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>79</v>
@@ -5794,7 +6200,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>79</v>
@@ -5803,7 +6209,7 @@
         <v>80</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>128</v>
@@ -5823,7 +6229,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>79</v>
@@ -5832,7 +6238,7 @@
         <v>80</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>79</v>
@@ -5852,7 +6258,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>79</v>
@@ -5861,7 +6267,7 @@
         <v>80</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>79</v>
@@ -5890,7 +6296,7 @@
         <v>80</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>79</v>
@@ -5919,7 +6325,7 @@
         <v>80</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>79</v>
@@ -5948,7 +6354,7 @@
         <v>80</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>79</v>
@@ -5977,7 +6383,7 @@
         <v>80</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>79</v>
@@ -6006,7 +6412,7 @@
         <v>80</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>79</v>
@@ -6026,7 +6432,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>79</v>
@@ -6035,7 +6441,7 @@
         <v>80</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>79</v>
@@ -6055,7 +6461,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>79</v>
@@ -6064,7 +6470,7 @@
         <v>80</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>79</v>
@@ -6084,7 +6490,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>79</v>
@@ -6093,7 +6499,7 @@
         <v>80</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>79</v>
@@ -6113,7 +6519,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>79</v>
@@ -6122,7 +6528,7 @@
         <v>80</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>79</v>
@@ -6142,7 +6548,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>79</v>
@@ -6151,7 +6557,7 @@
         <v>80</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>79</v>
@@ -6171,7 +6577,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>79</v>
@@ -6180,7 +6586,7 @@
         <v>80</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>79</v>
@@ -6200,7 +6606,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>79</v>
@@ -6209,7 +6615,7 @@
         <v>80</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>79</v>
@@ -6229,7 +6635,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>79</v>
@@ -6238,7 +6644,7 @@
         <v>80</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>79</v>
@@ -6258,7 +6664,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>79</v>
@@ -6267,7 +6673,7 @@
         <v>80</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>79</v>
@@ -6287,7 +6693,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>79</v>
@@ -6296,7 +6702,7 @@
         <v>80</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>79</v>
@@ -6316,7 +6722,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>79</v>
@@ -6325,7 +6731,7 @@
         <v>80</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>79</v>
@@ -6354,7 +6760,7 @@
         <v>100</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>128</v>
@@ -6383,7 +6789,7 @@
         <v>100</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>128</v>
@@ -6412,7 +6818,7 @@
         <v>100</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>128</v>
@@ -6441,7 +6847,7 @@
         <v>100</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>128</v>
@@ -6470,7 +6876,7 @@
         <v>100</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>128</v>
@@ -6499,7 +6905,7 @@
         <v>100</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>128</v>
@@ -6528,7 +6934,7 @@
         <v>100</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>128</v>
@@ -6557,7 +6963,7 @@
         <v>100</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>128</v>
@@ -6586,7 +6992,7 @@
         <v>100</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>128</v>
@@ -6615,7 +7021,7 @@
         <v>100</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>128</v>
@@ -6644,7 +7050,7 @@
         <v>100</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>128</v>
@@ -6673,7 +7079,7 @@
         <v>100</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>128</v>
@@ -6702,7 +7108,7 @@
         <v>100</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>128</v>
@@ -6731,7 +7137,7 @@
         <v>100</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>128</v>
@@ -6760,7 +7166,7 @@
         <v>100</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>128</v>
@@ -6789,7 +7195,7 @@
         <v>100</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>128</v>
@@ -6818,7 +7224,7 @@
         <v>100</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>128</v>
@@ -6847,7 +7253,7 @@
         <v>100</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>128</v>
@@ -6876,7 +7282,7 @@
         <v>100</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>128</v>
@@ -6905,7 +7311,7 @@
         <v>100</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>128</v>
@@ -6934,7 +7340,7 @@
         <v>100</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>128</v>
@@ -6963,7 +7369,7 @@
         <v>9</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>9</v>
@@ -6992,7 +7398,7 @@
         <v>9</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>9</v>
@@ -7021,7 +7427,7 @@
         <v>9</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>9</v>
@@ -7050,7 +7456,7 @@
         <v>9</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>9</v>
@@ -7079,7 +7485,7 @@
         <v>9</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>9</v>
@@ -7108,7 +7514,7 @@
         <v>9</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>9</v>
@@ -7137,7 +7543,7 @@
         <v>9</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>9</v>
@@ -7166,7 +7572,7 @@
         <v>9</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>9</v>
@@ -7195,7 +7601,7 @@
         <v>9</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>9</v>
@@ -7224,7 +7630,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>9</v>
@@ -7253,7 +7659,7 @@
         <v>9</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
@@ -7282,7 +7688,7 @@
         <v>9</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>9</v>
@@ -7311,7 +7717,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>9</v>
@@ -7340,7 +7746,7 @@
         <v>9</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>9</v>
@@ -7369,7 +7775,7 @@
         <v>9</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>9</v>
@@ -7398,7 +7804,7 @@
         <v>9</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>9</v>
@@ -7427,7 +7833,7 @@
         <v>9</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>9</v>
@@ -7456,7 +7862,7 @@
         <v>80</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>79</v>
@@ -7485,7 +7891,7 @@
         <v>80</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>79</v>
@@ -7514,7 +7920,7 @@
         <v>80</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>79</v>
@@ -7543,7 +7949,7 @@
         <v>80</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>79</v>
@@ -7572,7 +7978,7 @@
         <v>80</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>79</v>
@@ -7601,7 +8007,7 @@
         <v>80</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>79</v>
@@ -7630,7 +8036,7 @@
         <v>80</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>79</v>
@@ -7659,7 +8065,7 @@
         <v>80</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>79</v>
@@ -7688,7 +8094,7 @@
         <v>80</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>79</v>
@@ -7717,7 +8123,7 @@
         <v>80</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>79</v>
@@ -7746,7 +8152,7 @@
         <v>80</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>79</v>
@@ -7775,7 +8181,7 @@
         <v>80</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>79</v>
@@ -7804,7 +8210,7 @@
         <v>80</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>79</v>
@@ -7833,7 +8239,7 @@
         <v>80</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>79</v>
@@ -7862,7 +8268,7 @@
         <v>80</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>79</v>
@@ -7891,7 +8297,7 @@
         <v>80</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>79</v>
@@ -7920,7 +8326,7 @@
         <v>80</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>79</v>
@@ -7949,7 +8355,7 @@
         <v>80</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>79</v>
@@ -7978,7 +8384,7 @@
         <v>80</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>79</v>
@@ -8007,7 +8413,7 @@
         <v>80</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>79</v>
@@ -8036,7 +8442,7 @@
         <v>80</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>79</v>
@@ -8065,7 +8471,7 @@
         <v>164</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>163</v>
@@ -8094,7 +8500,7 @@
         <v>164</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>163</v>
@@ -8123,7 +8529,7 @@
         <v>164</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>163</v>
@@ -8152,7 +8558,7 @@
         <v>164</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>163</v>
@@ -8181,7 +8587,7 @@
         <v>164</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>163</v>
@@ -8210,7 +8616,7 @@
         <v>164</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>163</v>
@@ -8239,7 +8645,7 @@
         <v>164</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>163</v>
@@ -8268,7 +8674,7 @@
         <v>164</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>19</v>
@@ -8297,7 +8703,7 @@
         <v>164</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>19</v>
@@ -8326,7 +8732,7 @@
         <v>164</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>19</v>
@@ -8355,7 +8761,7 @@
         <v>164</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>19</v>
@@ -8384,7 +8790,7 @@
         <v>164</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>19</v>
@@ -8413,7 +8819,7 @@
         <v>164</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>163</v>
@@ -8442,7 +8848,7 @@
         <v>164</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>163</v>
@@ -8471,7 +8877,7 @@
         <v>164</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>163</v>
@@ -8500,7 +8906,7 @@
         <v>164</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>163</v>
@@ -8529,7 +8935,7 @@
         <v>164</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>163</v>
@@ -8541,7 +8947,7 @@
         <v>180</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I187" s="1" t="b">
         <v>1</v>
@@ -8558,7 +8964,7 @@
         <v>164</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>163</v>
@@ -8570,7 +8976,7 @@
         <v>182</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I188" s="1" t="b">
         <v>1</v>
@@ -8587,7 +8993,7 @@
         <v>164</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>163</v>
@@ -8599,7 +9005,7 @@
         <v>184</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I189" s="1" t="b">
         <v>1</v>
@@ -8616,7 +9022,7 @@
         <v>164</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>163</v>
@@ -8628,7 +9034,7 @@
         <v>186</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>1</v>
@@ -8645,7 +9051,7 @@
         <v>164</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>163</v>
@@ -8657,7 +9063,7 @@
         <v>187</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I191" s="1" t="b">
         <v>1</v>
@@ -8674,7 +9080,7 @@
         <v>164</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>163</v>
@@ -8686,7 +9092,7 @@
         <v>189</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I192" s="1" t="b">
         <v>1</v>
@@ -8703,7 +9109,7 @@
         <v>164</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>163</v>
@@ -8715,7 +9121,7 @@
         <v>190</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I193" s="1" t="b">
         <v>1</v>
@@ -8732,7 +9138,7 @@
         <v>164</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>163</v>
@@ -8744,7 +9150,7 @@
         <v>191</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I194" s="1" t="b">
         <v>1</v>
@@ -8752,28 +9158,28 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G195" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="H195" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I195" s="1" t="b">
         <v>1</v>
@@ -8790,7 +9196,7 @@
         <v>164</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>163</v>
@@ -8799,7 +9205,7 @@
         <v>164</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>44</v>
@@ -8819,7 +9225,7 @@
         <v>164</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>163</v>
@@ -8828,7 +9234,7 @@
         <v>164</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>44</v>
@@ -8848,7 +9254,7 @@
         <v>164</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>163</v>
@@ -8857,10 +9263,10 @@
         <v>164</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I198" s="1" t="b">
         <v>1</v>
@@ -8868,28 +9274,28 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="H199" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I199" s="1" t="b">
         <v>1</v>
@@ -8906,7 +9312,7 @@
         <v>164</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>163</v>
@@ -8915,10 +9321,10 @@
         <v>164</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I200" s="1" t="b">
         <v>1</v>
@@ -8935,7 +9341,7 @@
         <v>164</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>163</v>
@@ -8944,10 +9350,10 @@
         <v>164</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I201" s="1" t="b">
         <v>1</v>
@@ -8955,28 +9361,28 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G202" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G202" s="1" t="s">
-        <v>203</v>
-      </c>
       <c r="H202" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I202" s="1" t="b">
         <v>1</v>
@@ -8993,7 +9399,7 @@
         <v>164</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>163</v>
@@ -9002,10 +9408,10 @@
         <v>164</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I203" s="1" t="b">
         <v>1</v>
@@ -9022,7 +9428,7 @@
         <v>164</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>163</v>
@@ -9031,10 +9437,10 @@
         <v>164</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I204" s="1" t="b">
         <v>1</v>
@@ -9051,7 +9457,7 @@
         <v>164</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E205" s="1" t="s">
         <v>163</v>
@@ -9060,10 +9466,10 @@
         <v>164</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I205" s="1" t="b">
         <v>1</v>
@@ -9080,7 +9486,7 @@
         <v>164</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E206" s="1" t="s">
         <v>163</v>
@@ -9089,7 +9495,7 @@
         <v>164</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>44</v>
@@ -9100,25 +9506,25 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G207" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>157</v>
@@ -9138,7 +9544,7 @@
         <v>164</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>163</v>
@@ -9147,7 +9553,7 @@
         <v>164</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>157</v>
@@ -9167,7 +9573,7 @@
         <v>164</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>163</v>
@@ -9176,7 +9582,7 @@
         <v>164</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>157</v>
@@ -9196,7 +9602,7 @@
         <v>164</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>163</v>
@@ -9205,7 +9611,7 @@
         <v>164</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>157</v>
@@ -9216,25 +9622,25 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>157</v>
@@ -9245,25 +9651,25 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G212" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>157</v>
@@ -9283,7 +9689,7 @@
         <v>164</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E213" s="1" t="s">
         <v>163</v>
@@ -9292,7 +9698,7 @@
         <v>164</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>157</v>
@@ -9303,25 +9709,25 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G214" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G214" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>157</v>
@@ -9341,7 +9747,7 @@
         <v>164</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>163</v>
@@ -9350,7 +9756,7 @@
         <v>164</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>44</v>
@@ -9370,7 +9776,7 @@
         <v>164</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E216" s="1" t="s">
         <v>163</v>
@@ -9379,7 +9785,7 @@
         <v>164</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>44</v>
@@ -9399,7 +9805,7 @@
         <v>164</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>163</v>
@@ -9408,7 +9814,7 @@
         <v>164</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>157</v>
@@ -9419,25 +9825,25 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G218" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>157</v>
@@ -9457,7 +9863,7 @@
         <v>164</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>163</v>
@@ -9466,7 +9872,7 @@
         <v>164</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>157</v>
@@ -9477,7 +9883,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>163</v>
@@ -9486,7 +9892,7 @@
         <v>164</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>163</v>
@@ -9495,7 +9901,7 @@
         <v>164</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>157</v>
@@ -9515,7 +9921,7 @@
         <v>164</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E221" s="1" t="s">
         <v>163</v>
@@ -9524,7 +9930,7 @@
         <v>164</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>157</v>
@@ -9544,7 +9950,7 @@
         <v>164</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E222" s="1" t="s">
         <v>163</v>
@@ -9553,7 +9959,7 @@
         <v>164</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>157</v>
@@ -9573,7 +9979,7 @@
         <v>164</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E223" s="1" t="s">
         <v>163</v>
@@ -9582,7 +9988,7 @@
         <v>164</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>157</v>
@@ -9602,7 +10008,7 @@
         <v>164</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E224" s="1" t="s">
         <v>163</v>
@@ -9611,7 +10017,7 @@
         <v>164</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>157</v>
@@ -9631,7 +10037,7 @@
         <v>164</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E225" s="1" t="s">
         <v>163</v>
@@ -9640,7 +10046,7 @@
         <v>164</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>157</v>
@@ -9660,7 +10066,7 @@
         <v>164</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E226" s="1" t="s">
         <v>163</v>
@@ -9669,7 +10075,7 @@
         <v>164</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>44</v>
@@ -9689,7 +10095,7 @@
         <v>164</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>163</v>
@@ -9698,7 +10104,7 @@
         <v>164</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>157</v>
@@ -9718,7 +10124,7 @@
         <v>164</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E228" s="1" t="s">
         <v>163</v>
@@ -9727,7 +10133,7 @@
         <v>164</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>157</v>
@@ -9747,7 +10153,7 @@
         <v>164</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E229" s="1" t="s">
         <v>163</v>
@@ -9756,7 +10162,7 @@
         <v>164</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>44</v>
@@ -9767,7 +10173,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>163</v>
@@ -9776,7 +10182,7 @@
         <v>164</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>163</v>
@@ -9785,7 +10191,7 @@
         <v>164</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>157</v>
@@ -9805,7 +10211,7 @@
         <v>164</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E231" s="1" t="s">
         <v>163</v>
@@ -9814,7 +10220,7 @@
         <v>164</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>157</v>
@@ -9834,7 +10240,7 @@
         <v>164</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E232" s="1" t="s">
         <v>163</v>
@@ -9843,7 +10249,7 @@
         <v>164</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>157</v>
@@ -9854,7 +10260,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>163</v>
@@ -9863,7 +10269,7 @@
         <v>164</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>163</v>
@@ -9872,7 +10278,7 @@
         <v>164</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>157</v>
@@ -9892,7 +10298,7 @@
         <v>164</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>163</v>
@@ -9901,7 +10307,7 @@
         <v>164</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>157</v>
@@ -9921,7 +10327,7 @@
         <v>164</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E235" s="1" t="s">
         <v>163</v>
@@ -9930,7 +10336,7 @@
         <v>164</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>157</v>
@@ -9950,7 +10356,7 @@
         <v>164</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>163</v>
@@ -9959,7 +10365,7 @@
         <v>164</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>157</v>
@@ -9979,7 +10385,7 @@
         <v>164</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>163</v>
@@ -9988,7 +10394,7 @@
         <v>164</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>44</v>
@@ -9999,7 +10405,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>163</v>
@@ -10008,7 +10414,7 @@
         <v>164</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>163</v>
@@ -10017,7 +10423,7 @@
         <v>164</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>157</v>
@@ -10037,7 +10443,7 @@
         <v>164</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>163</v>
@@ -10046,7 +10452,7 @@
         <v>164</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>44</v>
@@ -10066,7 +10472,7 @@
         <v>164</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E240" s="1" t="s">
         <v>163</v>
@@ -10075,7 +10481,7 @@
         <v>164</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>157</v>
@@ -10095,7 +10501,7 @@
         <v>164</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>163</v>
@@ -10104,7 +10510,7 @@
         <v>164</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>157</v>
@@ -10124,7 +10530,7 @@
         <v>164</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E242" s="1" t="s">
         <v>163</v>
@@ -10133,7 +10539,7 @@
         <v>164</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>157</v>
@@ -10153,7 +10559,7 @@
         <v>164</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E243" s="1" t="s">
         <v>163</v>
@@ -10162,7 +10568,7 @@
         <v>164</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>157</v>
@@ -10182,7 +10588,7 @@
         <v>164</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E244" s="1" t="s">
         <v>163</v>
@@ -10191,7 +10597,7 @@
         <v>164</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>157</v>
@@ -10211,7 +10617,7 @@
         <v>164</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E245" s="1" t="s">
         <v>163</v>
@@ -10220,7 +10626,7 @@
         <v>164</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>157</v>
@@ -10240,7 +10646,7 @@
         <v>164</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E246" s="1" t="s">
         <v>163</v>
@@ -10249,7 +10655,7 @@
         <v>164</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>157</v>
@@ -10269,7 +10675,7 @@
         <v>164</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>163</v>
@@ -10278,7 +10684,7 @@
         <v>164</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>157</v>
@@ -10298,7 +10704,7 @@
         <v>164</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E248" s="1" t="s">
         <v>163</v>
@@ -10307,7 +10713,7 @@
         <v>164</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>157</v>
@@ -10318,7 +10724,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>163</v>
@@ -10327,7 +10733,7 @@
         <v>164</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E249" s="1" t="s">
         <v>163</v>
@@ -10336,7 +10742,7 @@
         <v>164</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>157</v>
@@ -10356,7 +10762,7 @@
         <v>164</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E250" s="1" t="s">
         <v>163</v>
@@ -10365,7 +10771,7 @@
         <v>164</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>44</v>
@@ -10385,7 +10791,7 @@
         <v>164</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E251" s="1" t="s">
         <v>163</v>
@@ -10394,7 +10800,7 @@
         <v>164</v>
       </c>
       <c r="G251" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>157</v>
@@ -10414,7 +10820,7 @@
         <v>164</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>163</v>
@@ -10423,7 +10829,7 @@
         <v>164</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>157</v>
@@ -10443,7 +10849,7 @@
         <v>164</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E253" s="1" t="s">
         <v>163</v>
@@ -10452,7 +10858,7 @@
         <v>164</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>157</v>
@@ -10472,7 +10878,7 @@
         <v>164</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E254" s="1" t="s">
         <v>163</v>
@@ -10481,7 +10887,7 @@
         <v>164</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>157</v>
@@ -10501,7 +10907,7 @@
         <v>164</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E255" s="1" t="s">
         <v>163</v>
@@ -10510,7 +10916,7 @@
         <v>164</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>157</v>
@@ -10530,7 +10936,7 @@
         <v>164</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>163</v>
@@ -10539,7 +10945,7 @@
         <v>164</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>157</v>
@@ -10550,25 +10956,25 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C257" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E257" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F257" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>157</v>
@@ -10588,7 +10994,7 @@
         <v>164</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E258" s="1" t="s">
         <v>163</v>
@@ -10597,7 +11003,7 @@
         <v>164</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>157</v>
@@ -10617,7 +11023,7 @@
         <v>164</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E259" s="1" t="s">
         <v>163</v>
@@ -10626,7 +11032,7 @@
         <v>164</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>157</v>
@@ -10646,7 +11052,7 @@
         <v>164</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>163</v>
@@ -10655,7 +11061,7 @@
         <v>164</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>157</v>
@@ -10675,7 +11081,7 @@
         <v>164</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>163</v>
@@ -10684,7 +11090,7 @@
         <v>164</v>
       </c>
       <c r="G261" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>157</v>
@@ -10704,7 +11110,7 @@
         <v>164</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E262" s="1" t="s">
         <v>163</v>
@@ -10713,7 +11119,7 @@
         <v>164</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>157</v>
@@ -10733,7 +11139,7 @@
         <v>164</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E263" s="1" t="s">
         <v>163</v>
@@ -10742,7 +11148,7 @@
         <v>164</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>44</v>
@@ -10762,7 +11168,7 @@
         <v>164</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E264" s="1" t="s">
         <v>163</v>
@@ -10771,7 +11177,7 @@
         <v>164</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>44</v>
@@ -10791,7 +11197,7 @@
         <v>164</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>163</v>
@@ -10800,7 +11206,7 @@
         <v>164</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>44</v>
@@ -10811,25 +11217,25 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G266" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F266" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>157</v>
@@ -10849,7 +11255,7 @@
         <v>164</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>163</v>
@@ -10858,7 +11264,7 @@
         <v>164</v>
       </c>
       <c r="G267" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>157</v>
@@ -10878,7 +11284,7 @@
         <v>164</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>163</v>
@@ -10887,7 +11293,7 @@
         <v>164</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>157</v>
@@ -10907,7 +11313,7 @@
         <v>164</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>163</v>
@@ -10916,7 +11322,7 @@
         <v>164</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>157</v>
@@ -10936,7 +11342,7 @@
         <v>164</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>163</v>
@@ -10945,7 +11351,7 @@
         <v>164</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>157</v>
@@ -10965,7 +11371,7 @@
         <v>164</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E271" s="1" t="s">
         <v>163</v>
@@ -10974,7 +11380,7 @@
         <v>164</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>157</v>
@@ -10994,7 +11400,7 @@
         <v>164</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>163</v>
@@ -11003,7 +11409,7 @@
         <v>164</v>
       </c>
       <c r="G272" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>157</v>
@@ -11023,7 +11429,7 @@
         <v>164</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E273" s="1" t="s">
         <v>163</v>
@@ -11032,7 +11438,7 @@
         <v>164</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>157</v>
@@ -11052,7 +11458,7 @@
         <v>164</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E274" s="1" t="s">
         <v>163</v>
@@ -11061,7 +11467,7 @@
         <v>164</v>
       </c>
       <c r="G274" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>157</v>
@@ -11072,16 +11478,16 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C275" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="D275" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E275" s="1" t="s">
         <v>46</v>
@@ -11090,7 +11496,7 @@
         <v>47</v>
       </c>
       <c r="G275" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>49</v>
@@ -11101,16 +11507,16 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E276" s="1" t="s">
         <v>46</v>
@@ -11119,7 +11525,7 @@
         <v>47</v>
       </c>
       <c r="G276" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>49</v>
@@ -11130,16 +11536,16 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E277" s="1" t="s">
         <v>46</v>
@@ -11148,7 +11554,7 @@
         <v>47</v>
       </c>
       <c r="G277" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>49</v>
@@ -11159,16 +11565,16 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E278" s="1" t="s">
         <v>46</v>
@@ -11177,7 +11583,7 @@
         <v>47</v>
       </c>
       <c r="G278" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>49</v>
@@ -11188,28 +11594,28 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="D279" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E279" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="D279" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="E279" s="1" t="s">
+      <c r="F279" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="F279" s="1" t="s">
+      <c r="G279" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="H279" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="G279" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="I279" s="1" t="b">
         <v>1</v>
@@ -11217,7 +11623,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>79</v>
@@ -11226,7 +11632,7 @@
         <v>80</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E280" s="1" t="s">
         <v>79</v>
@@ -11235,7 +11641,7 @@
         <v>80</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>49</v>
@@ -11246,7 +11652,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>79</v>
@@ -11255,16 +11661,16 @@
         <v>80</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G281" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>49</v>
@@ -11275,7 +11681,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>79</v>
@@ -11284,16 +11690,16 @@
         <v>80</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>49</v>
@@ -11304,7 +11710,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>79</v>
@@ -11313,16 +11719,16 @@
         <v>80</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>49</v>
@@ -11333,25 +11739,25 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E284" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="F284" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G284" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>49</v>
@@ -11362,7 +11768,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>79</v>
@@ -11371,16 +11777,16 @@
         <v>80</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E285" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G285" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G285" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>49</v>
@@ -11391,7 +11797,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>79</v>
@@ -11400,16 +11806,16 @@
         <v>80</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E286" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G286" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G286" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>49</v>
@@ -11420,7 +11826,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>79</v>
@@ -11429,16 +11835,16 @@
         <v>80</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E287" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G287" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G287" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>49</v>
@@ -11449,7 +11855,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>79</v>
@@ -11458,16 +11864,16 @@
         <v>80</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>49</v>
@@ -11478,7 +11884,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>128</v>
@@ -11487,7 +11893,7 @@
         <v>100</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E289" s="1" t="s">
         <v>128</v>
@@ -11496,7 +11902,7 @@
         <v>100</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>82</v>
@@ -11507,7 +11913,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>128</v>
@@ -11516,7 +11922,7 @@
         <v>100</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E290" s="1" t="s">
         <v>128</v>
@@ -11525,7 +11931,7 @@
         <v>100</v>
       </c>
       <c r="G290" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>82</v>
@@ -11536,7 +11942,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>128</v>
@@ -11545,7 +11951,7 @@
         <v>100</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E291" s="1" t="s">
         <v>128</v>
@@ -11554,7 +11960,7 @@
         <v>100</v>
       </c>
       <c r="G291" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>82</v>
@@ -11565,25 +11971,25 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C292" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D292" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>605</v>
-      </c>
       <c r="E292" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>82</v>
@@ -11594,28 +12000,28 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G293" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I293" s="1" t="b">
         <v>1</v>
@@ -11623,28 +12029,28 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I294" s="1" t="b">
         <v>1</v>
@@ -11652,28 +12058,28 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I295" s="1" t="b">
         <v>1</v>
@@ -11681,28 +12087,28 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H296" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I296" s="1" t="b">
         <v>1</v>
@@ -11710,28 +12116,28 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D297" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H297" s="1" t="s">
         <v>615</v>
-      </c>
-      <c r="E297" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F297" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G297" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="H297" s="1" t="s">
-        <v>616</v>
       </c>
       <c r="I297" s="1" t="b">
         <v>1</v>
@@ -11739,25 +12145,25 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G298" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>157</v>
@@ -11768,28 +12174,28 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I299" s="1" t="b">
         <v>1</v>
@@ -11797,28 +12203,28 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D300" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="E300" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I300" s="1" t="b">
         <v>1</v>
@@ -11826,28 +12232,28 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G301" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H301" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I301" s="1" t="b">
         <v>1</v>
@@ -11855,28 +12261,28 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I302" s="1" t="b">
         <v>1</v>
@@ -11884,28 +12290,28 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G303" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I303" s="1" t="b">
         <v>1</v>
@@ -11913,28 +12319,28 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I304" s="1" t="b">
         <v>1</v>
@@ -11942,28 +12348,28 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I305" s="1" t="b">
         <v>1</v>
@@ -11971,28 +12377,28 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D306" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D306" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="E306" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I306" s="1" t="b">
         <v>1</v>
@@ -12000,28 +12406,28 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I307" s="1" t="b">
         <v>1</v>
@@ -12029,28 +12435,28 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I308" s="1" t="b">
         <v>1</v>
@@ -12058,28 +12464,28 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I309" s="1" t="b">
         <v>1</v>
@@ -12087,28 +12493,28 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I310" s="1" t="b">
         <v>1</v>
@@ -12116,28 +12522,28 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I311" s="1" t="b">
         <v>1</v>
@@ -12145,28 +12551,28 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I312" s="1" t="b">
         <v>1</v>
@@ -12174,28 +12580,28 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I313" s="1" t="b">
         <v>1</v>
@@ -12203,28 +12609,28 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I314" s="1" t="b">
         <v>1</v>
@@ -12232,25 +12638,25 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G315" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E315" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F315" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G315" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>82</v>
@@ -12261,28 +12667,28 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D316" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D316" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="E316" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G316" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I316" s="1" t="b">
         <v>1</v>
@@ -12290,28 +12696,28 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G317" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I317" s="1" t="b">
         <v>1</v>
@@ -12319,28 +12725,28 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F318" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I318" s="1" t="b">
         <v>1</v>
@@ -12348,28 +12754,28 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I319" s="1" t="b">
         <v>1</v>
@@ -12377,28 +12783,28 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -12406,28 +12812,28 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I321" s="1" t="b">
         <v>1</v>
@@ -12435,28 +12841,28 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D322" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>661</v>
-      </c>
       <c r="E322" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F322" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H322" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I322" s="1" t="b">
         <v>1</v>
@@ -12464,28 +12870,28 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I323" s="1" t="b">
         <v>1</v>
@@ -12493,28 +12899,28 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I324" s="1" t="b">
         <v>1</v>
@@ -12522,28 +12928,28 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I325" s="1" t="b">
         <v>1</v>
@@ -12551,28 +12957,28 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H326" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I326" s="1" t="b">
         <v>1</v>
@@ -12580,28 +12986,28 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>670</v>
-      </c>
       <c r="E327" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I327" s="1" t="b">
         <v>1</v>
@@ -12609,28 +13015,28 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F328" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H328" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I328" s="1" t="b">
         <v>1</v>
@@ -12638,28 +13044,28 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H329" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I329" s="1" t="b">
         <v>1</v>
@@ -12667,28 +13073,28 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I330" s="1" t="b">
         <v>1</v>
@@ -12696,28 +13102,28 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C331" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="E331" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I331" s="1" t="b">
         <v>1</v>
@@ -12725,28 +13131,28 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I332" s="1" t="b">
         <v>1</v>
@@ -12754,28 +13160,28 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -12783,28 +13189,28 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -12812,28 +13218,28 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I335" s="1" t="b">
         <v>1</v>
@@ -12841,28 +13247,28 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D336" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="E336" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="E336" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="F336" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I336" s="1" t="b">
         <v>1</v>
@@ -12870,25 +13276,25 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>157</v>
@@ -12899,25 +13305,25 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D338" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D338" s="1" t="s">
-        <v>689</v>
-      </c>
       <c r="E338" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>157</v>
@@ -12928,25 +13334,25 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>157</v>
@@ -12957,25 +13363,25 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>157</v>
@@ -12986,25 +13392,25 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D341" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>697</v>
-      </c>
       <c r="E341" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>157</v>
@@ -13015,25 +13421,25 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>157</v>
@@ -13044,25 +13450,25 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>157</v>
@@ -13073,25 +13479,25 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>157</v>
@@ -13102,25 +13508,25 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D345" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D345" s="1" t="s">
-        <v>703</v>
-      </c>
       <c r="E345" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>157</v>
@@ -13131,25 +13537,25 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D346" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C346" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>706</v>
-      </c>
       <c r="E346" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>157</v>
@@ -13160,25 +13566,25 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>157</v>
@@ -13189,25 +13595,25 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D348" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>710</v>
-      </c>
       <c r="E348" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>157</v>
@@ -13218,25 +13624,25 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>157</v>
@@ -13247,25 +13653,25 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>157</v>
@@ -13276,25 +13682,25 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>157</v>
@@ -13305,25 +13711,25 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D352" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D352" s="1" t="s">
-        <v>715</v>
-      </c>
       <c r="E352" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>157</v>
@@ -13334,25 +13740,25 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D353" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G353" s="1" t="s">
         <v>716</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F353" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>717</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>157</v>
@@ -13363,25 +13769,25 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G354" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D354" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="E354" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F354" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G354" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>157</v>
@@ -13392,25 +13798,25 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G355" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D355" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="E355" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F355" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>157</v>
@@ -13421,25 +13827,25 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>157</v>
@@ -13450,25 +13856,25 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F357" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G357" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>157</v>
@@ -13479,25 +13885,25 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G358" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D358" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="E358" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F358" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G358" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>157</v>
@@ -13508,25 +13914,25 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G359" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D359" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E359" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F359" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G359" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>157</v>
@@ -13537,25 +13943,25 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G360" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C360" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D360" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="E360" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F360" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G360" s="1" t="s">
-        <v>730</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>157</v>
@@ -13566,30 +13972,1857 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D361" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C361" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>734</v>
-      </c>
       <c r="E361" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I361" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A362" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D362" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F362" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="H362" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I362" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A363" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="E363" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G363" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="H363" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I363" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A364" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G364" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="H364" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I364" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A365" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G365" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H365" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I365" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A366" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B366" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="E366" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G366" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H366" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I366" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A367" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B367" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C367" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="E367" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G367" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H367" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I367" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A368" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B368" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G368" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H368" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I368" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A369" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B369" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="E369" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H369" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I369" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A370" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B370" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C370" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G370" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H370" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I370" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A371" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B371" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C371" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="E371" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G371" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="H371" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I371" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A372" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B372" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C372" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G372" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="H372" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I372" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A373" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B373" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C373" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E373" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G373" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="H373" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I373" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A374" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B374" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C374" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="E374" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G374" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H374" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I374" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A375" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B375" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C375" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E375" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G375" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H375" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I375" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A376" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B376" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C376" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="E376" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G376" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H376" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I376" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A377" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B377" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C377" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="E377" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G377" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H377" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I377" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A378" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B378" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C378" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="E378" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G378" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H378" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I378" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A379" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I379" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A380" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="B380" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C380" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E380" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I380" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A381" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B381" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C381" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G381" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I381" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A382" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B382" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C382" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E382" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G382" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H382" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I382" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A383" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="B383" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C383" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="E383" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G383" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="H383" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I383" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A384" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="B384" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C384" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="E384" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G384" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I384" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A385" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B385" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C385" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="E385" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G385" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="H385" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I385" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A386" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G386" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="H386" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I386" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A387" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B387" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C387" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="E387" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G387" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H387" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I387" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A388" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I388" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A389" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B389" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C389" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E389" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G389" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H389" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I389" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A390" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B390" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C390" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="E390" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G390" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H390" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I390" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A391" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B391" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C391" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E391" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G391" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H391" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I391" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A392" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B392" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C392" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I392" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A393" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B393" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C393" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="E393" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G393" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="H393" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I393" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A394" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C394" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E394" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G394" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="H394" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I394" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A395" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C395" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E395" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G395" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="H395" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I395" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A396" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C396" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="E396" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G396" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="H396" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I396" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A397" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C397" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="E397" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G397" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H397" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I397" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A398" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C398" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="E398" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G398" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H398" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I398" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A399" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H399" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I399" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A400" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I400" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A401" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="E401" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G401" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="H401" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I401" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A402" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I402" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A403" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G403" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="H403" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I403" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A404" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="E404" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G404" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="H404" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I404" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A405" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C405" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="E405" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G405" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="H405" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I405" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A406" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C406" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G406" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="H406" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I406" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A407" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C407" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E407" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G407" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="H407" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I407" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A408" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C408" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G408" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="H408" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I408" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A409" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G409" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="H409" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I409" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A410" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="H410" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I410" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A411" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C411" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="E411" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G411" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H411" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I411" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A412" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C412" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="H412" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I412" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A413" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C413" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E413" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G413" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="H413" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I413" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A414" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C414" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G414" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="H414" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I414" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A415" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C415" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="E415" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G415" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="H415" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I415" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A416" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C416" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G416" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="H416" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I416" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A417" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C417" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="E417" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G417" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="H417" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I417" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A418" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C418" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G418" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H418" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I418" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A419" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="H419" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I419" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A420" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C420" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I420" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A421" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C421" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G421" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="H421" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I421" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A422" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C422" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H422" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I422" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A423" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C423" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="E423" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G423" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="H423" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I423" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A424" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="C424" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G424" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="H424" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I424" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB034D49-B689-4DE4-9B81-0E0E0C2D4672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7A8F2-29C8-48E9-AA11-73DD8FFBAE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3393" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="850">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -3070,6 +3070,34 @@
   </si>
   <si>
     <t>Studs sp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEhTOksSed4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホリダ×チタノタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物風族</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syokubutsu_fuzoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5586.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dennis Wu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>den.love.peace</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3171,7 +3199,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
@@ -3514,9 +3542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I424"/>
+  <dimension ref="A1:I425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="F429" sqref="F429"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -14029,7 +14059,7 @@
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A363" s="5" t="s">
+      <c r="A363" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -14047,7 +14077,7 @@
       <c r="F363" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G363" s="5" t="s">
+      <c r="G363" s="1" t="s">
         <v>735</v>
       </c>
       <c r="H363" s="1" t="s">
@@ -14058,7 +14088,7 @@
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A364" s="5" t="s">
+      <c r="A364" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -14076,7 +14106,7 @@
       <c r="F364" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="G364" s="5" t="s">
+      <c r="G364" s="1" t="s">
         <v>735</v>
       </c>
       <c r="H364" s="1" t="s">
@@ -14087,28 +14117,28 @@
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A365" s="5" t="s">
+      <c r="A365" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B365" s="5" t="s">
+      <c r="B365" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C365" s="5" t="s">
+      <c r="C365" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="E365" s="5" t="s">
+      <c r="E365" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F365" s="5" t="s">
+      <c r="F365" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G365" s="5" t="s">
+      <c r="G365" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H365" s="5" t="s">
+      <c r="H365" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I365" s="1" t="b">
@@ -14116,28 +14146,28 @@
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A366" s="5" t="s">
+      <c r="A366" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B366" s="5" t="s">
+      <c r="B366" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C366" s="5" t="s">
+      <c r="C366" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="E366" s="5" t="s">
+      <c r="E366" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F366" s="5" t="s">
+      <c r="F366" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G366" s="5" t="s">
+      <c r="G366" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H366" s="5" t="s">
+      <c r="H366" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I366" s="1" t="b">
@@ -14145,28 +14175,28 @@
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A367" s="5" t="s">
+      <c r="A367" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B367" s="5" t="s">
+      <c r="B367" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C367" s="5" t="s">
+      <c r="C367" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="E367" s="5" t="s">
+      <c r="E367" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F367" s="5" t="s">
+      <c r="F367" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G367" s="5" t="s">
+      <c r="G367" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="H367" s="5" t="s">
+      <c r="H367" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I367" s="1" t="b">
@@ -14174,28 +14204,28 @@
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A368" s="5" t="s">
+      <c r="A368" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B368" s="5" t="s">
+      <c r="B368" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C368" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="E368" s="5" t="s">
+      <c r="E368" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F368" s="5" t="s">
+      <c r="F368" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G368" s="5" t="s">
+      <c r="G368" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H368" s="5" t="s">
+      <c r="H368" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I368" s="1" t="b">
@@ -14203,28 +14233,28 @@
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A369" s="5" t="s">
+      <c r="A369" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B369" s="5" t="s">
+      <c r="B369" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C369" s="5" t="s">
+      <c r="C369" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="E369" s="5" t="s">
+      <c r="E369" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F369" s="5" t="s">
+      <c r="F369" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G369" s="5" t="s">
+      <c r="G369" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H369" s="5" t="s">
+      <c r="H369" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I369" s="1" t="b">
@@ -14232,28 +14262,28 @@
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A370" s="5" t="s">
+      <c r="A370" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B370" s="5" t="s">
+      <c r="B370" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C370" s="5" t="s">
+      <c r="C370" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="E370" s="5" t="s">
+      <c r="E370" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F370" s="5" t="s">
+      <c r="F370" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G370" s="5" t="s">
+      <c r="G370" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="H370" s="5" t="s">
+      <c r="H370" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I370" s="1" t="b">
@@ -14261,28 +14291,28 @@
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A371" s="5" t="s">
+      <c r="A371" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B371" s="5" t="s">
+      <c r="B371" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C371" s="5" t="s">
+      <c r="C371" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="E371" s="5" t="s">
+      <c r="E371" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F371" s="5" t="s">
+      <c r="F371" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G371" s="5" t="s">
+      <c r="G371" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H371" s="5" t="s">
+      <c r="H371" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I371" s="1" t="b">
@@ -14290,28 +14320,28 @@
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A372" s="5" t="s">
+      <c r="A372" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B372" s="5" t="s">
+      <c r="B372" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C372" s="5" t="s">
+      <c r="C372" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="E372" s="5" t="s">
+      <c r="E372" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F372" s="5" t="s">
+      <c r="F372" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G372" s="5" t="s">
+      <c r="G372" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H372" s="5" t="s">
+      <c r="H372" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I372" s="1" t="b">
@@ -14319,28 +14349,28 @@
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A373" s="5" t="s">
+      <c r="A373" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B373" s="5" t="s">
+      <c r="B373" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C373" s="5" t="s">
+      <c r="C373" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="E373" s="5" t="s">
+      <c r="E373" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F373" s="5" t="s">
+      <c r="F373" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G373" s="5" t="s">
+      <c r="G373" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="H373" s="5" t="s">
+      <c r="H373" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I373" s="1" t="b">
@@ -14348,28 +14378,28 @@
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A374" s="5" t="s">
+      <c r="A374" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B374" s="5" t="s">
+      <c r="B374" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C374" s="5" t="s">
+      <c r="C374" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="E374" s="5" t="s">
+      <c r="E374" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F374" s="5" t="s">
+      <c r="F374" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G374" s="5" t="s">
+      <c r="G374" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H374" s="5" t="s">
+      <c r="H374" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I374" s="1" t="b">
@@ -14377,28 +14407,28 @@
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A375" s="5" t="s">
+      <c r="A375" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B375" s="5" t="s">
+      <c r="B375" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C375" s="5" t="s">
+      <c r="C375" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="E375" s="5" t="s">
+      <c r="E375" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F375" s="5" t="s">
+      <c r="F375" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G375" s="5" t="s">
+      <c r="G375" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="H375" s="5" t="s">
+      <c r="H375" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I375" s="1" t="b">
@@ -14406,28 +14436,28 @@
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A376" s="5" t="s">
+      <c r="A376" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B376" s="5" t="s">
+      <c r="B376" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C376" s="5" t="s">
+      <c r="C376" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="E376" s="5" t="s">
+      <c r="E376" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F376" s="5" t="s">
+      <c r="F376" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G376" s="5" t="s">
+      <c r="G376" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="H376" s="5" t="s">
+      <c r="H376" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I376" s="1" t="b">
@@ -14435,28 +14465,28 @@
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A377" s="5" t="s">
+      <c r="A377" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B377" s="5" t="s">
+      <c r="B377" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C377" s="5" t="s">
+      <c r="C377" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E377" s="5" t="s">
+      <c r="E377" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F377" s="5" t="s">
+      <c r="F377" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G377" s="5" t="s">
+      <c r="G377" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="H377" s="5" t="s">
+      <c r="H377" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I377" s="1" t="b">
@@ -14464,28 +14494,28 @@
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A378" s="5" t="s">
+      <c r="A378" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B378" s="5" t="s">
+      <c r="B378" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C378" s="5" t="s">
+      <c r="C378" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="E378" s="5" t="s">
+      <c r="E378" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F378" s="5" t="s">
+      <c r="F378" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G378" s="5" t="s">
+      <c r="G378" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="H378" s="5" t="s">
+      <c r="H378" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I378" s="1" t="b">
@@ -14493,28 +14523,28 @@
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A379" s="5" t="s">
+      <c r="A379" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B379" s="5" t="s">
+      <c r="B379" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C379" s="5" t="s">
+      <c r="C379" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="E379" s="5" t="s">
+      <c r="E379" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F379" s="5" t="s">
+      <c r="F379" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G379" s="5" t="s">
+      <c r="G379" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H379" s="5" t="s">
+      <c r="H379" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I379" s="1" t="b">
@@ -14522,28 +14552,28 @@
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A380" s="5" t="s">
+      <c r="A380" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B380" s="5" t="s">
+      <c r="B380" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C380" s="5" t="s">
+      <c r="C380" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="E380" s="5" t="s">
+      <c r="E380" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F380" s="5" t="s">
+      <c r="F380" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G380" s="5" t="s">
+      <c r="G380" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="H380" s="5" t="s">
+      <c r="H380" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I380" s="1" t="b">
@@ -14551,28 +14581,28 @@
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A381" s="5" t="s">
+      <c r="A381" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B381" s="5" t="s">
+      <c r="B381" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C381" s="5" t="s">
+      <c r="C381" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E381" s="5" t="s">
+      <c r="E381" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F381" s="5" t="s">
+      <c r="F381" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G381" s="5" t="s">
+      <c r="G381" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H381" s="5" t="s">
+      <c r="H381" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I381" s="1" t="b">
@@ -14580,28 +14610,28 @@
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A382" s="5" t="s">
+      <c r="A382" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B382" s="5" t="s">
+      <c r="B382" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C382" s="5" t="s">
+      <c r="C382" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="E382" s="5" t="s">
+      <c r="E382" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F382" s="5" t="s">
+      <c r="F382" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G382" s="5" t="s">
+      <c r="G382" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H382" s="5" t="s">
+      <c r="H382" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I382" s="1" t="b">
@@ -14609,28 +14639,28 @@
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A383" s="5" t="s">
+      <c r="A383" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B383" s="5" t="s">
+      <c r="B383" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C383" s="5" t="s">
+      <c r="C383" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="E383" s="5" t="s">
+      <c r="E383" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F383" s="5" t="s">
+      <c r="F383" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G383" s="5" t="s">
+      <c r="G383" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="H383" s="5" t="s">
+      <c r="H383" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I383" s="1" t="b">
@@ -14638,28 +14668,28 @@
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A384" s="5" t="s">
+      <c r="A384" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B384" s="5" t="s">
+      <c r="B384" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C384" s="5" t="s">
+      <c r="C384" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E384" s="5" t="s">
+      <c r="E384" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="F384" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G384" s="5" t="s">
+      <c r="G384" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="H384" s="5" t="s">
+      <c r="H384" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I384" s="1" t="b">
@@ -14667,28 +14697,28 @@
       </c>
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A385" s="5" t="s">
+      <c r="A385" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B385" s="5" t="s">
+      <c r="B385" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C385" s="5" t="s">
+      <c r="C385" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="E385" s="5" t="s">
+      <c r="E385" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F385" s="5" t="s">
+      <c r="F385" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G385" s="5" t="s">
+      <c r="G385" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H385" s="5" t="s">
+      <c r="H385" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I385" s="1" t="b">
@@ -14696,28 +14726,28 @@
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A386" s="5" t="s">
+      <c r="A386" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B386" s="5" t="s">
+      <c r="B386" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C386" s="5" t="s">
+      <c r="C386" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="E386" s="5" t="s">
+      <c r="E386" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F386" s="5" t="s">
+      <c r="F386" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G386" s="5" t="s">
+      <c r="G386" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="H386" s="5" t="s">
+      <c r="H386" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I386" s="1" t="b">
@@ -14725,28 +14755,28 @@
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A387" s="5" t="s">
+      <c r="A387" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B387" s="5" t="s">
+      <c r="B387" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C387" s="5" t="s">
+      <c r="C387" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="E387" s="5" t="s">
+      <c r="E387" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F387" s="5" t="s">
+      <c r="F387" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G387" s="5" t="s">
+      <c r="G387" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H387" s="5" t="s">
+      <c r="H387" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I387" s="1" t="b">
@@ -14754,28 +14784,28 @@
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A388" s="5" t="s">
+      <c r="A388" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B388" s="5" t="s">
+      <c r="B388" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C388" s="5" t="s">
+      <c r="C388" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="E388" s="5" t="s">
+      <c r="E388" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F388" s="5" t="s">
+      <c r="F388" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G388" s="5" t="s">
+      <c r="G388" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H388" s="5" t="s">
+      <c r="H388" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I388" s="1" t="b">
@@ -14783,28 +14813,28 @@
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A389" s="5" t="s">
+      <c r="A389" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B389" s="5" t="s">
+      <c r="B389" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C389" s="5" t="s">
+      <c r="C389" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E389" s="5" t="s">
+      <c r="E389" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F389" s="5" t="s">
+      <c r="F389" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G389" s="5" t="s">
+      <c r="G389" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="H389" s="5" t="s">
+      <c r="H389" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I389" s="1" t="b">
@@ -14812,28 +14842,28 @@
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A390" s="5" t="s">
+      <c r="A390" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B390" s="5" t="s">
+      <c r="B390" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C390" s="5" t="s">
+      <c r="C390" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="E390" s="5" t="s">
+      <c r="E390" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F390" s="5" t="s">
+      <c r="F390" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G390" s="5" t="s">
+      <c r="G390" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H390" s="5" t="s">
+      <c r="H390" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I390" s="1" t="b">
@@ -14841,28 +14871,28 @@
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A391" s="5" t="s">
+      <c r="A391" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B391" s="5" t="s">
+      <c r="B391" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C391" s="5" t="s">
+      <c r="C391" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E391" s="5" t="s">
+      <c r="E391" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F391" s="5" t="s">
+      <c r="F391" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G391" s="5" t="s">
+      <c r="G391" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H391" s="5" t="s">
+      <c r="H391" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I391" s="1" t="b">
@@ -14870,28 +14900,28 @@
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A392" s="5" t="s">
+      <c r="A392" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B392" s="5" t="s">
+      <c r="B392" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C392" s="5" t="s">
+      <c r="C392" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="E392" s="5" t="s">
+      <c r="E392" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F392" s="5" t="s">
+      <c r="F392" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G392" s="5" t="s">
+      <c r="G392" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="H392" s="5" t="s">
+      <c r="H392" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I392" s="1" t="b">
@@ -14899,28 +14929,28 @@
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A393" s="5" t="s">
+      <c r="A393" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B393" s="5" t="s">
+      <c r="B393" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C393" s="5" t="s">
+      <c r="C393" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="E393" s="5" t="s">
+      <c r="E393" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F393" s="5" t="s">
+      <c r="F393" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G393" s="5" t="s">
+      <c r="G393" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H393" s="5" t="s">
+      <c r="H393" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I393" s="1" t="b">
@@ -14928,28 +14958,28 @@
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A394" s="5" t="s">
+      <c r="A394" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B394" s="5" t="s">
+      <c r="B394" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C394" s="5" t="s">
+      <c r="C394" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="E394" s="5" t="s">
+      <c r="E394" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F394" s="5" t="s">
+      <c r="F394" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G394" s="5" t="s">
+      <c r="G394" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H394" s="5" t="s">
+      <c r="H394" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I394" s="1" t="b">
@@ -14957,28 +14987,28 @@
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A395" s="5" t="s">
+      <c r="A395" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B395" s="5" t="s">
+      <c r="B395" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C395" s="5" t="s">
+      <c r="C395" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="E395" s="5" t="s">
+      <c r="E395" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F395" s="5" t="s">
+      <c r="F395" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G395" s="5" t="s">
+      <c r="G395" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H395" s="5" t="s">
+      <c r="H395" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I395" s="1" t="b">
@@ -14986,28 +15016,28 @@
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A396" s="5" t="s">
+      <c r="A396" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B396" s="5" t="s">
+      <c r="B396" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C396" s="5" t="s">
+      <c r="C396" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E396" s="5" t="s">
+      <c r="E396" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F396" s="5" t="s">
+      <c r="F396" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G396" s="5" t="s">
+      <c r="G396" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H396" s="5" t="s">
+      <c r="H396" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I396" s="1" t="b">
@@ -15015,28 +15045,28 @@
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A397" s="5" t="s">
+      <c r="A397" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B397" s="5" t="s">
+      <c r="B397" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C397" s="5" t="s">
+      <c r="C397" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="E397" s="5" t="s">
+      <c r="E397" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F397" s="5" t="s">
+      <c r="F397" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G397" s="5" t="s">
+      <c r="G397" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H397" s="5" t="s">
+      <c r="H397" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I397" s="1" t="b">
@@ -15044,28 +15074,28 @@
       </c>
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A398" s="5" t="s">
+      <c r="A398" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B398" s="5" t="s">
+      <c r="B398" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C398" s="5" t="s">
+      <c r="C398" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="E398" s="5" t="s">
+      <c r="E398" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F398" s="5" t="s">
+      <c r="F398" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G398" s="5" t="s">
+      <c r="G398" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H398" s="5" t="s">
+      <c r="H398" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I398" s="1" t="b">
@@ -15073,28 +15103,28 @@
       </c>
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A399" s="5" t="s">
+      <c r="A399" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="B399" s="5" t="s">
+      <c r="B399" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C399" s="5" t="s">
+      <c r="C399" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="E399" s="5" t="s">
+      <c r="E399" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F399" s="5" t="s">
+      <c r="F399" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G399" s="5" t="s">
+      <c r="G399" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="H399" s="5" t="s">
+      <c r="H399" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I399" s="1" t="b">
@@ -15102,28 +15132,28 @@
       </c>
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A400" s="5" t="s">
+      <c r="A400" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B400" s="5" t="s">
+      <c r="B400" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C400" s="5" t="s">
+      <c r="C400" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="E400" s="5" t="s">
+      <c r="E400" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F400" s="5" t="s">
+      <c r="F400" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G400" s="5" t="s">
+      <c r="G400" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="H400" s="5" t="s">
+      <c r="H400" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I400" s="1" t="b">
@@ -15131,28 +15161,28 @@
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A401" s="5" t="s">
+      <c r="A401" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B401" s="5" t="s">
+      <c r="B401" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C401" s="5" t="s">
+      <c r="C401" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="E401" s="5" t="s">
+      <c r="E401" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F401" s="5" t="s">
+      <c r="F401" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G401" s="5" t="s">
+      <c r="G401" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="H401" s="5" t="s">
+      <c r="H401" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I401" s="1" t="b">
@@ -15160,28 +15190,28 @@
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A402" s="5" t="s">
+      <c r="A402" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="B402" s="5" t="s">
+      <c r="B402" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C402" s="5" t="s">
+      <c r="C402" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="E402" s="5" t="s">
+      <c r="E402" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F402" s="5" t="s">
+      <c r="F402" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G402" s="5" t="s">
+      <c r="G402" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="H402" s="5" t="s">
+      <c r="H402" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I402" s="1" t="b">
@@ -15189,28 +15219,28 @@
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A403" s="5" t="s">
+      <c r="A403" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B403" s="5" t="s">
+      <c r="B403" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C403" s="5" t="s">
+      <c r="C403" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="E403" s="5" t="s">
+      <c r="E403" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F403" s="5" t="s">
+      <c r="F403" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G403" s="5" t="s">
+      <c r="G403" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H403" s="5" t="s">
+      <c r="H403" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I403" s="1" t="b">
@@ -15218,28 +15248,28 @@
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A404" s="5" t="s">
+      <c r="A404" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B404" s="5" t="s">
+      <c r="B404" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C404" s="5" t="s">
+      <c r="C404" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="E404" s="5" t="s">
+      <c r="E404" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F404" s="5" t="s">
+      <c r="F404" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G404" s="5" t="s">
+      <c r="G404" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="H404" s="5" t="s">
+      <c r="H404" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I404" s="1" t="b">
@@ -15247,28 +15277,28 @@
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A405" s="5" t="s">
+      <c r="A405" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B405" s="5" t="s">
+      <c r="B405" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C405" s="5" t="s">
+      <c r="C405" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="E405" s="5" t="s">
+      <c r="E405" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F405" s="5" t="s">
+      <c r="F405" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G405" s="5" t="s">
+      <c r="G405" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="H405" s="5" t="s">
+      <c r="H405" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I405" s="1" t="b">
@@ -15276,28 +15306,28 @@
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A406" s="5" t="s">
+      <c r="A406" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B406" s="5" t="s">
+      <c r="B406" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C406" s="5" t="s">
+      <c r="C406" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="E406" s="5" t="s">
+      <c r="E406" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F406" s="5" t="s">
+      <c r="F406" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G406" s="5" t="s">
+      <c r="G406" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="H406" s="5" t="s">
+      <c r="H406" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I406" s="1" t="b">
@@ -15305,28 +15335,28 @@
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A407" s="5" t="s">
+      <c r="A407" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B407" s="5" t="s">
+      <c r="B407" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C407" s="5" t="s">
+      <c r="C407" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D407" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="E407" s="5" t="s">
+      <c r="E407" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F407" s="5" t="s">
+      <c r="F407" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G407" s="5" t="s">
+      <c r="G407" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="H407" s="5" t="s">
+      <c r="H407" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I407" s="1" t="b">
@@ -15334,28 +15364,28 @@
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A408" s="5" t="s">
+      <c r="A408" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B408" s="5" t="s">
+      <c r="B408" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C408" s="5" t="s">
+      <c r="C408" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="E408" s="5" t="s">
+      <c r="E408" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F408" s="5" t="s">
+      <c r="F408" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G408" s="5" t="s">
+      <c r="G408" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="H408" s="5" t="s">
+      <c r="H408" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I408" s="1" t="b">
@@ -15363,28 +15393,28 @@
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A409" s="5" t="s">
+      <c r="A409" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B409" s="5" t="s">
+      <c r="B409" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C409" s="5" t="s">
+      <c r="C409" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E409" s="5" t="s">
+      <c r="E409" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F409" s="5" t="s">
+      <c r="F409" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G409" s="5" t="s">
+      <c r="G409" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="H409" s="5" t="s">
+      <c r="H409" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I409" s="1" t="b">
@@ -15392,28 +15422,28 @@
       </c>
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A410" s="5" t="s">
+      <c r="A410" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B410" s="5" t="s">
+      <c r="B410" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C410" s="5" t="s">
+      <c r="C410" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="E410" s="5" t="s">
+      <c r="E410" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F410" s="5" t="s">
+      <c r="F410" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G410" s="5" t="s">
+      <c r="G410" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="H410" s="5" t="s">
+      <c r="H410" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I410" s="1" t="b">
@@ -15421,28 +15451,28 @@
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A411" s="5" t="s">
+      <c r="A411" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B411" s="5" t="s">
+      <c r="B411" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C411" s="5" t="s">
+      <c r="C411" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="E411" s="5" t="s">
+      <c r="E411" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F411" s="5" t="s">
+      <c r="F411" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G411" s="5" t="s">
+      <c r="G411" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="H411" s="5" t="s">
+      <c r="H411" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I411" s="1" t="b">
@@ -15450,28 +15480,28 @@
       </c>
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A412" s="5" t="s">
+      <c r="A412" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B412" s="5" t="s">
+      <c r="B412" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C412" s="5" t="s">
+      <c r="C412" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="E412" s="5" t="s">
+      <c r="E412" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F412" s="5" t="s">
+      <c r="F412" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G412" s="5" t="s">
+      <c r="G412" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="H412" s="5" t="s">
+      <c r="H412" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I412" s="1" t="b">
@@ -15479,28 +15509,28 @@
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A413" s="5" t="s">
+      <c r="A413" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B413" s="5" t="s">
+      <c r="B413" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C413" s="5" t="s">
+      <c r="C413" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="E413" s="5" t="s">
+      <c r="E413" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F413" s="5" t="s">
+      <c r="F413" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G413" s="5" t="s">
+      <c r="G413" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H413" s="5" t="s">
+      <c r="H413" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I413" s="1" t="b">
@@ -15508,28 +15538,28 @@
       </c>
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A414" s="5" t="s">
+      <c r="A414" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="B414" s="5" t="s">
+      <c r="B414" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C414" s="5" t="s">
+      <c r="C414" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E414" s="5" t="s">
+      <c r="E414" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F414" s="5" t="s">
+      <c r="F414" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G414" s="5" t="s">
+      <c r="G414" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="H414" s="5" t="s">
+      <c r="H414" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I414" s="1" t="b">
@@ -15537,28 +15567,28 @@
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A415" s="5" t="s">
+      <c r="A415" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B415" s="5" t="s">
+      <c r="B415" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C415" s="5" t="s">
+      <c r="C415" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E415" s="5" t="s">
+      <c r="E415" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F415" s="5" t="s">
+      <c r="F415" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G415" s="5" t="s">
+      <c r="G415" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="H415" s="5" t="s">
+      <c r="H415" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I415" s="1" t="b">
@@ -15566,28 +15596,28 @@
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A416" s="5" t="s">
+      <c r="A416" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B416" s="5" t="s">
+      <c r="B416" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C416" s="5" t="s">
+      <c r="C416" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D416" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="E416" s="5" t="s">
+      <c r="E416" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F416" s="5" t="s">
+      <c r="F416" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G416" s="5" t="s">
+      <c r="G416" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="H416" s="5" t="s">
+      <c r="H416" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I416" s="1" t="b">
@@ -15595,28 +15625,28 @@
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A417" s="5" t="s">
+      <c r="A417" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B417" s="5" t="s">
+      <c r="B417" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C417" s="5" t="s">
+      <c r="C417" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D417" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="E417" s="5" t="s">
+      <c r="E417" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F417" s="5" t="s">
+      <c r="F417" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G417" s="5" t="s">
+      <c r="G417" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="H417" s="5" t="s">
+      <c r="H417" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I417" s="1" t="b">
@@ -15624,28 +15654,28 @@
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A418" s="5" t="s">
+      <c r="A418" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B418" s="5" t="s">
+      <c r="B418" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C418" s="5" t="s">
+      <c r="C418" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="E418" s="5" t="s">
+      <c r="E418" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F418" s="5" t="s">
+      <c r="F418" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G418" s="5" t="s">
+      <c r="G418" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="H418" s="5" t="s">
+      <c r="H418" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I418" s="1" t="b">
@@ -15653,28 +15683,28 @@
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A419" s="5" t="s">
+      <c r="A419" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B419" s="5" t="s">
+      <c r="B419" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C419" s="5" t="s">
+      <c r="C419" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D419" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E419" s="5" t="s">
+      <c r="E419" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F419" s="5" t="s">
+      <c r="F419" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G419" s="5" t="s">
+      <c r="G419" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="H419" s="5" t="s">
+      <c r="H419" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I419" s="1" t="b">
@@ -15682,28 +15712,28 @@
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A420" s="5" t="s">
+      <c r="A420" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B420" s="5" t="s">
+      <c r="B420" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C420" s="5" t="s">
+      <c r="C420" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="E420" s="5" t="s">
+      <c r="E420" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F420" s="5" t="s">
+      <c r="F420" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G420" s="5" t="s">
+      <c r="G420" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="H420" s="5" t="s">
+      <c r="H420" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I420" s="1" t="b">
@@ -15711,28 +15741,28 @@
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A421" s="5" t="s">
+      <c r="A421" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B421" s="5" t="s">
+      <c r="B421" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C421" s="5" t="s">
+      <c r="C421" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="E421" s="5" t="s">
+      <c r="E421" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F421" s="5" t="s">
+      <c r="F421" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G421" s="5" t="s">
+      <c r="G421" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="H421" s="5" t="s">
+      <c r="H421" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I421" s="1" t="b">
@@ -15740,28 +15770,28 @@
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A422" s="5" t="s">
+      <c r="A422" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B422" s="5" t="s">
+      <c r="B422" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C422" s="5" t="s">
+      <c r="C422" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E422" s="5" t="s">
+      <c r="E422" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F422" s="5" t="s">
+      <c r="F422" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G422" s="5" t="s">
+      <c r="G422" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="H422" s="5" t="s">
+      <c r="H422" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I422" s="1" t="b">
@@ -15769,28 +15799,28 @@
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A423" s="5" t="s">
+      <c r="A423" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="B423" s="5" t="s">
+      <c r="B423" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C423" s="5" t="s">
+      <c r="C423" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E423" s="5" t="s">
+      <c r="E423" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F423" s="5" t="s">
+      <c r="F423" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G423" s="5" t="s">
+      <c r="G423" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="H423" s="5" t="s">
+      <c r="H423" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I423" s="1" t="b">
@@ -15798,31 +15828,60 @@
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A424" s="5" t="s">
+      <c r="A424" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B424" s="5" t="s">
+      <c r="B424" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C424" s="5" t="s">
+      <c r="C424" s="1" t="s">
         <v>741</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E424" s="5" t="s">
+      <c r="E424" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="F424" s="5" t="s">
+      <c r="F424" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="G424" s="5" t="s">
+      <c r="G424" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="H424" s="5" t="s">
+      <c r="H424" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I424" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A425" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="C425" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E425" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G425" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="H425" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I425" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C7A8F2-29C8-48E9-AA11-73DD8FFBAE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6D85C-E00A-4503-B743-D977962EE1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="869">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -3098,6 +3098,74 @@
   </si>
   <si>
     <t>den.love.peace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>movin_plants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5703.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5704.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5705.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5706.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5707.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5708.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5709.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5710.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5711.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5712.avif</t>
+  </si>
+  <si>
+    <t>毒液</t>
+    <rPh sb="0" eb="2">
+      <t>ドクエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5713.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5714.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5715.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5716.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5717.avif</t>
+  </si>
+  <si>
+    <t>movin plants</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3542,10 +3610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I425"/>
+  <dimension ref="A1:I440"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="F429" sqref="F429"/>
+      <selection activeCell="D428" sqref="D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15857,31 +15925,466 @@
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A425" s="5" t="s">
+      <c r="A425" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B425" s="5" t="s">
+      <c r="B425" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C425" s="5" t="s">
+      <c r="C425" s="1" t="s">
         <v>846</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E425" s="5" t="s">
+      <c r="E425" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="F425" s="5" t="s">
+      <c r="F425" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="G425" s="5" t="s">
+      <c r="G425" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="H425" s="5" t="s">
+      <c r="H425" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I425" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A426" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C426" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G426" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H426" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I426" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A427" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C427" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="E427" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G427" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H427" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I427" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A428" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C428" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G428" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H428" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I428" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A429" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G429" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H429" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I429" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A430" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C430" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I430" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A431" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G431" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H431" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I431" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A432" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C432" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G432" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H432" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I432" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A433" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C433" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G433" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H433" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I433" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A434" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C434" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E434" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G434" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H434" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I434" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A435" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C435" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="E435" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G435" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H435" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I435" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A436" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C436" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="E436" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G436" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H436" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I436" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A437" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C437" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="E437" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G437" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H437" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I437" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A438" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B438" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="E438" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G438" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H438" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I438" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A439" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B439" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="E439" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G439" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H439" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I439" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A440" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="I440" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF6D85C-E00A-4503-B743-D977962EE1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D21A681-9F71-4246-9FF3-4E4DDD039DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="869">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -3257,7 +3257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3271,9 +3271,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3612,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
   <dimension ref="A1:I440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="D428" sqref="D428"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="H438" sqref="H438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -15954,28 +15951,26 @@
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A426" s="5" t="s">
+      <c r="A426" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B426" s="5" t="s">
+      <c r="B426" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C426" s="5" t="s">
+      <c r="C426" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="E426" s="5" t="s">
+      <c r="E426" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F426" s="5" t="s">
+      <c r="F426" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G426" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H426" s="5" t="s">
+      <c r="G426" s="1"/>
+      <c r="H426" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I426" s="1" t="b">
@@ -15983,28 +15978,26 @@
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A427" s="5" t="s">
+      <c r="A427" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B427" s="5" t="s">
+      <c r="B427" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C427" s="5" t="s">
+      <c r="C427" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="E427" s="5" t="s">
+      <c r="E427" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F427" s="5" t="s">
+      <c r="F427" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G427" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H427" s="5" t="s">
+      <c r="G427" s="1"/>
+      <c r="H427" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I427" s="1" t="b">
@@ -16012,28 +16005,26 @@
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A428" s="5" t="s">
+      <c r="A428" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B428" s="5" t="s">
+      <c r="B428" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C428" s="5" t="s">
+      <c r="C428" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="E428" s="5" t="s">
+      <c r="E428" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F428" s="5" t="s">
+      <c r="F428" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G428" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H428" s="5" t="s">
+      <c r="G428" s="1"/>
+      <c r="H428" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I428" s="1" t="b">
@@ -16041,28 +16032,26 @@
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B429" s="5" t="s">
+      <c r="B429" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C429" s="5" t="s">
+      <c r="C429" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="E429" s="5" t="s">
+      <c r="E429" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F429" s="5" t="s">
+      <c r="F429" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G429" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H429" s="5" t="s">
+      <c r="G429" s="1"/>
+      <c r="H429" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I429" s="1" t="b">
@@ -16070,28 +16059,26 @@
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A430" s="5" t="s">
+      <c r="A430" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B430" s="5" t="s">
+      <c r="B430" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C430" s="5" t="s">
+      <c r="C430" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="E430" s="5" t="s">
+      <c r="E430" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F430" s="5" t="s">
+      <c r="F430" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G430" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H430" s="5" t="s">
+      <c r="G430" s="1"/>
+      <c r="H430" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I430" s="1" t="b">
@@ -16099,28 +16086,26 @@
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B431" s="5" t="s">
+      <c r="B431" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C431" s="5" t="s">
+      <c r="C431" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="E431" s="5" t="s">
+      <c r="E431" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F431" s="5" t="s">
+      <c r="F431" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G431" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H431" s="5" t="s">
+      <c r="G431" s="1"/>
+      <c r="H431" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I431" s="1" t="b">
@@ -16128,28 +16113,26 @@
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A432" s="5" t="s">
+      <c r="A432" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B432" s="5" t="s">
+      <c r="B432" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C432" s="5" t="s">
+      <c r="C432" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="E432" s="5" t="s">
+      <c r="E432" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F432" s="5" t="s">
+      <c r="F432" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G432" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H432" s="5" t="s">
+      <c r="G432" s="1"/>
+      <c r="H432" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I432" s="1" t="b">
@@ -16157,28 +16140,26 @@
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B433" s="5" t="s">
+      <c r="B433" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C433" s="5" t="s">
+      <c r="C433" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="E433" s="5" t="s">
+      <c r="E433" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F433" s="5" t="s">
+      <c r="F433" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G433" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H433" s="5" t="s">
+      <c r="G433" s="1"/>
+      <c r="H433" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I433" s="1" t="b">
@@ -16186,28 +16167,26 @@
       </c>
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A434" s="5" t="s">
+      <c r="A434" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B434" s="5" t="s">
+      <c r="B434" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C434" s="5" t="s">
+      <c r="C434" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="E434" s="5" t="s">
+      <c r="E434" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F434" s="5" t="s">
+      <c r="F434" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G434" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H434" s="5" t="s">
+      <c r="G434" s="1"/>
+      <c r="H434" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I434" s="1" t="b">
@@ -16215,28 +16194,26 @@
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A435" s="5" t="s">
+      <c r="A435" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B435" s="5" t="s">
+      <c r="B435" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C435" s="5" t="s">
+      <c r="C435" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="E435" s="5" t="s">
+      <c r="E435" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F435" s="5" t="s">
+      <c r="F435" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G435" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H435" s="5" t="s">
+      <c r="G435" s="1"/>
+      <c r="H435" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I435" s="1" t="b">
@@ -16244,28 +16221,26 @@
       </c>
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A436" s="5" t="s">
+      <c r="A436" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B436" s="5" t="s">
+      <c r="B436" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C436" s="5" t="s">
+      <c r="C436" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="E436" s="5" t="s">
+      <c r="E436" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F436" s="5" t="s">
+      <c r="F436" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G436" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H436" s="5" t="s">
+      <c r="G436" s="1"/>
+      <c r="H436" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I436" s="1" t="b">
@@ -16273,28 +16248,26 @@
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A437" s="5" t="s">
+      <c r="A437" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B437" s="5" t="s">
+      <c r="B437" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C437" s="5" t="s">
+      <c r="C437" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D437" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="E437" s="5" t="s">
+      <c r="E437" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F437" s="5" t="s">
+      <c r="F437" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G437" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H437" s="5" t="s">
+      <c r="G437" s="1"/>
+      <c r="H437" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I437" s="1" t="b">
@@ -16302,28 +16275,26 @@
       </c>
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B438" s="5" t="s">
+      <c r="B438" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C438" s="5" t="s">
+      <c r="C438" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="E438" s="5" t="s">
+      <c r="E438" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F438" s="5" t="s">
+      <c r="F438" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G438" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H438" s="5" t="s">
+      <c r="G438" s="1"/>
+      <c r="H438" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I438" s="1" t="b">
@@ -16331,28 +16302,26 @@
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A439" s="5" t="s">
+      <c r="A439" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B439" s="5" t="s">
+      <c r="B439" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C439" s="5" t="s">
+      <c r="C439" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="E439" s="5" t="s">
+      <c r="E439" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F439" s="5" t="s">
+      <c r="F439" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G439" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H439" s="5" t="s">
+      <c r="G439" s="1"/>
+      <c r="H439" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I439" s="1" t="b">
@@ -16360,28 +16329,26 @@
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B440" s="5" t="s">
+      <c r="B440" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="C440" s="5" t="s">
+      <c r="C440" s="1" t="s">
         <v>850</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="E440" s="5" t="s">
+      <c r="E440" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="F440" s="5" t="s">
+      <c r="F440" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G440" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="H440" s="5" t="s">
+      <c r="G440" s="1"/>
+      <c r="H440" s="1" t="s">
         <v>851</v>
       </c>
       <c r="I440" s="1" t="b">

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D21A681-9F71-4246-9FF3-4E4DDD039DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DDEEA-7AB8-435A-88FD-716F5C253793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3506" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3762" uniqueCount="929">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -3167,6 +3167,214 @@
   <si>
     <t>movin plants</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5724.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5725.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5726.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5727.avif</t>
+  </si>
+  <si>
+    <t>オミカンプランツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>omikanpakupaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DC4Dj_eTqLC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBD_kO_zG93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5728.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5729.avif</t>
+  </si>
+  <si>
+    <t>DAdjgahzPUA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5730.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5731.avif</t>
+  </si>
+  <si>
+    <t>DAioSlJzToF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5732.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5733.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5734.avif</t>
+  </si>
+  <si>
+    <t>missy_AGAVE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fukuoka_missy.57</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fukuoka_missy.58</t>
+  </si>
+  <si>
+    <t>fukuoka_missy.59</t>
+  </si>
+  <si>
+    <t>C_nh6t_yQcQ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5735.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5736.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5737.avif</t>
+  </si>
+  <si>
+    <t>C_X4BznyPvO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5738.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5739.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5740.avif</t>
+  </si>
+  <si>
+    <t>姫厳龍 姬嚴龍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WH NURSERY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wh_nursery</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C_N5CrXyYyu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5741.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5742.avif</t>
+  </si>
+  <si>
+    <t>C_GAgDqyz_6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5743.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5744.avif</t>
+  </si>
+  <si>
+    <t>CpZSiiYucrF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド B2</t>
+  </si>
+  <si>
+    <t>イランエメラルド B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5752.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5753.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5751.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5755.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5756.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5758.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C8GpDp0INVJ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォール FALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5759.avif</t>
+  </si>
+  <si>
+    <t>C3LYh4RrTzs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド E1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド E2</t>
+  </si>
+  <si>
+    <t>イランエメラルド E3</t>
+  </si>
+  <si>
+    <t>images/IMG_5760.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5761.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5762.avif</t>
+  </si>
+  <si>
+    <t>C4QxteRrnEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローズ Rose Type C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5763.avif</t>
   </si>
 </sst>
 </file>
@@ -3257,7 +3465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3271,6 +3479,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3607,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I440"/>
+  <dimension ref="A1:I472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
-      <selection activeCell="H438" sqref="H438"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="D475" sqref="D475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16355,6 +16566,934 @@
         <v>1</v>
       </c>
     </row>
+    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A441" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I441" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A442" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I442" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A443" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I443" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A444" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I444" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A445" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I445" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A446" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I446" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A447" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I447" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A448" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I448" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A449" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F449" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I449" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A450" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F450" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I450" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A451" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="F451" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I451" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A452" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F452" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I452" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A453" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F453" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I453" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A454" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F454" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I454" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A455" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F455" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I455" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A456" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F456" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I456" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A457" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="F457" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I457" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A458" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F458" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I458" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A459" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F459" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I459" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A460" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F460" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I460" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A461" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F461" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I461" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A462" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F462" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G462" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H462" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I462" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A463" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F463" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G463" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H463" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I463" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A464" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F464" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G464" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I464" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A465" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F465" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G465" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H465" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I465" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A466" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F466" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G466" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H466" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I466" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A467" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F467" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="H467" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I467" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A468" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F468" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G468" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I468" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A469" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F469" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G469" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="H469" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I469" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A470" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F470" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G470" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I470" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A471" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F471" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G471" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="H471" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I471" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A472" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F472" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G472" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I472" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H279" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}"/>
   <phoneticPr fontId="1"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFB497-7AF7-4232-890A-DD5B515D154F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BB75D2-71BA-4A9F-BC04-D7EADE1095A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4234" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="1134">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -3420,10 +3420,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イランエメラルド ACHILLES</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>images/IMG_5776.avif</t>
   </si>
   <si>
@@ -3696,6 +3692,383 @@
   </si>
   <si>
     <t>images/IMG_5828.avif</t>
+  </si>
+  <si>
+    <t>イランエメラルド A1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド B1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド C1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド D1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド E1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド F1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド G1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド H1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド I1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド J1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド K1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド L1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド M1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド N1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド O1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド P1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド Q1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド R1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド S1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド T1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド U1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド V1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド X1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド Z1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド A2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド W1 ACHILLES</t>
+  </si>
+  <si>
+    <t>イランエメラルド W1 ACHILLES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド W1 ACHILLES</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド C2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド E2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド I2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド J2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド K2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド L2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド M2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド N2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド O2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド P2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド T2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド Q2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド R2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド S2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド V2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド W2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5840.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5841.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5842.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5843.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5844.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5845.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5846.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5847.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5848.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5849.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5850.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5851.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5852.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5853.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5854.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5855.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5856.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5857.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5860.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5862.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5863.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5864.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5865.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5866.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5867.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5868.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5869.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5870.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5871.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5872.avif</t>
+  </si>
+  <si>
+    <t>イランエメラルド Y1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5873.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5874.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5875.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5876.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5877.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5878.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5879.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5880.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5881.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5882.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5883.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5884.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5885.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5886.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5887.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5888.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5889.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5890.avif</t>
+  </si>
+  <si>
+    <t>C-X50tFIqjK</t>
+  </si>
+  <si>
+    <t>C-X50tFIqjK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イランエメラルド Z2 ATHENA</t>
+  </si>
+  <si>
+    <t>イランエメラルド Z2 ATHENA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5905.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5906.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5907.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5908.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5909.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5910.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5911.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5912.avif</t>
   </si>
 </sst>
 </file>
@@ -4139,10 +4512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I531"/>
+  <dimension ref="A1:I587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="F522" sqref="F522"/>
+    <sheetView tabSelected="1" topLeftCell="A582" workbookViewId="0">
+      <selection activeCell="C592" sqref="C592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17991,16 +18364,16 @@
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A479" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D479" s="1" t="s">
         <v>941</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>942</v>
       </c>
       <c r="E479" s="1" t="s">
         <v>46</v>
@@ -18020,7 +18393,7 @@
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A480" s="1" t="s">
-        <v>941</v>
+        <v>1053</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>46</v>
@@ -18029,7 +18402,7 @@
         <v>47</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E480" s="1" t="s">
         <v>46</v>
@@ -18049,7 +18422,7 @@
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A481" s="1" t="s">
-        <v>941</v>
+        <v>1052</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>46</v>
@@ -18058,7 +18431,7 @@
         <v>47</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E481" s="1" t="s">
         <v>46</v>
@@ -18078,17 +18451,17 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A482" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D482" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D482" s="1" t="s">
-        <v>948</v>
-      </c>
       <c r="E482" s="1" t="s">
         <v>46</v>
       </c>
@@ -18096,7 +18469,7 @@
         <v>47</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H482" s="1" t="s">
         <v>49</v>
@@ -18107,7 +18480,7 @@
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A483" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>46</v>
@@ -18116,7 +18489,7 @@
         <v>47</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E483" s="1" t="s">
         <v>46</v>
@@ -18125,7 +18498,7 @@
         <v>47</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H483" s="1" t="s">
         <v>49</v>
@@ -18136,7 +18509,7 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A484" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>46</v>
@@ -18145,7 +18518,7 @@
         <v>47</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E484" s="1" t="s">
         <v>46</v>
@@ -18154,7 +18527,7 @@
         <v>47</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="H484" s="1" t="s">
         <v>49</v>
@@ -18165,7 +18538,7 @@
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A485" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>46</v>
@@ -18174,7 +18547,7 @@
         <v>47</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E485" s="1" t="s">
         <v>46</v>
@@ -18183,7 +18556,7 @@
         <v>47</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>49</v>
@@ -18194,7 +18567,7 @@
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A486" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>46</v>
@@ -18203,7 +18576,7 @@
         <v>47</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E486" s="1" t="s">
         <v>46</v>
@@ -18212,7 +18585,7 @@
         <v>47</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H486" s="1" t="s">
         <v>49</v>
@@ -18223,7 +18596,7 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A487" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>46</v>
@@ -18232,7 +18605,7 @@
         <v>47</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E487" s="1" t="s">
         <v>46</v>
@@ -18241,7 +18614,7 @@
         <v>47</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H487" s="1" t="s">
         <v>49</v>
@@ -18252,7 +18625,7 @@
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A488" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B488" s="1" t="s">
         <v>46</v>
@@ -18261,7 +18634,7 @@
         <v>47</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E488" s="1" t="s">
         <v>46</v>
@@ -18270,7 +18643,7 @@
         <v>47</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="H488" s="1" t="s">
         <v>49</v>
@@ -18281,7 +18654,7 @@
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A489" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B489" s="1" t="s">
         <v>46</v>
@@ -18290,7 +18663,7 @@
         <v>47</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E489" s="1" t="s">
         <v>46</v>
@@ -18299,7 +18672,7 @@
         <v>47</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H489" s="1" t="s">
         <v>49</v>
@@ -18310,7 +18683,7 @@
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A490" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B490" s="1" t="s">
         <v>46</v>
@@ -18319,7 +18692,7 @@
         <v>47</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>46</v>
@@ -18328,7 +18701,7 @@
         <v>47</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="H490" s="1" t="s">
         <v>49</v>
@@ -18339,7 +18712,7 @@
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A491" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>46</v>
@@ -18348,7 +18721,7 @@
         <v>47</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E491" s="1" t="s">
         <v>46</v>
@@ -18357,7 +18730,7 @@
         <v>47</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H491" s="1" t="s">
         <v>49</v>
@@ -18368,7 +18741,7 @@
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A492" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B492" s="1" t="s">
         <v>46</v>
@@ -18377,7 +18750,7 @@
         <v>47</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E492" s="1" t="s">
         <v>46</v>
@@ -18386,7 +18759,7 @@
         <v>47</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="H492" s="1" t="s">
         <v>49</v>
@@ -18397,7 +18770,7 @@
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A493" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>46</v>
@@ -18406,7 +18779,7 @@
         <v>47</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E493" s="1" t="s">
         <v>46</v>
@@ -18415,7 +18788,7 @@
         <v>47</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H493" s="1" t="s">
         <v>49</v>
@@ -18426,7 +18799,7 @@
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A494" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>46</v>
@@ -18435,7 +18808,7 @@
         <v>47</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="E494" s="1" t="s">
         <v>46</v>
@@ -18444,7 +18817,7 @@
         <v>47</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H494" s="1" t="s">
         <v>49</v>
@@ -18455,7 +18828,7 @@
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A495" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B495" s="1" t="s">
         <v>46</v>
@@ -18464,7 +18837,7 @@
         <v>47</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E495" s="1" t="s">
         <v>46</v>
@@ -18473,7 +18846,7 @@
         <v>47</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H495" s="1" t="s">
         <v>49</v>
@@ -18484,17 +18857,17 @@
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A496" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D496" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>972</v>
-      </c>
       <c r="E496" s="1" t="s">
         <v>46</v>
       </c>
@@ -18502,7 +18875,7 @@
         <v>47</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H496" s="1" t="s">
         <v>49</v>
@@ -18513,7 +18886,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A497" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>46</v>
@@ -18522,7 +18895,7 @@
         <v>47</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="E497" s="1" t="s">
         <v>46</v>
@@ -18531,7 +18904,7 @@
         <v>47</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H497" s="1" t="s">
         <v>49</v>
@@ -18542,7 +18915,7 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A498" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>46</v>
@@ -18551,7 +18924,7 @@
         <v>47</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>46</v>
@@ -18560,7 +18933,7 @@
         <v>47</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H498" s="1" t="s">
         <v>49</v>
@@ -18571,7 +18944,7 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A499" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>46</v>
@@ -18580,7 +18953,7 @@
         <v>47</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E499" s="1" t="s">
         <v>46</v>
@@ -18589,7 +18962,7 @@
         <v>47</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="H499" s="1" t="s">
         <v>49</v>
@@ -18600,7 +18973,7 @@
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A500" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B500" s="1" t="s">
         <v>46</v>
@@ -18609,7 +18982,7 @@
         <v>47</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E500" s="1" t="s">
         <v>46</v>
@@ -18618,7 +18991,7 @@
         <v>47</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H500" s="1" t="s">
         <v>49</v>
@@ -18629,7 +19002,7 @@
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A501" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>46</v>
@@ -18638,7 +19011,7 @@
         <v>47</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E501" s="1" t="s">
         <v>46</v>
@@ -18647,7 +19020,7 @@
         <v>47</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H501" s="1" t="s">
         <v>49</v>
@@ -18658,7 +19031,7 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A502" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>46</v>
@@ -18667,7 +19040,7 @@
         <v>47</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E502" s="1" t="s">
         <v>46</v>
@@ -18676,7 +19049,7 @@
         <v>47</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>49</v>
@@ -18687,7 +19060,7 @@
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A503" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>46</v>
@@ -18696,7 +19069,7 @@
         <v>47</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E503" s="1" t="s">
         <v>46</v>
@@ -18705,7 +19078,7 @@
         <v>47</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H503" s="1" t="s">
         <v>49</v>
@@ -18716,7 +19089,7 @@
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A504" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>46</v>
@@ -18725,7 +19098,7 @@
         <v>47</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E504" s="1" t="s">
         <v>46</v>
@@ -18734,7 +19107,7 @@
         <v>47</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H504" s="1" t="s">
         <v>49</v>
@@ -18745,7 +19118,7 @@
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A505" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>46</v>
@@ -18754,7 +19127,7 @@
         <v>47</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E505" s="1" t="s">
         <v>46</v>
@@ -18763,7 +19136,7 @@
         <v>47</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H505" s="1" t="s">
         <v>49</v>
@@ -18774,7 +19147,7 @@
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A506" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>46</v>
@@ -18783,7 +19156,7 @@
         <v>47</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E506" s="1" t="s">
         <v>46</v>
@@ -18792,7 +19165,7 @@
         <v>47</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="H506" s="1" t="s">
         <v>49</v>
@@ -18803,7 +19176,7 @@
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A507" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>46</v>
@@ -18812,7 +19185,7 @@
         <v>47</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>46</v>
@@ -18821,7 +19194,7 @@
         <v>47</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H507" s="1" t="s">
         <v>49</v>
@@ -18832,7 +19205,7 @@
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A508" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B508" s="1" t="s">
         <v>46</v>
@@ -18841,7 +19214,7 @@
         <v>47</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E508" s="1" t="s">
         <v>46</v>
@@ -18850,7 +19223,7 @@
         <v>47</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H508" s="1" t="s">
         <v>49</v>
@@ -18861,7 +19234,7 @@
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A509" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B509" s="1" t="s">
         <v>46</v>
@@ -18870,7 +19243,7 @@
         <v>47</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E509" s="1" t="s">
         <v>46</v>
@@ -18879,7 +19252,7 @@
         <v>47</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H509" s="1" t="s">
         <v>49</v>
@@ -18890,7 +19263,7 @@
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A510" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B510" s="1" t="s">
         <v>46</v>
@@ -18899,7 +19272,7 @@
         <v>47</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E510" s="1" t="s">
         <v>46</v>
@@ -18908,7 +19281,7 @@
         <v>47</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H510" s="1" t="s">
         <v>49</v>
@@ -18919,7 +19292,7 @@
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A511" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B511" s="1" t="s">
         <v>46</v>
@@ -18928,7 +19301,7 @@
         <v>47</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E511" s="1" t="s">
         <v>46</v>
@@ -18937,7 +19310,7 @@
         <v>47</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H511" s="1" t="s">
         <v>49</v>
@@ -18948,7 +19321,7 @@
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A512" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B512" s="1" t="s">
         <v>46</v>
@@ -18957,7 +19330,7 @@
         <v>47</v>
       </c>
       <c r="D512" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E512" s="1" t="s">
         <v>46</v>
@@ -18966,7 +19339,7 @@
         <v>47</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H512" s="1" t="s">
         <v>49</v>
@@ -18977,7 +19350,7 @@
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A513" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B513" s="1" t="s">
         <v>46</v>
@@ -18986,7 +19359,7 @@
         <v>47</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>46</v>
@@ -18995,7 +19368,7 @@
         <v>47</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>49</v>
@@ -19006,7 +19379,7 @@
     </row>
     <row r="514" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A514" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B514" s="1" t="s">
         <v>46</v>
@@ -19015,7 +19388,7 @@
         <v>47</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E514" s="1" t="s">
         <v>46</v>
@@ -19024,7 +19397,7 @@
         <v>47</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>49</v>
@@ -19035,7 +19408,7 @@
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A515" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B515" s="1" t="s">
         <v>46</v>
@@ -19044,7 +19417,7 @@
         <v>47</v>
       </c>
       <c r="D515" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="E515" s="1" t="s">
         <v>46</v>
@@ -19053,7 +19426,7 @@
         <v>47</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H515" s="1" t="s">
         <v>49</v>
@@ -19064,7 +19437,7 @@
     </row>
     <row r="516" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A516" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B516" s="1" t="s">
         <v>46</v>
@@ -19073,7 +19446,7 @@
         <v>47</v>
       </c>
       <c r="D516" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E516" s="1" t="s">
         <v>46</v>
@@ -19082,7 +19455,7 @@
         <v>47</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="H516" s="1" t="s">
         <v>49</v>
@@ -19093,7 +19466,7 @@
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A517" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B517" s="1" t="s">
         <v>46</v>
@@ -19102,7 +19475,7 @@
         <v>47</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E517" s="1" t="s">
         <v>46</v>
@@ -19111,7 +19484,7 @@
         <v>47</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H517" s="1" t="s">
         <v>49</v>
@@ -19122,7 +19495,7 @@
     </row>
     <row r="518" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A518" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B518" s="1" t="s">
         <v>46</v>
@@ -19131,7 +19504,7 @@
         <v>47</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E518" s="1" t="s">
         <v>46</v>
@@ -19140,7 +19513,7 @@
         <v>47</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H518" s="1" t="s">
         <v>49</v>
@@ -19151,7 +19524,7 @@
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A519" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B519" s="1" t="s">
         <v>46</v>
@@ -19160,7 +19533,7 @@
         <v>47</v>
       </c>
       <c r="D519" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E519" s="1" t="s">
         <v>46</v>
@@ -19169,7 +19542,7 @@
         <v>47</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H519" s="1" t="s">
         <v>49</v>
@@ -19180,17 +19553,17 @@
     </row>
     <row r="520" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A520" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D520" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B520" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D520" s="1" t="s">
-        <v>1012</v>
-      </c>
       <c r="E520" s="1" t="s">
         <v>46</v>
       </c>
@@ -19198,7 +19571,7 @@
         <v>47</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H520" s="1" t="s">
         <v>49</v>
@@ -19209,7 +19582,7 @@
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A521" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B521" s="1" t="s">
         <v>46</v>
@@ -19218,7 +19591,7 @@
         <v>47</v>
       </c>
       <c r="D521" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E521" s="1" t="s">
         <v>46</v>
@@ -19227,7 +19600,7 @@
         <v>47</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H521" s="1" t="s">
         <v>49</v>
@@ -19238,7 +19611,7 @@
     </row>
     <row r="522" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A522" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>46</v>
@@ -19247,7 +19620,7 @@
         <v>47</v>
       </c>
       <c r="D522" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="E522" s="1" t="s">
         <v>46</v>
@@ -19256,7 +19629,7 @@
         <v>47</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H522" s="1" t="s">
         <v>49</v>
@@ -19267,7 +19640,7 @@
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A523" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B523" s="1" t="s">
         <v>46</v>
@@ -19276,7 +19649,7 @@
         <v>47</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="E523" s="1" t="s">
         <v>46</v>
@@ -19285,7 +19658,7 @@
         <v>47</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H523" s="1" t="s">
         <v>49</v>
@@ -19296,7 +19669,7 @@
     </row>
     <row r="524" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A524" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B524" s="1" t="s">
         <v>46</v>
@@ -19305,7 +19678,7 @@
         <v>47</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E524" s="1" t="s">
         <v>46</v>
@@ -19314,7 +19687,7 @@
         <v>47</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="H524" s="1" t="s">
         <v>49</v>
@@ -19325,25 +19698,25 @@
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A525" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D525" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D525" s="1" t="s">
-        <v>1020</v>
-      </c>
       <c r="E525" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G525" s="5" t="s">
-        <v>1018</v>
+      <c r="G525" s="1" t="s">
+        <v>1017</v>
       </c>
       <c r="H525" s="1" t="s">
         <v>49</v>
@@ -19354,7 +19727,7 @@
     </row>
     <row r="526" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A526" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B526" s="1" t="s">
         <v>46</v>
@@ -19363,7 +19736,7 @@
         <v>47</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E526" s="1" t="s">
         <v>46</v>
@@ -19371,8 +19744,8 @@
       <c r="F526" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G526" s="5" t="s">
-        <v>1018</v>
+      <c r="G526" s="1" t="s">
+        <v>1017</v>
       </c>
       <c r="H526" s="1" t="s">
         <v>49</v>
@@ -19383,7 +19756,7 @@
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A527" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B527" s="1" t="s">
         <v>46</v>
@@ -19392,7 +19765,7 @@
         <v>47</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="E527" s="1" t="s">
         <v>46</v>
@@ -19400,8 +19773,8 @@
       <c r="F527" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G527" s="5" t="s">
-        <v>1017</v>
+      <c r="G527" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="H527" s="1" t="s">
         <v>49</v>
@@ -19412,7 +19785,7 @@
     </row>
     <row r="528" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A528" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B528" s="1" t="s">
         <v>46</v>
@@ -19421,7 +19794,7 @@
         <v>47</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="E528" s="1" t="s">
         <v>46</v>
@@ -19429,8 +19802,8 @@
       <c r="F528" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G528" s="5" t="s">
-        <v>1017</v>
+      <c r="G528" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="H528" s="1" t="s">
         <v>49</v>
@@ -19441,7 +19814,7 @@
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A529" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B529" s="1" t="s">
         <v>46</v>
@@ -19450,7 +19823,7 @@
         <v>47</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="E529" s="1" t="s">
         <v>46</v>
@@ -19458,8 +19831,8 @@
       <c r="F529" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G529" s="5" t="s">
-        <v>1017</v>
+      <c r="G529" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="H529" s="1" t="s">
         <v>49</v>
@@ -19470,7 +19843,7 @@
     </row>
     <row r="530" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A530" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B530" s="1" t="s">
         <v>46</v>
@@ -19479,7 +19852,7 @@
         <v>47</v>
       </c>
       <c r="D530" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E530" s="1" t="s">
         <v>46</v>
@@ -19487,8 +19860,8 @@
       <c r="F530" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G530" s="5" t="s">
-        <v>1017</v>
+      <c r="G530" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="H530" s="1" t="s">
         <v>49</v>
@@ -19499,7 +19872,7 @@
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A531" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B531" s="1" t="s">
         <v>46</v>
@@ -19508,7 +19881,7 @@
         <v>47</v>
       </c>
       <c r="D531" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="E531" s="1" t="s">
         <v>46</v>
@@ -19516,13 +19889,1537 @@
       <c r="F531" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G531" s="5" t="s">
-        <v>1017</v>
+      <c r="G531" s="1" t="s">
+        <v>1016</v>
       </c>
       <c r="H531" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I531" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A532" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F532" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G532" s="1"/>
+      <c r="H532" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I532" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A533" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F533" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G533" s="1"/>
+      <c r="H533" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I533" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A534" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F534" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G534" s="1"/>
+      <c r="H534" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I534" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A535" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F535" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G535" s="1"/>
+      <c r="H535" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I535" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A536" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F536" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G536" s="1"/>
+      <c r="H536" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I536" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A537" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F537" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G537" s="1"/>
+      <c r="H537" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I537" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A538" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F538" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G538" s="1"/>
+      <c r="H538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I538" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A539" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D539" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F539" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G539" s="1"/>
+      <c r="H539" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I539" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A540" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G540" s="1"/>
+      <c r="H540" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I540" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A541" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D541" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G541" s="1"/>
+      <c r="H541" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I541" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A542" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D542" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G542" s="1"/>
+      <c r="H542" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I542" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A543" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G543" s="1"/>
+      <c r="H543" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I543" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A544" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F544" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G544" s="1"/>
+      <c r="H544" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I544" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A545" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F545" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G545" s="1"/>
+      <c r="H545" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I545" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A546" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G546" s="1"/>
+      <c r="H546" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I546" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A547" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F547" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G547" s="1"/>
+      <c r="H547" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I547" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A548" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F548" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G548" s="1"/>
+      <c r="H548" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I548" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A549" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F549" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G549" s="1"/>
+      <c r="H549" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I549" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A550" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F550" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G550" s="1"/>
+      <c r="H550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I550" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A551" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F551" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G551" s="1"/>
+      <c r="H551" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I551" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A552" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F552" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G552" s="1"/>
+      <c r="H552" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I552" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A553" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F553" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G553" s="1"/>
+      <c r="H553" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I553" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A554" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F554" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G554" s="1"/>
+      <c r="H554" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I554" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A555" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G555" s="1"/>
+      <c r="H555" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I555" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A556" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F556" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G556" s="1"/>
+      <c r="H556" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I556" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A557" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F557" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G557" s="1"/>
+      <c r="H557" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I557" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A558" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F558" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G558" s="1"/>
+      <c r="H558" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I558" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A559" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F559" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G559" s="1"/>
+      <c r="H559" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I559" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A560" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F560" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G560" s="1"/>
+      <c r="H560" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I560" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A561" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F561" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G561" s="1"/>
+      <c r="H561" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I561" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A562" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F562" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G562" s="1"/>
+      <c r="H562" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I562" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A563" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F563" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G563" s="1"/>
+      <c r="H563" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I563" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A564" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G564" s="1"/>
+      <c r="H564" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I564" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A565" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D565" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F565" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G565" s="1"/>
+      <c r="H565" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I565" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A566" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D566" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F566" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G566" s="1"/>
+      <c r="H566" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I566" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A567" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D567" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F567" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G567" s="1"/>
+      <c r="H567" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I567" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A568" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D568" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F568" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G568" s="1"/>
+      <c r="H568" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I568" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A569" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F569" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G569" s="1"/>
+      <c r="H569" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I569" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A570" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G570" s="1"/>
+      <c r="H570" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I570" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A571" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G571" s="1"/>
+      <c r="H571" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I571" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A572" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G572" s="1"/>
+      <c r="H572" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I572" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A573" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F573" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G573" s="1"/>
+      <c r="H573" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I573" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A574" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D574" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F574" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G574" s="1"/>
+      <c r="H574" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I574" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A575" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D575" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G575" s="1"/>
+      <c r="H575" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I575" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A576" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D576" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F576" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G576" s="1"/>
+      <c r="H576" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I576" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A577" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D577" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G577" s="1"/>
+      <c r="H577" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I577" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A578" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F578" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G578" s="1"/>
+      <c r="H578" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I578" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A579" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G579" s="1"/>
+      <c r="H579" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I579" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A580" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F580" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I580" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A581" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I581" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A582" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I582" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A583" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F583" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I583" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A584" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F584" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I584" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A585" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F585" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I585" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A586" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C586" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E586" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="F586" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G586" s="1"/>
+      <c r="H586" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I586" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A587" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B587" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="C587" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E587" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="F587" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="G587" s="1"/>
+      <c r="H587" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I587" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47242D51-EB4E-4FC7-8D83-946B7C68F1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC8CC2E-7AFA-4AEB-9B51-4FDD89037527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4632" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4633" uniqueCount="1134">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4065,6 +4065,10 @@
   </si>
   <si>
     <t>images/IMG_5912.avif</t>
+  </si>
+  <si>
+    <t>search_count</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4155,7 +4159,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4170,6 +4174,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4505,9 +4515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I587"/>
+  <dimension ref="A1:J587"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -4519,9 +4531,10 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4549,8 +4562,11 @@
       <c r="I1" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J1" s="2" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4578,8 +4594,11 @@
       <c r="I2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -4607,8 +4626,11 @@
       <c r="I3" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -4636,8 +4658,11 @@
       <c r="I4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -4665,8 +4690,11 @@
       <c r="I5" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -4694,8 +4722,11 @@
       <c r="I6" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -4723,8 +4754,11 @@
       <c r="I7" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -4752,8 +4786,11 @@
       <c r="I8" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -4781,8 +4818,11 @@
       <c r="I9" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4810,8 +4850,11 @@
       <c r="I10" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -4839,8 +4882,11 @@
       <c r="I11" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -4868,8 +4914,11 @@
       <c r="I12" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4897,8 +4946,11 @@
       <c r="I13" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -4926,8 +4978,11 @@
       <c r="I14" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -4955,8 +5010,11 @@
       <c r="I15" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4984,8 +5042,11 @@
       <c r="I16" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -5013,8 +5074,11 @@
       <c r="I17" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -5042,8 +5106,11 @@
       <c r="I18" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -5071,8 +5138,11 @@
       <c r="I19" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -5100,8 +5170,11 @@
       <c r="I20" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -5129,8 +5202,11 @@
       <c r="I21" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
@@ -5158,8 +5234,11 @@
       <c r="I22" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -5187,8 +5266,11 @@
       <c r="I23" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -5216,8 +5298,11 @@
       <c r="I24" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -5245,8 +5330,11 @@
       <c r="I25" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -5274,8 +5362,11 @@
       <c r="I26" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -5303,8 +5394,11 @@
       <c r="I27" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -5332,8 +5426,11 @@
       <c r="I28" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -5361,8 +5458,11 @@
       <c r="I29" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -5390,8 +5490,11 @@
       <c r="I30" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>56</v>
       </c>
@@ -5419,8 +5522,11 @@
       <c r="I31" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -5448,8 +5554,11 @@
       <c r="I32" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>56</v>
       </c>
@@ -5477,8 +5586,11 @@
       <c r="I33" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
@@ -5506,8 +5618,11 @@
       <c r="I34" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -5535,8 +5650,11 @@
       <c r="I35" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -5564,8 +5682,11 @@
       <c r="I36" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -5593,8 +5714,11 @@
       <c r="I37" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>60</v>
       </c>
@@ -5622,8 +5746,11 @@
       <c r="I38" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>63</v>
       </c>
@@ -5651,8 +5778,11 @@
       <c r="I39" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -5680,8 +5810,11 @@
       <c r="I40" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J40" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -5709,8 +5842,11 @@
       <c r="I41" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J41" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -5738,8 +5874,11 @@
       <c r="I42" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -5767,8 +5906,11 @@
       <c r="I43" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>65</v>
       </c>
@@ -5796,8 +5938,11 @@
       <c r="I44" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J44" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,8 +5970,11 @@
       <c r="I45" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
@@ -5854,8 +6002,11 @@
       <c r="I46" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J46" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>68</v>
       </c>
@@ -5883,8 +6034,11 @@
       <c r="I47" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J47" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>68</v>
       </c>
@@ -5912,8 +6066,11 @@
       <c r="I48" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -5941,8 +6098,11 @@
       <c r="I49" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>78</v>
       </c>
@@ -5970,8 +6130,11 @@
       <c r="I50" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
@@ -5999,8 +6162,11 @@
       <c r="I51" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -6028,8 +6194,11 @@
       <c r="I52" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>120</v>
       </c>
@@ -6057,8 +6226,11 @@
       <c r="I53" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>120</v>
       </c>
@@ -6086,8 +6258,11 @@
       <c r="I54" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>120</v>
       </c>
@@ -6115,8 +6290,11 @@
       <c r="I55" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>120</v>
       </c>
@@ -6144,8 +6322,11 @@
       <c r="I56" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
@@ -6173,8 +6354,11 @@
       <c r="I57" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>121</v>
       </c>
@@ -6202,8 +6386,11 @@
       <c r="I58" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>121</v>
       </c>
@@ -6231,8 +6418,11 @@
       <c r="I59" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -6260,8 +6450,11 @@
       <c r="I60" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>122</v>
       </c>
@@ -6289,8 +6482,11 @@
       <c r="I61" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -6318,8 +6514,11 @@
       <c r="I62" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>122</v>
       </c>
@@ -6347,8 +6546,11 @@
       <c r="I63" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>123</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="I64" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -6405,8 +6610,11 @@
       <c r="I65" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>123</v>
       </c>
@@ -6434,8 +6642,11 @@
       <c r="I66" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
@@ -6463,8 +6674,11 @@
       <c r="I67" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J67" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>124</v>
       </c>
@@ -6492,8 +6706,11 @@
       <c r="I68" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J68" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
@@ -6521,8 +6738,11 @@
       <c r="I69" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J69" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -6550,8 +6770,11 @@
       <c r="I70" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>121</v>
       </c>
@@ -6579,8 +6802,11 @@
       <c r="I71" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>121</v>
       </c>
@@ -6608,8 +6834,11 @@
       <c r="I72" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J72" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
@@ -6637,8 +6866,11 @@
       <c r="I73" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J73" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
@@ -6666,8 +6898,11 @@
       <c r="I74" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J74" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>122</v>
       </c>
@@ -6695,8 +6930,11 @@
       <c r="I75" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>122</v>
       </c>
@@ -6724,8 +6962,11 @@
       <c r="I76" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>288</v>
       </c>
@@ -6753,8 +6994,11 @@
       <c r="I77" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J77" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>288</v>
       </c>
@@ -6782,8 +7026,11 @@
       <c r="I78" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>289</v>
       </c>
@@ -6811,8 +7058,11 @@
       <c r="I79" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J79" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>289</v>
       </c>
@@ -6840,8 +7090,11 @@
       <c r="I80" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J80" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>125</v>
       </c>
@@ -6869,8 +7122,11 @@
       <c r="I81" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J81" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>125</v>
       </c>
@@ -6898,8 +7154,11 @@
       <c r="I82" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J82" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>288</v>
       </c>
@@ -6927,8 +7186,11 @@
       <c r="I83" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J83" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>290</v>
       </c>
@@ -6956,8 +7218,11 @@
       <c r="I84" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J84" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>290</v>
       </c>
@@ -6985,8 +7250,11 @@
       <c r="I85" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J85" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>127</v>
       </c>
@@ -7014,8 +7282,11 @@
       <c r="I86" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J86" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
@@ -7043,8 +7314,11 @@
       <c r="I87" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J87" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>127</v>
       </c>
@@ -7072,8 +7346,11 @@
       <c r="I88" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J88" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>291</v>
       </c>
@@ -7101,8 +7378,11 @@
       <c r="I89" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>291</v>
       </c>
@@ -7130,8 +7410,11 @@
       <c r="I90" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J90" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>288</v>
       </c>
@@ -7159,8 +7442,11 @@
       <c r="I91" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J91" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>288</v>
       </c>
@@ -7188,8 +7474,11 @@
       <c r="I92" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J92" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>288</v>
       </c>
@@ -7217,8 +7506,11 @@
       <c r="I93" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J93" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>292</v>
       </c>
@@ -7246,8 +7538,11 @@
       <c r="I94" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J94" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>292</v>
       </c>
@@ -7275,8 +7570,11 @@
       <c r="I95" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J95" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>125</v>
       </c>
@@ -7304,8 +7602,11 @@
       <c r="I96" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J96" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>125</v>
       </c>
@@ -7333,8 +7634,11 @@
       <c r="I97" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J97" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
@@ -7362,8 +7666,11 @@
       <c r="I98" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J98" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
@@ -7391,8 +7698,11 @@
       <c r="I99" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J99" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>125</v>
       </c>
@@ -7420,8 +7730,11 @@
       <c r="I100" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>293</v>
       </c>
@@ -7449,8 +7762,11 @@
       <c r="I101" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>292</v>
       </c>
@@ -7478,8 +7794,11 @@
       <c r="I102" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>292</v>
       </c>
@@ -7507,8 +7826,11 @@
       <c r="I103" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>294</v>
       </c>
@@ -7536,8 +7858,11 @@
       <c r="I104" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>294</v>
       </c>
@@ -7565,8 +7890,11 @@
       <c r="I105" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J105" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>294</v>
       </c>
@@ -7594,8 +7922,11 @@
       <c r="I106" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J106" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>294</v>
       </c>
@@ -7623,8 +7954,11 @@
       <c r="I107" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>291</v>
       </c>
@@ -7652,8 +7986,11 @@
       <c r="I108" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J108" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>291</v>
       </c>
@@ -7681,8 +8018,11 @@
       <c r="I109" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J109" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>291</v>
       </c>
@@ -7710,8 +8050,11 @@
       <c r="I110" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J110" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>291</v>
       </c>
@@ -7739,8 +8082,11 @@
       <c r="I111" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J111" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>120</v>
       </c>
@@ -7768,8 +8114,11 @@
       <c r="I112" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J112" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
@@ -7797,8 +8146,11 @@
       <c r="I113" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J113" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>120</v>
       </c>
@@ -7826,8 +8178,11 @@
       <c r="I114" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J114" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>120</v>
       </c>
@@ -7855,8 +8210,11 @@
       <c r="I115" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J115" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>120</v>
       </c>
@@ -7884,8 +8242,11 @@
       <c r="I116" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J116" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
@@ -7913,8 +8274,11 @@
       <c r="I117" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J117" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>124</v>
       </c>
@@ -7942,8 +8306,11 @@
       <c r="I118" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J118" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>124</v>
       </c>
@@ -7971,8 +8338,11 @@
       <c r="I119" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>120</v>
       </c>
@@ -8000,8 +8370,11 @@
       <c r="I120" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J120" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -8029,8 +8402,11 @@
       <c r="I121" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J121" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>127</v>
       </c>
@@ -8058,8 +8434,11 @@
       <c r="I122" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J122" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>127</v>
       </c>
@@ -8087,8 +8466,11 @@
       <c r="I123" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J123" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
@@ -8116,8 +8498,11 @@
       <c r="I124" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J124" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>120</v>
       </c>
@@ -8145,8 +8530,11 @@
       <c r="I125" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J125" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>126</v>
       </c>
@@ -8174,8 +8562,11 @@
       <c r="I126" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J126" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -8203,8 +8594,11 @@
       <c r="I127" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J127" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
@@ -8232,8 +8626,11 @@
       <c r="I128" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J128" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>126</v>
       </c>
@@ -8261,8 +8658,11 @@
       <c r="I129" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J129" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>125</v>
       </c>
@@ -8290,8 +8690,11 @@
       <c r="I130" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J130" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>122</v>
       </c>
@@ -8319,8 +8722,11 @@
       <c r="I131" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J131" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>122</v>
       </c>
@@ -8348,8 +8754,11 @@
       <c r="I132" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J132" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>129</v>
       </c>
@@ -8377,8 +8786,11 @@
       <c r="I133" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J133" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>129</v>
       </c>
@@ -8406,8 +8818,11 @@
       <c r="I134" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J134" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
@@ -8435,8 +8850,11 @@
       <c r="I135" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J135" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>133</v>
       </c>
@@ -8464,8 +8882,11 @@
       <c r="I136" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J136" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>133</v>
       </c>
@@ -8493,8 +8914,11 @@
       <c r="I137" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J137" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -8522,8 +8946,11 @@
       <c r="I138" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J138" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -8551,8 +8978,11 @@
       <c r="I139" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>12</v>
       </c>
@@ -8580,8 +9010,11 @@
       <c r="I140" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J140" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -8609,8 +9042,11 @@
       <c r="I141" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J141" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -8638,8 +9074,11 @@
       <c r="I142" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J142" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -8667,8 +9106,11 @@
       <c r="I143" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J143" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>16</v>
       </c>
@@ -8696,8 +9138,11 @@
       <c r="I144" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J144" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>16</v>
       </c>
@@ -8725,8 +9170,11 @@
       <c r="I145" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J145" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>138</v>
       </c>
@@ -8754,8 +9202,11 @@
       <c r="I146" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J146" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>133</v>
       </c>
@@ -8783,8 +9234,11 @@
       <c r="I147" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J147" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>132</v>
       </c>
@@ -8812,8 +9266,11 @@
       <c r="I148" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J148" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
@@ -8841,8 +9298,11 @@
       <c r="I149" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J149" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>52</v>
       </c>
@@ -8870,8 +9330,11 @@
       <c r="I150" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J150" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>52</v>
       </c>
@@ -8899,8 +9362,11 @@
       <c r="I151" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J151" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>52</v>
       </c>
@@ -8928,8 +9394,11 @@
       <c r="I152" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J152" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>56</v>
       </c>
@@ -8957,8 +9426,11 @@
       <c r="I153" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J153" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>56</v>
       </c>
@@ -8986,8 +9458,11 @@
       <c r="I154" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J154" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>145</v>
       </c>
@@ -9015,8 +9490,11 @@
       <c r="I155" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J155" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>145</v>
       </c>
@@ -9044,8 +9522,11 @@
       <c r="I156" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J156" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>147</v>
       </c>
@@ -9073,8 +9554,11 @@
       <c r="I157" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J157" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>149</v>
       </c>
@@ -9102,8 +9586,11 @@
       <c r="I158" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J158" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>149</v>
       </c>
@@ -9131,8 +9618,11 @@
       <c r="I159" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J159" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>149</v>
       </c>
@@ -9160,8 +9650,11 @@
       <c r="I160" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J160" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>151</v>
       </c>
@@ -9189,8 +9682,11 @@
       <c r="I161" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J161" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>151</v>
       </c>
@@ -9218,8 +9714,11 @@
       <c r="I162" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J162" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>153</v>
       </c>
@@ -9247,8 +9746,11 @@
       <c r="I163" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J163" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>153</v>
       </c>
@@ -9276,8 +9778,11 @@
       <c r="I164" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J164" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>145</v>
       </c>
@@ -9305,8 +9810,11 @@
       <c r="I165" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J165" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>40</v>
       </c>
@@ -9334,8 +9842,11 @@
       <c r="I166" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J166" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>40</v>
       </c>
@@ -9363,8 +9874,11 @@
       <c r="I167" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J167" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>40</v>
       </c>
@@ -9392,8 +9906,11 @@
       <c r="I168" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J168" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>138</v>
       </c>
@@ -9421,8 +9938,11 @@
       <c r="I169" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J169" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>138</v>
       </c>
@@ -9450,8 +9970,11 @@
       <c r="I170" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J170" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>71</v>
       </c>
@@ -9479,8 +10002,11 @@
       <c r="I171" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J171" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>165</v>
       </c>
@@ -9508,8 +10034,11 @@
       <c r="I172" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J172" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>166</v>
       </c>
@@ -9537,8 +10066,11 @@
       <c r="I173" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J173" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>167</v>
       </c>
@@ -9566,8 +10098,11 @@
       <c r="I174" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J174" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>165</v>
       </c>
@@ -9595,8 +10130,11 @@
       <c r="I175" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J175" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>165</v>
       </c>
@@ -9624,8 +10162,11 @@
       <c r="I176" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J176" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>165</v>
       </c>
@@ -9653,8 +10194,11 @@
       <c r="I177" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J177" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>23</v>
       </c>
@@ -9682,8 +10226,11 @@
       <c r="I178" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J178" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>23</v>
       </c>
@@ -9711,8 +10258,11 @@
       <c r="I179" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J179" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>23</v>
       </c>
@@ -9740,8 +10290,11 @@
       <c r="I180" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J180" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>23</v>
       </c>
@@ -9769,8 +10322,11 @@
       <c r="I181" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J181" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>23</v>
       </c>
@@ -9798,8 +10354,11 @@
       <c r="I182" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J182" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>168</v>
       </c>
@@ -9827,8 +10386,11 @@
       <c r="I183" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J183" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>169</v>
       </c>
@@ -9856,8 +10418,11 @@
       <c r="I184" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J184" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>73</v>
       </c>
@@ -9885,8 +10450,11 @@
       <c r="I185" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J185" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>74</v>
       </c>
@@ -9914,8 +10482,11 @@
       <c r="I186" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J186" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>181</v>
       </c>
@@ -9943,8 +10514,11 @@
       <c r="I187" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J187" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>160</v>
       </c>
@@ -9972,8 +10546,11 @@
       <c r="I188" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J188" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>183</v>
       </c>
@@ -10001,8 +10578,11 @@
       <c r="I189" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J189" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>167</v>
       </c>
@@ -10030,8 +10610,11 @@
       <c r="I190" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J190" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>70</v>
       </c>
@@ -10059,8 +10642,11 @@
       <c r="I191" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J191" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>188</v>
       </c>
@@ -10088,8 +10674,11 @@
       <c r="I192" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J192" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>168</v>
       </c>
@@ -10117,8 +10706,11 @@
       <c r="I193" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J193" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
@@ -10146,8 +10738,11 @@
       <c r="I194" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J194" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>772</v>
       </c>
@@ -10175,8 +10770,11 @@
       <c r="I195" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J195" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
         <v>74</v>
       </c>
@@ -10204,8 +10802,11 @@
       <c r="I196" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J196" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
         <v>71</v>
       </c>
@@ -10233,8 +10834,11 @@
       <c r="I197" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J197" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
         <v>165</v>
       </c>
@@ -10262,8 +10866,11 @@
       <c r="I198" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J198" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
         <v>197</v>
       </c>
@@ -10291,8 +10898,11 @@
       <c r="I199" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J199" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
         <v>138</v>
       </c>
@@ -10320,8 +10930,11 @@
       <c r="I200" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J200" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
         <v>167</v>
       </c>
@@ -10349,8 +10962,11 @@
       <c r="I201" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J201" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -10378,8 +10994,11 @@
       <c r="I202" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J202" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
         <v>73</v>
       </c>
@@ -10407,8 +11026,11 @@
       <c r="I203" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J203" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
         <v>169</v>
       </c>
@@ -10436,8 +11058,11 @@
       <c r="I204" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J204" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
         <v>192</v>
       </c>
@@ -10465,8 +11090,11 @@
       <c r="I205" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J205" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
         <v>71</v>
       </c>
@@ -10494,8 +11122,11 @@
       <c r="I206" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J206" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
         <v>207</v>
       </c>
@@ -10523,8 +11154,11 @@
       <c r="I207" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J207" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
         <v>160</v>
       </c>
@@ -10552,8 +11186,11 @@
       <c r="I208" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J208" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
         <v>168</v>
       </c>
@@ -10581,8 +11218,11 @@
       <c r="I209" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J209" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
         <v>161</v>
       </c>
@@ -10610,8 +11250,11 @@
       <c r="I210" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J210" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
         <v>212</v>
       </c>
@@ -10639,8 +11282,11 @@
       <c r="I211" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J211" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -10668,8 +11314,11 @@
       <c r="I212" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J212" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
         <v>70</v>
       </c>
@@ -10697,8 +11346,11 @@
       <c r="I213" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J213" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
         <v>217</v>
       </c>
@@ -10726,8 +11378,11 @@
       <c r="I214" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J214" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
         <v>74</v>
       </c>
@@ -10755,8 +11410,11 @@
       <c r="I215" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J215" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
         <v>71</v>
       </c>
@@ -10784,8 +11442,11 @@
       <c r="I216" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J216" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
         <v>165</v>
       </c>
@@ -10813,8 +11474,11 @@
       <c r="I217" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J217" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
@@ -10842,8 +11506,11 @@
       <c r="I218" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J218" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
         <v>158</v>
       </c>
@@ -10871,8 +11538,11 @@
       <c r="I219" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J219" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
         <v>226</v>
       </c>
@@ -10900,8 +11570,11 @@
       <c r="I220" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J220" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
         <v>40</v>
       </c>
@@ -10929,8 +11602,11 @@
       <c r="I221" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J221" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
         <v>188</v>
       </c>
@@ -10958,8 +11634,11 @@
       <c r="I222" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J222" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
         <v>159</v>
       </c>
@@ -10987,8 +11666,11 @@
       <c r="I223" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J223" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
         <v>192</v>
       </c>
@@ -11016,8 +11698,11 @@
       <c r="I224" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J224" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
         <v>75</v>
       </c>
@@ -11045,8 +11730,11 @@
       <c r="I225" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J225" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
         <v>162</v>
       </c>
@@ -11074,8 +11762,11 @@
       <c r="I226" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J226" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
         <v>165</v>
       </c>
@@ -11103,8 +11794,11 @@
       <c r="I227" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J227" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
         <v>192</v>
       </c>
@@ -11132,8 +11826,11 @@
       <c r="I228" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J228" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
         <v>71</v>
       </c>
@@ -11161,8 +11858,11 @@
       <c r="I229" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J229" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
         <v>226</v>
       </c>
@@ -11190,8 +11890,11 @@
       <c r="I230" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J230" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
         <v>168</v>
       </c>
@@ -11219,8 +11922,11 @@
       <c r="I231" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J231" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
         <v>169</v>
       </c>
@@ -11248,8 +11954,11 @@
       <c r="I232" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J232" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
         <v>214</v>
       </c>
@@ -11277,8 +11986,11 @@
       <c r="I233" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J233" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A234" s="1" t="s">
         <v>192</v>
       </c>
@@ -11306,8 +12018,11 @@
       <c r="I234" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J234" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
         <v>160</v>
       </c>
@@ -11335,8 +12050,11 @@
       <c r="I235" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
         <v>70</v>
       </c>
@@ -11364,8 +12082,11 @@
       <c r="I236" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J236" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
         <v>71</v>
       </c>
@@ -11393,8 +12114,11 @@
       <c r="I237" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J237" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
         <v>226</v>
       </c>
@@ -11422,8 +12146,11 @@
       <c r="I238" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J238" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
         <v>74</v>
       </c>
@@ -11451,8 +12178,11 @@
       <c r="I239" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J239" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
         <v>73</v>
       </c>
@@ -11480,8 +12210,11 @@
       <c r="I240" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J240" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
         <v>73</v>
       </c>
@@ -11509,8 +12242,11 @@
       <c r="I241" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J241" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
         <v>138</v>
       </c>
@@ -11538,8 +12274,11 @@
       <c r="I242" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J242" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
         <v>138</v>
       </c>
@@ -11567,8 +12306,11 @@
       <c r="I243" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J243" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
         <v>160</v>
       </c>
@@ -11596,8 +12338,11 @@
       <c r="I244" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J244" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
         <v>168</v>
       </c>
@@ -11625,8 +12370,11 @@
       <c r="I245" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J245" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
         <v>192</v>
       </c>
@@ -11654,8 +12402,11 @@
       <c r="I246" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J246" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
         <v>169</v>
       </c>
@@ -11683,8 +12434,11 @@
       <c r="I247" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J247" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
         <v>165</v>
       </c>
@@ -11712,8 +12466,11 @@
       <c r="I248" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J248" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
         <v>226</v>
       </c>
@@ -11741,8 +12498,11 @@
       <c r="I249" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J249" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
         <v>74</v>
       </c>
@@ -11770,8 +12530,11 @@
       <c r="I250" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J250" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
         <v>73</v>
       </c>
@@ -11799,8 +12562,11 @@
       <c r="I251" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J251" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
         <v>73</v>
       </c>
@@ -11828,8 +12594,11 @@
       <c r="I252" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J252" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
         <v>160</v>
       </c>
@@ -11857,8 +12626,11 @@
       <c r="I253" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J253" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
         <v>75</v>
       </c>
@@ -11886,8 +12658,11 @@
       <c r="I254" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J254" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
         <v>75</v>
       </c>
@@ -11915,8 +12690,11 @@
       <c r="I255" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J255" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
         <v>75</v>
       </c>
@@ -11944,8 +12722,11 @@
       <c r="I256" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J256" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
         <v>259</v>
       </c>
@@ -11973,8 +12754,11 @@
       <c r="I257" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J257" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
         <v>40</v>
       </c>
@@ -12002,8 +12786,11 @@
       <c r="I258" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J258" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
         <v>40</v>
       </c>
@@ -12031,8 +12818,11 @@
       <c r="I259" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J259" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
         <v>40</v>
       </c>
@@ -12060,8 +12850,11 @@
       <c r="I260" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J260" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
         <v>40</v>
       </c>
@@ -12089,8 +12882,11 @@
       <c r="I261" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J261" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A262" s="1" t="s">
         <v>138</v>
       </c>
@@ -12118,8 +12914,11 @@
       <c r="I262" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J262" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
         <v>76</v>
       </c>
@@ -12147,8 +12946,11 @@
       <c r="I263" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J263" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
         <v>76</v>
       </c>
@@ -12176,8 +12978,11 @@
       <c r="I264" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J264" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
         <v>76</v>
       </c>
@@ -12205,8 +13010,11 @@
       <c r="I265" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J265" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
@@ -12234,8 +13042,11 @@
       <c r="I266" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J266" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
         <v>43</v>
       </c>
@@ -12263,8 +13074,11 @@
       <c r="I267" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J267" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
         <v>43</v>
       </c>
@@ -12292,8 +13106,11 @@
       <c r="I268" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J268" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>43</v>
       </c>
@@ -12321,8 +13138,11 @@
       <c r="I269" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J269" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>188</v>
       </c>
@@ -12350,8 +13170,11 @@
       <c r="I270" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J270" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>158</v>
       </c>
@@ -12379,8 +13202,11 @@
       <c r="I271" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J271" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>138</v>
       </c>
@@ -12408,8 +13234,11 @@
       <c r="I272" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J272" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>192</v>
       </c>
@@ -12437,8 +13266,11 @@
       <c r="I273" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J273" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>138</v>
       </c>
@@ -12466,8 +13298,11 @@
       <c r="I274" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J274" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
@@ -12495,8 +13330,11 @@
       <c r="I275" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J275" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>1052</v>
       </c>
@@ -12524,8 +13362,11 @@
       <c r="I276" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J276" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>278</v>
       </c>
@@ -12553,8 +13394,11 @@
       <c r="I277" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J277" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>938</v>
       </c>
@@ -12582,8 +13426,11 @@
       <c r="I278" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J278" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>282</v>
       </c>
@@ -12611,8 +13458,11 @@
       <c r="I279" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J279" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>296</v>
       </c>
@@ -12640,8 +13490,11 @@
       <c r="I280" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J280" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>298</v>
       </c>
@@ -12669,8 +13522,11 @@
       <c r="I281" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J281" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>299</v>
       </c>
@@ -12698,8 +13554,11 @@
       <c r="I282" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J282" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>300</v>
       </c>
@@ -12727,8 +13586,11 @@
       <c r="I283" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J283" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>301</v>
       </c>
@@ -12756,8 +13618,11 @@
       <c r="I284" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J284" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>304</v>
       </c>
@@ -12785,8 +13650,11 @@
       <c r="I285" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J285" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>305</v>
       </c>
@@ -12814,8 +13682,11 @@
       <c r="I286" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J286" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>306</v>
       </c>
@@ -12843,8 +13714,11 @@
       <c r="I287" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J287" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>300</v>
       </c>
@@ -12872,8 +13746,11 @@
       <c r="I288" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J288" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>308</v>
       </c>
@@ -12901,8 +13778,11 @@
       <c r="I289" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J289" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>308</v>
       </c>
@@ -12930,8 +13810,11 @@
       <c r="I290" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J290" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>308</v>
       </c>
@@ -12959,8 +13842,11 @@
       <c r="I291" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J291" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>640</v>
       </c>
@@ -12988,8 +13874,11 @@
       <c r="I292" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J292" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>606</v>
       </c>
@@ -13017,8 +13906,11 @@
       <c r="I293" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J293" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>607</v>
       </c>
@@ -13046,8 +13938,11 @@
       <c r="I294" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J294" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>606</v>
       </c>
@@ -13075,8 +13970,11 @@
       <c r="I295" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J295" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>605</v>
       </c>
@@ -13104,8 +14002,11 @@
       <c r="I296" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J296" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>606</v>
       </c>
@@ -13133,8 +14034,11 @@
       <c r="I297" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J297" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>605</v>
       </c>
@@ -13162,8 +14066,11 @@
       <c r="I298" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J298" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>681</v>
       </c>
@@ -13191,8 +14098,11 @@
       <c r="I299" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J299" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>618</v>
       </c>
@@ -13220,8 +14130,11 @@
       <c r="I300" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J300" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>618</v>
       </c>
@@ -13249,8 +14162,11 @@
       <c r="I301" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J301" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>617</v>
       </c>
@@ -13278,8 +14194,11 @@
       <c r="I302" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J302" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>617</v>
       </c>
@@ -13307,8 +14226,11 @@
       <c r="I303" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J303" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>617</v>
       </c>
@@ -13336,8 +14258,11 @@
       <c r="I304" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J304" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>628</v>
       </c>
@@ -13365,8 +14290,11 @@
       <c r="I305" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J305" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>628</v>
       </c>
@@ -13394,8 +14322,11 @@
       <c r="I306" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J306" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>616</v>
       </c>
@@ -13423,8 +14354,11 @@
       <c r="I307" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J307" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>616</v>
       </c>
@@ -13452,8 +14386,11 @@
       <c r="I308" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J308" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>616</v>
       </c>
@@ -13481,8 +14418,11 @@
       <c r="I309" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J309" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>616</v>
       </c>
@@ -13510,8 +14450,11 @@
       <c r="I310" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J310" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>616</v>
       </c>
@@ -13539,8 +14482,11 @@
       <c r="I311" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J311" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
         <v>607</v>
       </c>
@@ -13568,8 +14514,11 @@
       <c r="I312" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J312" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
         <v>607</v>
       </c>
@@ -13597,8 +14546,11 @@
       <c r="I313" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J313" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>607</v>
       </c>
@@ -13626,8 +14578,11 @@
       <c r="I314" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J314" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
         <v>641</v>
       </c>
@@ -13655,8 +14610,11 @@
       <c r="I315" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J315" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>647</v>
       </c>
@@ -13684,8 +14642,11 @@
       <c r="I316" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J316" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>647</v>
       </c>
@@ -13713,8 +14674,11 @@
       <c r="I317" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J317" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
         <v>646</v>
       </c>
@@ -13742,8 +14706,11 @@
       <c r="I318" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J318" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
         <v>646</v>
       </c>
@@ -13771,8 +14738,11 @@
       <c r="I319" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J319" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>646</v>
       </c>
@@ -13800,8 +14770,11 @@
       <c r="I320" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J320" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
         <v>646</v>
       </c>
@@ -13829,8 +14802,11 @@
       <c r="I321" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J321" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
         <v>657</v>
       </c>
@@ -13858,8 +14834,11 @@
       <c r="I322" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J322" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
         <v>657</v>
       </c>
@@ -13887,8 +14866,11 @@
       <c r="I323" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J323" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
         <v>656</v>
       </c>
@@ -13916,8 +14898,11 @@
       <c r="I324" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J324" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
         <v>656</v>
       </c>
@@ -13945,8 +14930,11 @@
       <c r="I325" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J325" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>656</v>
       </c>
@@ -13974,8 +14962,11 @@
       <c r="I326" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J326" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
         <v>666</v>
       </c>
@@ -14003,8 +14994,11 @@
       <c r="I327" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J327" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
         <v>666</v>
       </c>
@@ -14032,8 +15026,11 @@
       <c r="I328" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J328" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>665</v>
       </c>
@@ -14061,8 +15058,11 @@
       <c r="I329" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J329" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
         <v>665</v>
       </c>
@@ -14090,8 +15090,11 @@
       <c r="I330" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J330" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
         <v>673</v>
       </c>
@@ -14119,8 +15122,11 @@
       <c r="I331" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J331" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
         <v>673</v>
       </c>
@@ -14148,8 +15154,11 @@
       <c r="I332" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J332" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
         <v>672</v>
       </c>
@@ -14177,8 +15186,11 @@
       <c r="I333" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J333" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
         <v>672</v>
       </c>
@@ -14206,8 +15218,11 @@
       <c r="I334" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J334" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
         <v>672</v>
       </c>
@@ -14235,8 +15250,11 @@
       <c r="I335" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J335" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
         <v>673</v>
       </c>
@@ -14264,8 +15282,11 @@
       <c r="I336" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J336" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
         <v>685</v>
       </c>
@@ -14293,8 +15314,11 @@
       <c r="I337" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J337" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
         <v>685</v>
       </c>
@@ -14322,8 +15346,11 @@
       <c r="I338" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J338" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
         <v>684</v>
       </c>
@@ -14351,8 +15378,11 @@
       <c r="I339" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J339" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
         <v>684</v>
       </c>
@@ -14380,8 +15410,11 @@
       <c r="I340" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J340" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
         <v>693</v>
       </c>
@@ -14409,8 +15442,11 @@
       <c r="I341" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J341" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
         <v>693</v>
       </c>
@@ -14438,8 +15474,11 @@
       <c r="I342" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J342" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
         <v>692</v>
       </c>
@@ -14467,8 +15506,11 @@
       <c r="I343" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J343" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
         <v>693</v>
       </c>
@@ -14496,8 +15538,11 @@
       <c r="I344" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J344" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
         <v>699</v>
       </c>
@@ -14525,8 +15570,11 @@
       <c r="I345" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J345" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
         <v>702</v>
       </c>
@@ -14554,8 +15602,11 @@
       <c r="I346" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J346" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
         <v>702</v>
       </c>
@@ -14583,8 +15634,11 @@
       <c r="I347" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J347" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
         <v>706</v>
       </c>
@@ -14612,8 +15666,11 @@
       <c r="I348" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J348" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
         <v>635</v>
       </c>
@@ -14641,8 +15698,11 @@
       <c r="I349" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J349" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
         <v>635</v>
       </c>
@@ -14670,8 +15730,11 @@
       <c r="I350" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J350" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
         <v>635</v>
       </c>
@@ -14699,8 +15762,11 @@
       <c r="I351" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J351" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
         <v>711</v>
       </c>
@@ -14728,8 +15794,11 @@
       <c r="I352" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J352" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
         <v>711</v>
       </c>
@@ -14757,8 +15826,11 @@
       <c r="I353" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J353" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
         <v>716</v>
       </c>
@@ -14786,8 +15858,11 @@
       <c r="I354" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J354" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
         <v>716</v>
       </c>
@@ -14815,8 +15890,11 @@
       <c r="I355" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J355" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
         <v>715</v>
       </c>
@@ -14844,8 +15922,11 @@
       <c r="I356" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J356" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
         <v>715</v>
       </c>
@@ -14873,8 +15954,11 @@
       <c r="I357" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J357" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
         <v>722</v>
       </c>
@@ -14902,8 +15986,11 @@
       <c r="I358" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J358" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
         <v>722</v>
       </c>
@@ -14931,8 +16018,11 @@
       <c r="I359" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J359" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
         <v>726</v>
       </c>
@@ -14960,8 +16050,11 @@
       <c r="I360" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J360" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
         <v>730</v>
       </c>
@@ -14989,8 +16082,11 @@
       <c r="I361" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J361" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A362" s="4" t="s">
         <v>734</v>
       </c>
@@ -15018,8 +16114,11 @@
       <c r="I362" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J362" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
         <v>734</v>
       </c>
@@ -15047,8 +16146,11 @@
       <c r="I363" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J363" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
         <v>734</v>
       </c>
@@ -15076,8 +16178,11 @@
       <c r="I364" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J364" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
         <v>741</v>
       </c>
@@ -15105,8 +16210,11 @@
       <c r="I365" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J365" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
         <v>741</v>
       </c>
@@ -15134,8 +16242,11 @@
       <c r="I366" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J366" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
         <v>741</v>
       </c>
@@ -15163,8 +16274,11 @@
       <c r="I367" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J367" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
         <v>772</v>
       </c>
@@ -15192,8 +16306,11 @@
       <c r="I368" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J368" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
         <v>772</v>
       </c>
@@ -15221,8 +16338,11 @@
       <c r="I369" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J369" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
         <v>772</v>
       </c>
@@ -15250,8 +16370,11 @@
       <c r="I370" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J370" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
         <v>753</v>
       </c>
@@ -15279,8 +16402,11 @@
       <c r="I371" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J371" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A372" s="1" t="s">
         <v>753</v>
       </c>
@@ -15308,8 +16434,11 @@
       <c r="I372" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J372" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
         <v>753</v>
       </c>
@@ -15337,8 +16466,11 @@
       <c r="I373" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J373" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
         <v>757</v>
       </c>
@@ -15366,8 +16498,11 @@
       <c r="I374" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J374" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A375" s="1" t="s">
         <v>757</v>
       </c>
@@ -15395,8 +16530,11 @@
       <c r="I375" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J375" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A376" s="1" t="s">
         <v>771</v>
       </c>
@@ -15424,8 +16562,11 @@
       <c r="I376" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J376" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A377" s="1" t="s">
         <v>771</v>
       </c>
@@ -15453,8 +16594,11 @@
       <c r="I377" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J377" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A378" s="1" t="s">
         <v>771</v>
       </c>
@@ -15482,8 +16626,11 @@
       <c r="I378" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J378" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A379" s="1" t="s">
         <v>770</v>
       </c>
@@ -15511,8 +16658,11 @@
       <c r="I379" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J379" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A380" s="1" t="s">
         <v>770</v>
       </c>
@@ -15540,8 +16690,11 @@
       <c r="I380" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J380" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A381" s="1" t="s">
         <v>769</v>
       </c>
@@ -15569,8 +16722,11 @@
       <c r="I381" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J381" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A382" s="1" t="s">
         <v>769</v>
       </c>
@@ -15598,8 +16754,11 @@
       <c r="I382" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J382" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A383" s="1" t="s">
         <v>769</v>
       </c>
@@ -15627,8 +16786,11 @@
       <c r="I383" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J383" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A384" s="1" t="s">
         <v>774</v>
       </c>
@@ -15656,8 +16818,11 @@
       <c r="I384" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J384" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
         <v>779</v>
       </c>
@@ -15685,8 +16850,11 @@
       <c r="I385" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J385" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
         <v>779</v>
       </c>
@@ -15714,8 +16882,11 @@
       <c r="I386" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J386" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
         <v>781</v>
       </c>
@@ -15743,8 +16914,11 @@
       <c r="I387" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J387" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A388" s="1" t="s">
         <v>74</v>
       </c>
@@ -15772,8 +16946,11 @@
       <c r="I388" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J388" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A389" s="1" t="s">
         <v>226</v>
       </c>
@@ -15801,8 +16978,11 @@
       <c r="I389" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J389" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
         <v>786</v>
       </c>
@@ -15830,8 +17010,11 @@
       <c r="I390" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J390" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
         <v>786</v>
       </c>
@@ -15859,8 +17042,11 @@
       <c r="I391" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J391" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
         <v>786</v>
       </c>
@@ -15888,8 +17074,11 @@
       <c r="I392" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J392" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
         <v>71</v>
       </c>
@@ -15917,8 +17106,11 @@
       <c r="I393" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J393" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A394" s="1" t="s">
         <v>71</v>
       </c>
@@ -15946,8 +17138,11 @@
       <c r="I394" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J394" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A395" s="1" t="s">
         <v>71</v>
       </c>
@@ -15975,8 +17170,11 @@
       <c r="I395" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J395" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A396" s="1" t="s">
         <v>71</v>
       </c>
@@ -16004,8 +17202,11 @@
       <c r="I396" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J396" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A397" s="1" t="s">
         <v>741</v>
       </c>
@@ -16033,8 +17234,11 @@
       <c r="I397" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J397" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A398" s="1" t="s">
         <v>741</v>
       </c>
@@ -16062,8 +17266,11 @@
       <c r="I398" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J398" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A399" s="1" t="s">
         <v>741</v>
       </c>
@@ -16091,8 +17298,11 @@
       <c r="I399" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J399" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A400" s="1" t="s">
         <v>803</v>
       </c>
@@ -16120,8 +17330,11 @@
       <c r="I400" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J400" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A401" s="1" t="s">
         <v>803</v>
       </c>
@@ -16149,8 +17362,11 @@
       <c r="I401" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J401" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A402" s="1" t="s">
         <v>803</v>
       </c>
@@ -16178,8 +17394,11 @@
       <c r="I402" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J402" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A403" s="1" t="s">
         <v>74</v>
       </c>
@@ -16207,8 +17426,11 @@
       <c r="I403" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J403" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A404" s="1" t="s">
         <v>74</v>
       </c>
@@ -16236,8 +17458,11 @@
       <c r="I404" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J404" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A405" s="1" t="s">
         <v>74</v>
       </c>
@@ -16265,8 +17490,11 @@
       <c r="I405" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J405" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A406" s="1" t="s">
         <v>74</v>
       </c>
@@ -16294,8 +17522,11 @@
       <c r="I406" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J406" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A407" s="1" t="s">
         <v>816</v>
       </c>
@@ -16323,8 +17554,11 @@
       <c r="I407" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J407" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A408" s="1" t="s">
         <v>816</v>
       </c>
@@ -16352,8 +17586,11 @@
       <c r="I408" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J408" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A409" s="1" t="s">
         <v>816</v>
       </c>
@@ -16381,8 +17618,11 @@
       <c r="I409" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J409" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A410" s="1" t="s">
         <v>816</v>
       </c>
@@ -16410,8 +17650,11 @@
       <c r="I410" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J410" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A411" s="1" t="s">
         <v>779</v>
       </c>
@@ -16439,8 +17682,11 @@
       <c r="I411" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J411" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A412" s="1" t="s">
         <v>779</v>
       </c>
@@ -16468,8 +17714,11 @@
       <c r="I412" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J412" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A413" s="1" t="s">
         <v>779</v>
       </c>
@@ -16497,8 +17746,11 @@
       <c r="I413" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J413" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A414" s="1" t="s">
         <v>779</v>
       </c>
@@ -16526,8 +17778,11 @@
       <c r="I414" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J414" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A415" s="1" t="s">
         <v>816</v>
       </c>
@@ -16555,8 +17810,11 @@
       <c r="I415" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J415" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A416" s="1" t="s">
         <v>816</v>
       </c>
@@ -16584,8 +17842,11 @@
       <c r="I416" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J416" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A417" s="1" t="s">
         <v>816</v>
       </c>
@@ -16613,8 +17874,11 @@
       <c r="I417" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J417" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A418" s="1" t="s">
         <v>833</v>
       </c>
@@ -16642,8 +17906,11 @@
       <c r="I418" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J418" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A419" s="1" t="s">
         <v>833</v>
       </c>
@@ -16671,8 +17938,11 @@
       <c r="I419" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J419" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A420" s="1" t="s">
         <v>833</v>
       </c>
@@ -16700,8 +17970,11 @@
       <c r="I420" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J420" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A421" s="1" t="s">
         <v>833</v>
       </c>
@@ -16729,8 +18002,11 @@
       <c r="I421" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J421" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A422" s="1" t="s">
         <v>837</v>
       </c>
@@ -16758,8 +18034,11 @@
       <c r="I422" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J422" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A423" s="1" t="s">
         <v>837</v>
       </c>
@@ -16787,8 +18066,11 @@
       <c r="I423" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J423" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A424" s="1" t="s">
         <v>840</v>
       </c>
@@ -16816,8 +18098,11 @@
       <c r="I424" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J424" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A425" s="1" t="s">
         <v>842</v>
       </c>
@@ -16845,8 +18130,11 @@
       <c r="I425" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J425" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A426" s="1" t="s">
         <v>181</v>
       </c>
@@ -16872,8 +18160,11 @@
       <c r="I426" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J426" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A427" s="1" t="s">
         <v>181</v>
       </c>
@@ -16899,8 +18190,11 @@
       <c r="I427" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J427" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A428" s="1" t="s">
         <v>181</v>
       </c>
@@ -16926,8 +18220,11 @@
       <c r="I428" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J428" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A429" s="1" t="s">
         <v>181</v>
       </c>
@@ -16953,8 +18250,11 @@
       <c r="I429" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J429" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A430" s="1" t="s">
         <v>181</v>
       </c>
@@ -16980,8 +18280,11 @@
       <c r="I430" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J430" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A431" s="1" t="s">
         <v>40</v>
       </c>
@@ -17007,8 +18310,11 @@
       <c r="I431" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J431" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A432" s="1" t="s">
         <v>40</v>
       </c>
@@ -17034,8 +18340,11 @@
       <c r="I432" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J432" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A433" s="1" t="s">
         <v>40</v>
       </c>
@@ -17061,8 +18370,11 @@
       <c r="I433" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J433" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A434" s="1" t="s">
         <v>40</v>
       </c>
@@ -17088,8 +18400,11 @@
       <c r="I434" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J434" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A435" s="1" t="s">
         <v>40</v>
       </c>
@@ -17115,8 +18430,11 @@
       <c r="I435" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J435" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A436" s="1" t="s">
         <v>860</v>
       </c>
@@ -17142,8 +18460,11 @@
       <c r="I436" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J436" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A437" s="1" t="s">
         <v>860</v>
       </c>
@@ -17169,8 +18490,11 @@
       <c r="I437" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J437" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A438" s="1" t="s">
         <v>860</v>
       </c>
@@ -17196,8 +18520,11 @@
       <c r="I438" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J438" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A439" s="1" t="s">
         <v>860</v>
       </c>
@@ -17223,8 +18550,11 @@
       <c r="I439" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J439" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A440" s="1" t="s">
         <v>860</v>
       </c>
@@ -17250,8 +18580,11 @@
       <c r="I440" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J440" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A441" s="1" t="s">
         <v>138</v>
       </c>
@@ -17279,8 +18612,11 @@
       <c r="I441" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J441" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A442" s="1" t="s">
         <v>138</v>
       </c>
@@ -17308,8 +18644,11 @@
       <c r="I442" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J442" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A443" s="1" t="s">
         <v>138</v>
       </c>
@@ -17337,8 +18676,11 @@
       <c r="I443" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J443" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A444" s="1" t="s">
         <v>138</v>
       </c>
@@ -17366,8 +18708,11 @@
       <c r="I444" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J444" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A445" s="1" t="s">
         <v>138</v>
       </c>
@@ -17395,8 +18740,11 @@
       <c r="I445" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J445" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A446" s="1" t="s">
         <v>138</v>
       </c>
@@ -17424,8 +18772,11 @@
       <c r="I446" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J446" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A447" s="1" t="s">
         <v>192</v>
       </c>
@@ -17453,8 +18804,11 @@
       <c r="I447" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J447" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A448" s="1" t="s">
         <v>192</v>
       </c>
@@ -17482,8 +18836,11 @@
       <c r="I448" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J448" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A449" s="1" t="s">
         <v>188</v>
       </c>
@@ -17511,8 +18868,11 @@
       <c r="I449" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J449" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A450" s="1" t="s">
         <v>188</v>
       </c>
@@ -17540,8 +18900,11 @@
       <c r="I450" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J450" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A451" s="1" t="s">
         <v>188</v>
       </c>
@@ -17569,8 +18932,11 @@
       <c r="I451" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J451" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A452" s="1" t="s">
         <v>138</v>
       </c>
@@ -17598,8 +18964,11 @@
       <c r="I452" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J452" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A453" s="1" t="s">
         <v>138</v>
       </c>
@@ -17627,8 +18996,11 @@
       <c r="I453" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J453" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A454" s="1" t="s">
         <v>138</v>
       </c>
@@ -17656,8 +19028,11 @@
       <c r="I454" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J454" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A455" s="1" t="s">
         <v>896</v>
       </c>
@@ -17685,8 +19060,11 @@
       <c r="I455" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J455" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A456" s="1" t="s">
         <v>896</v>
       </c>
@@ -17714,8 +19092,11 @@
       <c r="I456" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J456" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A457" s="1" t="s">
         <v>896</v>
       </c>
@@ -17743,8 +19124,11 @@
       <c r="I457" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J457" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A458" s="1" t="s">
         <v>192</v>
       </c>
@@ -17772,8 +19156,11 @@
       <c r="I458" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J458" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A459" s="1" t="s">
         <v>192</v>
       </c>
@@ -17801,8 +19188,11 @@
       <c r="I459" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J459" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A460" s="1" t="s">
         <v>138</v>
       </c>
@@ -17830,8 +19220,11 @@
       <c r="I460" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J460" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A461" s="1" t="s">
         <v>138</v>
       </c>
@@ -17859,8 +19252,11 @@
       <c r="I461" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J461" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A462" s="1" t="s">
         <v>907</v>
       </c>
@@ -17888,8 +19284,11 @@
       <c r="I462" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J462" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A463" s="1" t="s">
         <v>907</v>
       </c>
@@ -17917,8 +19316,11 @@
       <c r="I463" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J463" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A464" s="1" t="s">
         <v>906</v>
       </c>
@@ -17946,8 +19348,11 @@
       <c r="I464" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J464" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A465" s="1" t="s">
         <v>906</v>
       </c>
@@ -17975,8 +19380,11 @@
       <c r="I465" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J465" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A466" s="1" t="s">
         <v>906</v>
       </c>
@@ -18004,8 +19412,11 @@
       <c r="I466" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J466" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A467" s="1" t="s">
         <v>907</v>
       </c>
@@ -18033,8 +19444,11 @@
       <c r="I467" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J467" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A468" s="1" t="s">
         <v>915</v>
       </c>
@@ -18062,8 +19476,11 @@
       <c r="I468" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J468" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A469" s="1" t="s">
         <v>918</v>
       </c>
@@ -18091,8 +19508,11 @@
       <c r="I469" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J469" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A470" s="1" t="s">
         <v>925</v>
       </c>
@@ -18120,8 +19540,11 @@
       <c r="I470" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J470" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A471" s="1" t="s">
         <v>925</v>
       </c>
@@ -18149,8 +19572,11 @@
       <c r="I471" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J471" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A472" s="1" t="s">
         <v>923</v>
       </c>
@@ -18178,8 +19604,11 @@
       <c r="I472" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J472" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A473" s="1" t="s">
         <v>929</v>
       </c>
@@ -18207,8 +19636,11 @@
       <c r="I473" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J473" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A474" s="1" t="s">
         <v>929</v>
       </c>
@@ -18236,8 +19668,11 @@
       <c r="I474" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J474" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A475" s="1" t="s">
         <v>928</v>
       </c>
@@ -18265,8 +19700,11 @@
       <c r="I475" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J475" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A476" s="1" t="s">
         <v>928</v>
       </c>
@@ -18294,8 +19732,11 @@
       <c r="I476" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J476" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A477" s="1" t="s">
         <v>928</v>
       </c>
@@ -18323,8 +19764,11 @@
       <c r="I477" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J477" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A478" s="1" t="s">
         <v>937</v>
       </c>
@@ -18352,8 +19796,11 @@
       <c r="I478" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J478" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A479" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18381,8 +19828,11 @@
       <c r="I479" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J479" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A480" s="1" t="s">
         <v>1052</v>
       </c>
@@ -18410,8 +19860,11 @@
       <c r="I480" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J480" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A481" s="1" t="s">
         <v>1051</v>
       </c>
@@ -18439,8 +19892,11 @@
       <c r="I481" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J481" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A482" s="1" t="s">
         <v>945</v>
       </c>
@@ -18468,8 +19924,11 @@
       <c r="I482" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J482" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A483" s="1" t="s">
         <v>945</v>
       </c>
@@ -18497,8 +19956,11 @@
       <c r="I483" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J483" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A484" s="1" t="s">
         <v>944</v>
       </c>
@@ -18526,8 +19988,11 @@
       <c r="I484" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J484" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A485" s="1" t="s">
         <v>944</v>
       </c>
@@ -18555,8 +20020,11 @@
       <c r="I485" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J485" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A486" s="1" t="s">
         <v>959</v>
       </c>
@@ -18584,8 +20052,11 @@
       <c r="I486" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J486" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A487" s="1" t="s">
         <v>959</v>
       </c>
@@ -18613,8 +20084,11 @@
       <c r="I487" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J487" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A488" s="1" t="s">
         <v>958</v>
       </c>
@@ -18642,8 +20116,11 @@
       <c r="I488" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J488" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A489" s="1" t="s">
         <v>959</v>
       </c>
@@ -18671,8 +20148,11 @@
       <c r="I489" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J489" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A490" s="1" t="s">
         <v>958</v>
       </c>
@@ -18700,8 +20180,11 @@
       <c r="I490" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J490" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A491" s="1" t="s">
         <v>958</v>
       </c>
@@ -18729,8 +20212,11 @@
       <c r="I491" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J491" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A492" s="1" t="s">
         <v>958</v>
       </c>
@@ -18758,8 +20244,11 @@
       <c r="I492" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J492" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A493" s="1" t="s">
         <v>958</v>
       </c>
@@ -18787,8 +20276,11 @@
       <c r="I493" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J493" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A494" s="1" t="s">
         <v>958</v>
       </c>
@@ -18816,8 +20308,11 @@
       <c r="I494" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J494" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A495" s="1" t="s">
         <v>958</v>
       </c>
@@ -18845,8 +20340,11 @@
       <c r="I495" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J495" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A496" s="1" t="s">
         <v>969</v>
       </c>
@@ -18874,8 +20372,11 @@
       <c r="I496" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J496" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A497" s="1" t="s">
         <v>969</v>
       </c>
@@ -18903,8 +20404,11 @@
       <c r="I497" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J497" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A498" s="1" t="s">
         <v>968</v>
       </c>
@@ -18932,8 +20436,11 @@
       <c r="I498" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J498" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A499" s="1" t="s">
         <v>968</v>
       </c>
@@ -18961,8 +20468,11 @@
       <c r="I499" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J499" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A500" s="1" t="s">
         <v>968</v>
       </c>
@@ -18990,8 +20500,11 @@
       <c r="I500" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J500" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A501" s="1" t="s">
         <v>968</v>
       </c>
@@ -19019,8 +20532,11 @@
       <c r="I501" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J501" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A502" s="1" t="s">
         <v>968</v>
       </c>
@@ -19048,8 +20564,11 @@
       <c r="I502" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J502" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A503" s="1" t="s">
         <v>968</v>
       </c>
@@ -19077,8 +20596,11 @@
       <c r="I503" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J503" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A504" s="1" t="s">
         <v>968</v>
       </c>
@@ -19106,8 +20628,11 @@
       <c r="I504" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J504" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A505" s="1" t="s">
         <v>995</v>
       </c>
@@ -19135,8 +20660,11 @@
       <c r="I505" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J505" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A506" s="1" t="s">
         <v>995</v>
       </c>
@@ -19164,8 +20692,11 @@
       <c r="I506" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J506" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A507" s="1" t="s">
         <v>994</v>
       </c>
@@ -19193,8 +20724,11 @@
       <c r="I507" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J507" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A508" s="1" t="s">
         <v>994</v>
       </c>
@@ -19222,8 +20756,11 @@
       <c r="I508" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J508" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A509" s="1" t="s">
         <v>994</v>
       </c>
@@ -19251,8 +20788,11 @@
       <c r="I509" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J509" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A510" s="1" t="s">
         <v>994</v>
       </c>
@@ -19280,8 +20820,11 @@
       <c r="I510" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J510" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A511" s="1" t="s">
         <v>994</v>
       </c>
@@ -19309,8 +20852,11 @@
       <c r="I511" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J511" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A512" s="1" t="s">
         <v>994</v>
       </c>
@@ -19338,8 +20884,11 @@
       <c r="I512" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J512" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A513" s="1" t="s">
         <v>994</v>
       </c>
@@ -19367,8 +20916,11 @@
       <c r="I513" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J513" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A514" s="1" t="s">
         <v>994</v>
       </c>
@@ -19396,8 +20948,11 @@
       <c r="I514" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J514" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A515" s="1" t="s">
         <v>1003</v>
       </c>
@@ -19425,8 +20980,11 @@
       <c r="I515" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J515" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A516" s="1" t="s">
         <v>1003</v>
       </c>
@@ -19454,8 +21012,11 @@
       <c r="I516" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J516" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A517" s="1" t="s">
         <v>1002</v>
       </c>
@@ -19483,8 +21044,11 @@
       <c r="I517" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J517" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A518" s="1" t="s">
         <v>1002</v>
       </c>
@@ -19512,8 +21076,11 @@
       <c r="I518" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J518" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A519" s="1" t="s">
         <v>1002</v>
       </c>
@@ -19541,8 +21108,11 @@
       <c r="I519" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J519" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A520" s="1" t="s">
         <v>1009</v>
       </c>
@@ -19570,8 +21140,11 @@
       <c r="I520" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J520" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A521" s="1" t="s">
         <v>1009</v>
       </c>
@@ -19599,8 +21172,11 @@
       <c r="I521" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J521" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A522" s="1" t="s">
         <v>1008</v>
       </c>
@@ -19628,8 +21204,11 @@
       <c r="I522" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J522" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A523" s="1" t="s">
         <v>1008</v>
       </c>
@@ -19657,8 +21236,11 @@
       <c r="I523" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J523" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A524" s="1" t="s">
         <v>1008</v>
       </c>
@@ -19686,8 +21268,11 @@
       <c r="I524" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J524" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A525" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19715,8 +21300,11 @@
       <c r="I525" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J525" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A526" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19744,8 +21332,11 @@
       <c r="I526" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J526" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A527" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19773,8 +21364,11 @@
       <c r="I527" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J527" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A528" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19802,8 +21396,11 @@
       <c r="I528" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J528" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A529" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19831,8 +21428,11 @@
       <c r="I529" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J529" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A530" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19860,8 +21460,11 @@
       <c r="I530" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J530" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A531" s="1" t="s">
         <v>1017</v>
       </c>
@@ -19889,8 +21492,11 @@
       <c r="I531" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J531" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A532" s="1" t="s">
         <v>1025</v>
       </c>
@@ -19916,8 +21522,11 @@
       <c r="I532" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J532" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A533" s="1" t="s">
         <v>1026</v>
       </c>
@@ -19943,8 +21552,11 @@
       <c r="I533" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J533" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A534" s="1" t="s">
         <v>1027</v>
       </c>
@@ -19970,8 +21582,11 @@
       <c r="I534" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J534" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A535" s="1" t="s">
         <v>1028</v>
       </c>
@@ -19997,8 +21612,11 @@
       <c r="I535" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J535" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A536" s="1" t="s">
         <v>1029</v>
       </c>
@@ -20024,8 +21642,11 @@
       <c r="I536" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J536" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A537" s="1" t="s">
         <v>1030</v>
       </c>
@@ -20051,8 +21672,11 @@
       <c r="I537" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J537" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A538" s="1" t="s">
         <v>1031</v>
       </c>
@@ -20078,8 +21702,11 @@
       <c r="I538" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J538" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A539" s="1" t="s">
         <v>1032</v>
       </c>
@@ -20105,8 +21732,11 @@
       <c r="I539" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J539" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A540" s="1" t="s">
         <v>1033</v>
       </c>
@@ -20132,8 +21762,11 @@
       <c r="I540" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J540" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A541" s="1" t="s">
         <v>1034</v>
       </c>
@@ -20159,8 +21792,11 @@
       <c r="I541" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J541" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A542" s="1" t="s">
         <v>1035</v>
       </c>
@@ -20186,8 +21822,11 @@
       <c r="I542" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J542" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A543" s="1" t="s">
         <v>1036</v>
       </c>
@@ -20213,8 +21852,11 @@
       <c r="I543" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J543" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A544" s="1" t="s">
         <v>1037</v>
       </c>
@@ -20240,8 +21882,11 @@
       <c r="I544" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J544" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A545" s="1" t="s">
         <v>1038</v>
       </c>
@@ -20267,8 +21912,11 @@
       <c r="I545" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J545" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A546" s="1" t="s">
         <v>1039</v>
       </c>
@@ -20294,8 +21942,11 @@
       <c r="I546" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J546" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A547" s="1" t="s">
         <v>1040</v>
       </c>
@@ -20321,8 +21972,11 @@
       <c r="I547" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J547" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A548" s="1" t="s">
         <v>1041</v>
       </c>
@@ -20348,8 +22002,11 @@
       <c r="I548" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J548" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A549" s="1" t="s">
         <v>1042</v>
       </c>
@@ -20375,8 +22032,11 @@
       <c r="I549" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J549" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A550" s="1" t="s">
         <v>1043</v>
       </c>
@@ -20402,8 +22062,11 @@
       <c r="I550" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J550" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A551" s="1" t="s">
         <v>1044</v>
       </c>
@@ -20429,8 +22092,11 @@
       <c r="I551" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J551" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A552" s="1" t="s">
         <v>1045</v>
       </c>
@@ -20456,8 +22122,11 @@
       <c r="I552" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J552" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A553" s="1" t="s">
         <v>1046</v>
       </c>
@@ -20483,8 +22152,11 @@
       <c r="I553" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J553" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A554" s="1" t="s">
         <v>1053</v>
       </c>
@@ -20510,8 +22182,11 @@
       <c r="I554" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J554" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A555" s="1" t="s">
         <v>1047</v>
       </c>
@@ -20537,8 +22212,11 @@
       <c r="I555" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J555" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A556" s="1" t="s">
         <v>1102</v>
       </c>
@@ -20564,8 +22242,11 @@
       <c r="I556" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J556" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A557" s="1" t="s">
         <v>1048</v>
       </c>
@@ -20591,8 +22272,11 @@
       <c r="I557" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J557" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A558" s="1" t="s">
         <v>1049</v>
       </c>
@@ -20618,8 +22302,11 @@
       <c r="I558" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J558" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A559" s="1" t="s">
         <v>1050</v>
       </c>
@@ -20645,8 +22332,11 @@
       <c r="I559" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J559" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A560" s="1" t="s">
         <v>1054</v>
       </c>
@@ -20672,8 +22362,11 @@
       <c r="I560" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J560" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A561" s="1" t="s">
         <v>1055</v>
       </c>
@@ -20699,8 +22392,11 @@
       <c r="I561" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J561" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A562" s="1" t="s">
         <v>1056</v>
       </c>
@@ -20726,8 +22422,11 @@
       <c r="I562" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J562" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A563" s="1" t="s">
         <v>1057</v>
       </c>
@@ -20753,8 +22452,11 @@
       <c r="I563" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J563" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A564" s="1" t="s">
         <v>1058</v>
       </c>
@@ -20780,8 +22482,11 @@
       <c r="I564" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J564" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A565" s="1" t="s">
         <v>1059</v>
       </c>
@@ -20807,8 +22512,11 @@
       <c r="I565" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J565" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A566" s="1" t="s">
         <v>1060</v>
       </c>
@@ -20834,8 +22542,11 @@
       <c r="I566" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J566" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A567" s="1" t="s">
         <v>1061</v>
       </c>
@@ -20861,8 +22572,11 @@
       <c r="I567" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J567" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A568" s="1" t="s">
         <v>1062</v>
       </c>
@@ -20888,8 +22602,11 @@
       <c r="I568" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J568" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A569" s="1" t="s">
         <v>1062</v>
       </c>
@@ -20915,8 +22632,11 @@
       <c r="I569" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J569" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A570" s="1" t="s">
         <v>1063</v>
       </c>
@@ -20942,8 +22662,11 @@
       <c r="I570" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J570" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A571" s="1" t="s">
         <v>1064</v>
       </c>
@@ -20969,8 +22692,11 @@
       <c r="I571" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J571" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A572" s="1" t="s">
         <v>1065</v>
       </c>
@@ -20996,8 +22722,11 @@
       <c r="I572" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J572" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A573" s="1" t="s">
         <v>1067</v>
       </c>
@@ -21023,8 +22752,11 @@
       <c r="I573" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J573" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A574" s="1" t="s">
         <v>1068</v>
       </c>
@@ -21050,8 +22782,11 @@
       <c r="I574" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J574" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A575" s="1" t="s">
         <v>1069</v>
       </c>
@@ -21077,8 +22812,11 @@
       <c r="I575" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J575" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A576" s="1" t="s">
         <v>1066</v>
       </c>
@@ -21104,8 +22842,11 @@
       <c r="I576" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J576" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A577" s="1" t="s">
         <v>1070</v>
       </c>
@@ -21131,8 +22872,11 @@
       <c r="I577" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J577" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A578" s="1" t="s">
         <v>1070</v>
       </c>
@@ -21158,8 +22902,11 @@
       <c r="I578" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J578" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A579" s="1" t="s">
         <v>1071</v>
       </c>
@@ -21185,8 +22932,11 @@
       <c r="I579" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J579" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A580" s="1" t="s">
         <v>1124</v>
       </c>
@@ -21214,8 +22964,11 @@
       <c r="I580" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J580" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A581" s="1" t="s">
         <v>1124</v>
       </c>
@@ -21243,8 +22996,11 @@
       <c r="I581" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J581" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A582" s="1" t="s">
         <v>1123</v>
       </c>
@@ -21272,8 +23028,11 @@
       <c r="I582" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J582" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A583" s="1" t="s">
         <v>1123</v>
       </c>
@@ -21301,8 +23060,11 @@
       <c r="I583" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J583" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A584" s="1" t="s">
         <v>1123</v>
       </c>
@@ -21330,8 +23092,11 @@
       <c r="I584" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J584" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A585" s="1" t="s">
         <v>1123</v>
       </c>
@@ -21359,8 +23124,11 @@
       <c r="I585" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J585" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A586" s="1" t="s">
         <v>40</v>
       </c>
@@ -21386,8 +23154,11 @@
       <c r="I586" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J586" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A587" s="1" t="s">
         <v>40</v>
       </c>
@@ -21412,6 +23183,9 @@
       </c>
       <c r="I587" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="J587" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC8CC2E-7AFA-4AEB-9B51-4FDD89037527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2062AF33-2978-4667-AEE4-095AD231C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4633" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4668" uniqueCount="1147">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4068,6 +4068,70 @@
   </si>
   <si>
     <t>search_count</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チヂレ 雷雪</t>
+    <rPh sb="4" eb="5">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白鯨</t>
+    <rPh sb="0" eb="2">
+      <t>ハクゲイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンサー Cancer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5918.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5917.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5915.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5914.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5913.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BEAT GARDEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_beat_garden_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n.plants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N PLANTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ子株</t>
+    <rPh sb="4" eb="6">
+      <t>コカブ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4159,7 +4223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4180,6 +4244,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4515,10 +4582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:J587"/>
+  <dimension ref="A1:J592"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
+      <selection activeCell="I594" sqref="I594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23188,6 +23255,156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="588" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A588" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B588" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C588" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E588" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F588" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G588" s="1"/>
+      <c r="H588" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I588" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J588" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A589" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B589" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C589" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E589" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F589" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G589" s="1"/>
+      <c r="H589" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="I589" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J589" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A590" s="7" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B590" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C590" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E590" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F590" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G590" s="1"/>
+      <c r="H590" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I590" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J590" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A591" s="7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B591" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C591" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E591" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F591" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G591" s="1"/>
+      <c r="H591" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I591" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J591" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A592" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B592" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C592" s="7" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E592" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F592" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G592" s="1"/>
+      <c r="H592" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I592" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J592" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H279" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}"/>
   <phoneticPr fontId="1"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2062AF33-2978-4667-AEE4-095AD231C8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180A1D8-1DC9-4A7A-9E61-83DD43C58D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4668" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="1219">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4132,6 +4132,259 @@
     <rPh sb="4" eb="6">
       <t>コカブ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ KPG-005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5918.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5919.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5984.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5985.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5986.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5987.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5988.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5989.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5990.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5991.avif</t>
+  </si>
+  <si>
+    <t>reza</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C8UkEc5IW6r</t>
+  </si>
+  <si>
+    <t>C8UkEc5IW6r</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C5EWVPjLLKb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5992.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5993.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5994.avif</t>
+  </si>
+  <si>
+    <t>C0l7d0uIpHg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メガロドン MEGA LODON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5995.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5996.avif</t>
+  </si>
+  <si>
+    <t>Cx4wgPCOzYa</t>
+  </si>
+  <si>
+    <t>Cx4wgPCOzYa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴンクロー DRAGON CLAW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5997.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5998.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5999.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6002.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6003.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6004.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6001.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6005.avif</t>
+  </si>
+  <si>
+    <t>CSy0KFfMQEB</t>
+  </si>
+  <si>
+    <t>CSy0KFfMQEB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンス PRINCE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6006.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6007.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6008.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6009.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6010.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6011.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6012.avif</t>
+  </si>
+  <si>
+    <t>C1J8RnhrYrr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ 岩山龍</t>
+    <rPh sb="5" eb="6">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヤマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リョーガ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ryogabc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ruinosuke.zzz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オアハカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6017.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6018.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6019.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6020.avif</t>
+  </si>
+  <si>
+    <t>C5BP_rVroN7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6021.avif</t>
+  </si>
+  <si>
+    <t>C2Ph-dSrx7s</t>
+  </si>
+  <si>
+    <t>C2Ph-dSrx7s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6024.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6025.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6026.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6027.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6028.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6029.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6023.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンス PRINCE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6031.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6032.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6030.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e.aveking</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4223,7 +4476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4244,9 +4497,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4582,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:J592"/>
+  <dimension ref="A1:J637"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A574" workbookViewId="0">
-      <selection activeCell="I594" sqref="I594"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23256,26 +23506,26 @@
       </c>
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A588" s="7" t="s">
+      <c r="A588" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B588" s="7" t="s">
+      <c r="B588" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C588" s="7" t="s">
+      <c r="C588" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="E588" s="7" t="s">
+      <c r="E588" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F588" s="7" t="s">
+      <c r="F588" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G588" s="1"/>
-      <c r="H588" s="7" t="s">
+      <c r="H588" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="I588" s="1" t="b">
@@ -23286,26 +23536,26 @@
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A589" s="7" t="s">
+      <c r="A589" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B589" s="7" t="s">
+      <c r="B589" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C589" s="7" t="s">
+      <c r="C589" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="E589" s="7" t="s">
+      <c r="E589" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F589" s="7" t="s">
+      <c r="F589" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G589" s="1"/>
-      <c r="H589" s="7" t="s">
+      <c r="H589" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="I589" s="1" t="b">
@@ -23316,26 +23566,26 @@
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A590" s="7" t="s">
+      <c r="A590" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B590" s="7" t="s">
+      <c r="B590" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C590" s="7" t="s">
+      <c r="C590" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="E590" s="7" t="s">
+      <c r="E590" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="F590" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="G590" s="1"/>
-      <c r="H590" s="7" t="s">
+      <c r="H590" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I590" s="1" t="b">
@@ -23346,26 +23596,26 @@
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A591" s="7" t="s">
+      <c r="A591" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B591" s="7" t="s">
+      <c r="B591" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C591" s="7" t="s">
+      <c r="C591" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="E591" s="7" t="s">
+      <c r="E591" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="G591" s="1"/>
-      <c r="H591" s="7" t="s">
+      <c r="H591" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I591" s="1" t="b">
@@ -23376,32 +23626,1456 @@
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A592" s="7" t="s">
+      <c r="A592" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="B592" s="7" t="s">
+      <c r="B592" s="1" t="s">
         <v>1142</v>
       </c>
-      <c r="C592" s="7" t="s">
+      <c r="C592" s="1" t="s">
         <v>1143</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="E592" s="7" t="s">
+      <c r="E592" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>1144</v>
       </c>
       <c r="G592" s="1"/>
-      <c r="H592" s="7" t="s">
+      <c r="H592" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I592" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J592" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A593" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F593" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G593" s="1"/>
+      <c r="H593" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I593" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J593" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A594" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F594" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G594" s="1"/>
+      <c r="H594" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I594" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J594" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A595" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I595" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J595" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A596" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I596" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J596" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A597" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D597" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I597" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J597" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A598" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I598" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J598" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A599" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I599" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J599" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A600" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F600" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I600" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J600" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A601" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I601" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J601" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A602" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I602" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J602" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A603" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I603" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J603" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A604" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I604" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J604" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A605" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I605" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J605" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A606" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F606" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I606" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J606" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A607" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I607" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J607" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A608" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I608" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J608" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A609" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I609" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J609" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A610" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I610" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J610" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A611" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I611" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J611" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A612" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I612" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J612" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A613" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I613" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J613" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A614" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I614" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J614" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A615" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I615" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J615" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A616" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I616" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J616" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A617" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D617" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I617" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J617" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A618" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D618" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I618" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J618" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A619" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D619" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I619" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J619" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A620" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D620" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F620" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G620" s="1"/>
+      <c r="H620" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I620" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J620" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A621" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F621" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G621" s="1"/>
+      <c r="H621" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I621" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J621" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A622" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F622" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G622" s="1"/>
+      <c r="H622" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I622" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J622" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A623" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F623" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I623" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J623" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A624" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F624" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I624" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J624" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A625" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F625" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I625" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J625" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A626" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F626" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I626" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J626" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A627" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F627" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I627" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J627" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A628" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F628" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I628" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J628" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A629" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F629" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I629" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J629" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A630" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F630" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I630" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J630" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A631" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F631" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I631" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J631" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A632" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F632" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I632" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J632" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A633" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D633" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F633" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I633" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J633" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A634" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D634" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F634" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I634" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J634" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A635" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D635" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F635" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G635" s="1"/>
+      <c r="H635" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I635" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J635" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A636" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D636" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F636" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G636" s="1"/>
+      <c r="H636" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I636" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J636" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A637" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F637" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G637" s="1"/>
+      <c r="H637" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I637" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J637" s="5">
         <v>0</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0180A1D8-1DC9-4A7A-9E61-83DD43C58D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C14F439-E4F4-42E2-917E-1B3802D9D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5020" uniqueCount="1219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5204" uniqueCount="1269">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4386,6 +4386,183 @@
   <si>
     <t>e.aveking</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C5RE67dLFnu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CJ Special</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まさ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>masa35masa</t>
+  </si>
+  <si>
+    <t>masa35masa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョニーのアガベ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>johnny_no_agave</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6033.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6034.avif</t>
+  </si>
+  <si>
+    <t>DGI5jWmzMsS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲蟹 × 滝乃白絲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AgaveLives</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>agavelives</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイブリッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6035.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6036.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6037.avif</t>
+  </si>
+  <si>
+    <t>DFxxghJzUMZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6043.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6044.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6045.avif</t>
+  </si>
+  <si>
+    <t>Yタロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kitokito_plants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DF9hkapzXxr</t>
+  </si>
+  <si>
+    <t>DF9hkapzXxr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6038.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6039.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6040.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6041.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6042.avif</t>
+  </si>
+  <si>
+    <t>DFerbVXzQTS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6046.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6047.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6048.avif</t>
+  </si>
+  <si>
+    <t>DFnd9QZyoWu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋸鱏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6049.avif</t>
+  </si>
+  <si>
+    <t>AM.plants.z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am.plants.z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DF-bxERzJxO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6050.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6051.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6052.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6053.avif</t>
+  </si>
+  <si>
+    <t>亞牙部スキオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dagaya_suk76</t>
+  </si>
+  <si>
+    <t>dagaya_suk76</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DE0-ifizzGG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6054.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6055.avif</t>
   </si>
 </sst>
 </file>
@@ -4476,7 +4653,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4497,6 +4674,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4832,11 +5012,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:J637"/>
+  <dimension ref="A1:J660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -25079,6 +25257,742 @@
         <v>0</v>
       </c>
     </row>
+    <row r="638" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A638" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B638" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C638" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E638" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F638" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H638" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I638" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J638" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A639" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E639" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F639" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H639" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I639" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J639" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A640" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B640" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C640" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E640" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F640" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H640" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I640" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J640" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A641" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E641" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F641" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H641" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I641" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J641" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A642" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B642" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C642" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E642" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F642" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H642" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="I642" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J642" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A643" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C643" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E643" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F643" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H643" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I643" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J643" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A644" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B644" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C644" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E644" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F644" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H644" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I644" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J644" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A645" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E645" s="7" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F645" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H645" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I645" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J645" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A646" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B646" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C646" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E646" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F646" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H646" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I646" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J646" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A647" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E647" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F647" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H647" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I647" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J647" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A648" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B648" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C648" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D648" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E648" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F648" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H648" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I648" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J648" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A649" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E649" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F649" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H649" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I649" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J649" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A650" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B650" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E650" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F650" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H650" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I650" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J650" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A651" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B651" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E651" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F651" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H651" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I651" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J651" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A652" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B652" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E652" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F652" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H652" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I652" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J652" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A653" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B653" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E653" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F653" s="7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H653" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I653" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J653" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A654" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B654" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E654" s="7" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F654" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H654" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I654" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J654" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A655" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E655" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F655" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H655" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I655" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J655" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A656" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B656" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C656" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E656" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F656" s="7" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H656" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I656" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J656" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A657" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E657" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F657" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H657" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I657" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J657" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A658" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B658" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C658" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E658" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F658" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H658" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I658" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J658" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A659" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C659" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D659" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E659" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F659" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H659" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I659" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J659" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A660" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B660" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C660" s="7" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E660" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F660" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H660" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I660" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J660" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H279" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}"/>
   <phoneticPr fontId="1"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C14F439-E4F4-42E2-917E-1B3802D9D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118E5153-929C-4AE2-925D-16FF1F1078FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -4143,12 +4143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>images/IMG_5918.avif</t>
-  </si>
-  <si>
-    <t>images/IMG_5919.avif</t>
-  </si>
-  <si>
     <t>images/IMG_5984.avif</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4563,6 +4557,14 @@
   </si>
   <si>
     <t>images/IMG_6055.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_5919.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_5920.avif</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4653,7 +4655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4674,9 +4676,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5014,7 +5013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
   <dimension ref="A1:J660"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="D595" sqref="D595"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -23844,7 +23845,7 @@
         <v>1143</v>
       </c>
       <c r="D593" s="1" t="s">
-        <v>1149</v>
+        <v>1267</v>
       </c>
       <c r="E593" s="1" t="s">
         <v>1145</v>
@@ -23874,7 +23875,7 @@
         <v>1143</v>
       </c>
       <c r="D594" s="1" t="s">
-        <v>1150</v>
+        <v>1268</v>
       </c>
       <c r="E594" s="1" t="s">
         <v>79</v>
@@ -23898,22 +23899,22 @@
         <v>60</v>
       </c>
       <c r="B595" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D595" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G595" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="C595" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D595" s="1" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E595" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F595" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G595" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="H595" s="1" t="s">
         <v>49</v>
@@ -23930,22 +23931,22 @@
         <v>60</v>
       </c>
       <c r="B596" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D596" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G596" s="1" t="s">
         <v>1159</v>
-      </c>
-      <c r="C596" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D596" s="1" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E596" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F596" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G596" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="H596" s="1" t="s">
         <v>49</v>
@@ -23962,22 +23963,22 @@
         <v>60</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C597" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D597" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F597" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H597" s="1" t="s">
         <v>49</v>
@@ -23994,22 +23995,22 @@
         <v>60</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C598" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D598" s="1" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H598" s="1" t="s">
         <v>49</v>
@@ -24026,22 +24027,22 @@
         <v>60</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D599" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F599" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H599" s="1" t="s">
         <v>49</v>
@@ -24058,22 +24059,22 @@
         <v>60</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D600" s="1" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F600" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H600" s="1" t="s">
         <v>49</v>
@@ -24090,22 +24091,22 @@
         <v>60</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D601" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E601" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="E601" s="1" t="s">
-        <v>1159</v>
-      </c>
       <c r="F601" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H601" s="1" t="s">
         <v>49</v>
@@ -24122,22 +24123,22 @@
         <v>60</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D602" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G602" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="E602" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F602" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G602" s="1" t="s">
-        <v>1160</v>
       </c>
       <c r="H602" s="1" t="s">
         <v>49</v>
@@ -24154,22 +24155,22 @@
         <v>60</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C603" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H603" s="1" t="s">
         <v>49</v>
@@ -24186,22 +24187,22 @@
         <v>60</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D604" s="1" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H604" s="1" t="s">
         <v>49</v>
@@ -24218,22 +24219,22 @@
         <v>60</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C605" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D605" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F605" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H605" s="1" t="s">
         <v>49</v>
@@ -24247,25 +24248,25 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A606" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B606" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C606" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D606" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F606" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H606" s="1" t="s">
         <v>49</v>
@@ -24279,25 +24280,25 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A607" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D607" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B607" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D607" s="1" t="s">
-        <v>1169</v>
-      </c>
       <c r="E607" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F607" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H607" s="1" t="s">
         <v>49</v>
@@ -24311,25 +24312,25 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A608" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D608" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H608" s="1" t="s">
         <v>49</v>
@@ -24343,25 +24344,25 @@
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A609" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D609" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="B609" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D609" s="1" t="s">
-        <v>1174</v>
-      </c>
       <c r="E609" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F609" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H609" s="1" t="s">
         <v>49</v>
@@ -24375,25 +24376,25 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A610" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D610" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H610" s="1" t="s">
         <v>49</v>
@@ -24407,25 +24408,25 @@
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A611" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D611" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="E611" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F611" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G611" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H611" s="1" t="s">
         <v>49</v>
@@ -24439,25 +24440,25 @@
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A612" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D612" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="E612" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F612" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G612" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H612" s="1" t="s">
         <v>49</v>
@@ -24471,25 +24472,25 @@
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A613" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D613" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="E613" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F613" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G613" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H613" s="1" t="s">
         <v>49</v>
@@ -24503,25 +24504,25 @@
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A614" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D614" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F614" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G614" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H614" s="1" t="s">
         <v>49</v>
@@ -24535,25 +24536,25 @@
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A615" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D615" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="E615" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F615" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G615" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H615" s="1" t="s">
         <v>49</v>
@@ -24567,25 +24568,25 @@
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A616" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D616" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F616" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G616" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H616" s="1" t="s">
         <v>49</v>
@@ -24599,25 +24600,25 @@
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A617" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D617" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B617" s="1" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C617" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D617" s="1" t="s">
-        <v>1185</v>
-      </c>
       <c r="E617" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F617" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G617" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="H617" s="1" t="s">
         <v>49</v>
@@ -24631,25 +24632,25 @@
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A618" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D618" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="E618" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F618" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G618" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H618" s="1" t="s">
         <v>49</v>
@@ -24663,25 +24664,25 @@
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A619" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D619" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="E619" s="1" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F619" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G619" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H619" s="1" t="s">
         <v>49</v>
@@ -24704,7 +24705,7 @@
         <v>872</v>
       </c>
       <c r="D620" s="1" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="E620" s="1" t="s">
         <v>871</v>
@@ -24734,7 +24735,7 @@
         <v>872</v>
       </c>
       <c r="D621" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E621" s="1" t="s">
         <v>871</v>
@@ -24764,7 +24765,7 @@
         <v>872</v>
       </c>
       <c r="D622" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="E622" s="1" t="s">
         <v>871</v>
@@ -24785,28 +24786,28 @@
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A623" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C623" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B623" s="1" t="s">
+      <c r="D623" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E623" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C623" s="1" t="s">
+      <c r="F623" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D623" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="E623" s="1" t="s">
+      <c r="G623" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H623" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F623" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G623" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H623" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I623" s="1" t="b">
         <v>1</v>
@@ -24817,28 +24818,28 @@
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A624" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C624" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B624" s="1" t="s">
+      <c r="D624" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E624" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C624" s="1" t="s">
+      <c r="F624" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D624" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E624" s="1" t="s">
+      <c r="G624" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H624" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F624" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G624" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H624" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I624" s="1" t="b">
         <v>1</v>
@@ -24849,28 +24850,28 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A625" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C625" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B625" s="1" t="s">
+      <c r="D625" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E625" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C625" s="1" t="s">
+      <c r="F625" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D625" s="1" t="s">
-        <v>1200</v>
-      </c>
-      <c r="E625" s="1" t="s">
+      <c r="G625" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H625" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F625" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G625" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H625" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I625" s="1" t="b">
         <v>1</v>
@@ -24881,28 +24882,28 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A626" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C626" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B626" s="1" t="s">
+      <c r="D626" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E626" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C626" s="1" t="s">
+      <c r="F626" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D626" s="1" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E626" s="1" t="s">
+      <c r="G626" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="H626" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F626" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G626" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="H626" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I626" s="1" t="b">
         <v>1</v>
@@ -24913,28 +24914,28 @@
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A627" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C627" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B627" s="1" t="s">
+      <c r="D627" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E627" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C627" s="1" t="s">
+      <c r="F627" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D627" s="1" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E627" s="1" t="s">
+      <c r="G627" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H627" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F627" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G627" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="H627" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I627" s="1" t="b">
         <v>1</v>
@@ -24945,28 +24946,28 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A628" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C628" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B628" s="1" t="s">
+      <c r="D628" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E628" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C628" s="1" t="s">
+      <c r="F628" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D628" s="1" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E628" s="1" t="s">
+      <c r="G628" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H628" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F628" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G628" s="1" t="s">
-        <v>1202</v>
-      </c>
-      <c r="H628" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I628" s="1" t="b">
         <v>1</v>
@@ -24977,28 +24978,28 @@
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A629" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C629" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B629" s="1" t="s">
+      <c r="D629" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E629" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C629" s="1" t="s">
+      <c r="F629" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D629" s="1" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E629" s="1" t="s">
+      <c r="G629" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H629" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F629" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G629" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H629" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I629" s="1" t="b">
         <v>1</v>
@@ -25009,28 +25010,28 @@
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A630" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C630" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B630" s="1" t="s">
+      <c r="D630" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E630" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C630" s="1" t="s">
+      <c r="F630" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D630" s="1" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E630" s="1" t="s">
+      <c r="G630" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H630" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F630" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G630" s="1" t="s">
-        <v>1205</v>
-      </c>
-      <c r="H630" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I630" s="1" t="b">
         <v>1</v>
@@ -25041,28 +25042,28 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A631" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C631" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B631" s="1" t="s">
+      <c r="D631" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E631" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C631" s="1" t="s">
+      <c r="F631" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D631" s="1" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E631" s="1" t="s">
+      <c r="G631" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H631" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F631" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G631" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H631" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I631" s="1" t="b">
         <v>1</v>
@@ -25073,28 +25074,28 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A632" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C632" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B632" s="1" t="s">
+      <c r="D632" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E632" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C632" s="1" t="s">
+      <c r="F632" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D632" s="1" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E632" s="1" t="s">
+      <c r="G632" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H632" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F632" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G632" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H632" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I632" s="1" t="b">
         <v>1</v>
@@ -25105,28 +25106,28 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A633" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C633" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B633" s="1" t="s">
+      <c r="D633" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E633" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C633" s="1" t="s">
+      <c r="F633" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D633" s="1" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E633" s="1" t="s">
+      <c r="G633" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H633" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F633" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G633" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H633" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I633" s="1" t="b">
         <v>1</v>
@@ -25137,28 +25138,28 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A634" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C634" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="B634" s="1" t="s">
+      <c r="D634" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E634" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="C634" s="1" t="s">
+      <c r="F634" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="D634" s="1" t="s">
-        <v>1211</v>
-      </c>
-      <c r="E634" s="1" t="s">
+      <c r="G634" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H634" s="1" t="s">
         <v>1195</v>
-      </c>
-      <c r="F634" s="1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="G634" s="1" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H634" s="1" t="s">
-        <v>1197</v>
       </c>
       <c r="I634" s="1" t="b">
         <v>1</v>
@@ -25169,16 +25170,16 @@
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A635" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C635" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D635" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="E635" s="1" t="s">
         <v>46</v>
@@ -25199,16 +25200,16 @@
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A636" s="1" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C636" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="D636" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E636" s="1" t="s">
         <v>46</v>
@@ -25229,16 +25230,16 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A637" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D637" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D637" s="1" t="s">
-        <v>1215</v>
       </c>
       <c r="E637" s="1" t="s">
         <v>46</v>
@@ -25258,732 +25259,732 @@
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A638" s="7" t="s">
+      <c r="A638" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F638" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I638" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J638" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A639" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F639" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I639" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J639" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A640" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C640" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B638" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C638" s="7" t="s">
+      <c r="D640" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F640" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I640" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J640" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A641" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F641" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I641" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J641" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A642" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F642" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="I642" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J642" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A643" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F643" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I643" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J643" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A644" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F644" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I644" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J644" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A645" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F645" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I645" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J645" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A646" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F646" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D638" s="1" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E638" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F638" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G638" s="1" t="s">
+      <c r="G646" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I646" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J646" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A647" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B647" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="H638" s="7" t="s">
+      <c r="C647" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F647" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="H647" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I638" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J638" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A639" s="7" t="s">
+      <c r="I647" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J647" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A648" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C648" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B639" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C639" s="7" t="s">
+      <c r="D648" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F648" s="1" t="s">
         <v>1223</v>
       </c>
-      <c r="D639" s="1" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E639" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F639" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G639" s="1" t="s">
+      <c r="G648" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I648" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J648" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A649" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B649" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="H639" s="7" t="s">
+      <c r="C649" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D649" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F649" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H649" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I639" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J639" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A640" s="7" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B640" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C640" s="7" t="s">
+      <c r="I649" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J649" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A650" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D650" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E650" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="D640" s="1" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E640" s="7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F640" s="7" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G640" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H640" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I640" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J640" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A641" s="7" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B641" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C641" s="7" t="s">
+      <c r="F650" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I650" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J650" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A651" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D651" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E651" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="D641" s="1" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E641" s="7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F641" s="7" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G641" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H641" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I641" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J641" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A642" s="7" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B642" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C642" s="7" t="s">
+      <c r="F651" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I651" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J651" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A652" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E652" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="D642" s="1" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E642" s="7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F642" s="7" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G642" s="1" t="s">
-        <v>1228</v>
-      </c>
-      <c r="H642" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="I642" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J642" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A643" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B643" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C643" s="7" t="s">
+      <c r="F652" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I652" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J652" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A653" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E653" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="D643" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E643" s="7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F643" s="7" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G643" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H643" s="7" t="s">
+      <c r="F653" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I653" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J653" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A654" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F654" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H654" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="I643" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J643" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A644" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B644" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C644" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D644" s="1" t="s">
-        <v>1238</v>
-      </c>
-      <c r="E644" s="7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F644" s="7" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G644" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H644" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I644" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J644" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A645" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B645" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C645" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D645" s="1" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E645" s="7" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F645" s="7" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G645" s="1" t="s">
-        <v>1236</v>
-      </c>
-      <c r="H645" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I645" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J645" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A646" s="7" t="s">
+      <c r="I654" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J654" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A655" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C655" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B646" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C646" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D646" s="1" t="s">
-        <v>1244</v>
-      </c>
-      <c r="E646" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F646" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G646" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H646" s="7" t="s">
+      <c r="D655" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F655" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H655" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I646" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J646" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A647" s="7" t="s">
+      <c r="I655" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J655" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A656" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C656" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B647" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C647" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D647" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E647" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F647" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G647" s="1" t="s">
-        <v>1243</v>
-      </c>
-      <c r="H647" s="7" t="s">
+      <c r="D656" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F656" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H656" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I647" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J647" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A648" s="7" t="s">
+      <c r="I656" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J656" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A657" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C657" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B648" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C648" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D648" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="E648" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F648" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G648" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H648" s="7" t="s">
+      <c r="D657" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F657" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H657" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I648" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J648" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A649" s="7" t="s">
+      <c r="I657" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J657" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A658" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C658" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B649" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C649" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D649" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E649" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F649" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G649" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H649" s="7" t="s">
+      <c r="D658" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F658" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H658" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I649" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J649" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A650" s="7" t="s">
+      <c r="I658" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J658" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A659" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C659" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B650" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C650" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D650" s="1" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E650" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F650" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G650" s="1" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H650" s="7" t="s">
+      <c r="D659" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F659" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="H659" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I650" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J650" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A651" s="7" t="s">
+      <c r="I659" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J659" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A660" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C660" s="1" t="s">
         <v>1220</v>
       </c>
-      <c r="B651" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C651" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D651" s="1" t="s">
-        <v>1250</v>
-      </c>
-      <c r="E651" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F651" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G651" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H651" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I651" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J651" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A652" s="7" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B652" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C652" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D652" s="1" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E652" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F652" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G652" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H652" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I652" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J652" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A653" s="7" t="s">
-        <v>1220</v>
-      </c>
-      <c r="B653" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C653" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D653" s="1" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E653" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F653" s="7" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G653" s="1" t="s">
-        <v>1249</v>
-      </c>
-      <c r="H653" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I653" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J653" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A654" s="7" t="s">
-        <v>1254</v>
-      </c>
-      <c r="B654" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C654" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D654" s="1" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E654" s="7" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F654" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G654" s="1" t="s">
-        <v>1253</v>
-      </c>
-      <c r="H654" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I654" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J654" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A655" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B655" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C655" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D655" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E655" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F655" s="7" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G655" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H655" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I655" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J655" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A656" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B656" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C656" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D656" s="1" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E656" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F656" s="7" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G656" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H656" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I656" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J656" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A657" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B657" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C657" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D657" s="1" t="s">
+      <c r="D660" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E660" s="1" t="s">
         <v>1261</v>
       </c>
-      <c r="E657" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F657" s="7" t="s">
+      <c r="F660" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G660" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="G657" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H657" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I657" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J657" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A658" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B658" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C658" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D658" s="1" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E658" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F658" s="7" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G658" s="1" t="s">
-        <v>1258</v>
-      </c>
-      <c r="H658" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I658" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J658" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A659" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B659" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C659" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D659" s="1" t="s">
-        <v>1267</v>
-      </c>
-      <c r="E659" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F659" s="7" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G659" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H659" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="I659" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J659" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A660" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B660" s="7" t="s">
-        <v>1221</v>
-      </c>
-      <c r="C660" s="7" t="s">
-        <v>1222</v>
-      </c>
-      <c r="D660" s="1" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E660" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="F660" s="7" t="s">
-        <v>1264</v>
-      </c>
-      <c r="G660" s="1" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H660" s="7" t="s">
+      <c r="H660" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I660" s="1" t="b">

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4998AB-6C9A-4184-BEB4-123D37225232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3D036-1D66-4A14-A501-703C8C2F7B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5203" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5318" uniqueCount="1298">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4560,6 +4560,128 @@
   </si>
   <si>
     <t>images/IMG_5920.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィリグリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C8EafWfvZxK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6059.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6060.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6061.avif</t>
+  </si>
+  <si>
+    <t>DF-RLhIT21B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金剛</t>
+    <rPh sb="0" eb="2">
+      <t>コンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shhhhun999</t>
+  </si>
+  <si>
+    <t>shhhhun999</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shun9991209</t>
+  </si>
+  <si>
+    <t>shun9991209</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6085.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6086.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6087.avif</t>
+  </si>
+  <si>
+    <t>冰雹</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDgHztJTkxy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6088.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6089.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6090.avif</t>
+  </si>
+  <si>
+    <t>DDSG0fszhIs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6091.avif</t>
+  </si>
+  <si>
+    <t>syokubutsu_fuzoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BB×藍楔子</t>
+    <rPh sb="3" eb="4">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クサビ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6092.avif</t>
+  </si>
+  <si>
+    <t>毒液</t>
+    <rPh sb="0" eb="2">
+      <t>ドクエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6093.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6094.avif</t>
+  </si>
+  <si>
+    <t>シャークソード 鯊魚剣</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6095.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6096.avif</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4651,7 +4773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4665,6 +4787,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5001,9 +5126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I660"/>
+  <dimension ref="A1:I675"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
+      <selection activeCell="G676" sqref="G676"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -24001,6 +24128,431 @@
         <v>1</v>
       </c>
     </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A661" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B661" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C661" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D661" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E661" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F661" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G661" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H661" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I661" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A662" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B662" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C662" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D662" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E662" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F662" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G662" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H662" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I662" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A663" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E663" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F663" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G663" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H663" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I663" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A664" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B664" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C664" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E664" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F664" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G664" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H664" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I664" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A665" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B665" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C665" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E665" s="5" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F665" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G665" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H665" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I665" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A666" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B666" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C666" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D666" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E666" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G666" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H666" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I666" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A667" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B667" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C667" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D667" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E667" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F667" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G667" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H667" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I667" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A668" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B668" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C668" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D668" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E668" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F668" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G668" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H668" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I668" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A669" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B669" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C669" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D669" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E669" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F669" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G669" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H669" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I669" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A670" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B670" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C670" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E670" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F670" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G670" s="5" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H670" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I670" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A671" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B671" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C671" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D671" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E671" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="F671" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="G671" s="1"/>
+      <c r="H671" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="I671" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A672" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B672" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C672" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D672" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E672" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="F672" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G672" s="1"/>
+      <c r="H672" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I672" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A673" s="5" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B673" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C673" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D673" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E673" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="F673" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G673" s="1"/>
+      <c r="H673" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I673" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A674" s="5" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B674" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C674" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D674" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E674" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="F674" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G674" s="1"/>
+      <c r="H674" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I674" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A675" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B675" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="C675" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D675" s="5" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E675" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="F675" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G675" s="1"/>
+      <c r="H675" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I675" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H279" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}"/>
   <phoneticPr fontId="1"/>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B3D036-1D66-4A14-A501-703C8C2F7B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8CCA25-3F44-4699-AF01-4140C1F01891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5318" uniqueCount="1298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5490" uniqueCount="1339">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4684,12 +4684,169 @@
     <t>images/IMG_6096.avif</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ワニガメ 鰐亀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6097.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6098.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6099.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6100.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6101.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6102.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔丸</t>
+    <rPh sb="0" eb="2">
+      <t>ママル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6103.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6104.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6105.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6106.avif</t>
+  </si>
+  <si>
+    <t>ホリダ 黄中斑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホリダ 覆輪斑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホリダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホリダペロテンシス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6108.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6109.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6110.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6111.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6112.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6113.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6114.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6107.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>🄬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>_r_.plants</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福園藝</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fukuengei_japan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>津屋崎ﾃﾗｽ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tsuyazaki_terrace</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DFgrYPWTuPU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪魔</t>
+    <rPh sb="0" eb="2">
+      <t>アクマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6115.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6153.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6154.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6155.avif</t>
+  </si>
+  <si>
+    <t>DEH9IsnT6d9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神鹿</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>亞牙部スキオ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6156.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6157.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4704,6 +4861,19 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4773,7 +4943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4790,6 +4960,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5126,10 +5302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I675"/>
+  <dimension ref="A1:I699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
-      <selection activeCell="G676" sqref="G676"/>
+    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
+      <selection activeCell="G699" sqref="G699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24129,7 +24305,7 @@
       </c>
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A661" s="5" t="s">
+      <c r="A661" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="B661" s="1" t="s">
@@ -24147,10 +24323,10 @@
       <c r="F661" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G661" s="5" t="s">
+      <c r="G661" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="H661" s="5" t="s">
+      <c r="H661" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I661" s="1" t="b">
@@ -24158,7 +24334,7 @@
       </c>
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A662" s="5" t="s">
+      <c r="A662" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="B662" s="1" t="s">
@@ -24176,10 +24352,10 @@
       <c r="F662" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G662" s="5" t="s">
+      <c r="G662" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="H662" s="5" t="s">
+      <c r="H662" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I662" s="1" t="b">
@@ -24187,7 +24363,7 @@
       </c>
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A663" s="5" t="s">
+      <c r="A663" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="B663" s="1" t="s">
@@ -24205,10 +24381,10 @@
       <c r="F663" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G663" s="5" t="s">
+      <c r="G663" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="H663" s="5" t="s">
+      <c r="H663" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I663" s="1" t="b">
@@ -24216,28 +24392,28 @@
       </c>
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A664" s="5" t="s">
+      <c r="A664" s="1" t="s">
         <v>1268</v>
       </c>
-      <c r="B664" s="5" t="s">
+      <c r="B664" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C664" s="5" t="s">
+      <c r="C664" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="D664" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="E664" s="5" t="s">
+      <c r="E664" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="F664" s="5" t="s">
+      <c r="F664" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="G664" s="5" t="s">
+      <c r="G664" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="H664" s="5" t="s">
+      <c r="H664" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I664" s="1" t="b">
@@ -24245,28 +24421,28 @@
       </c>
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A665" s="5" t="s">
+      <c r="A665" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B665" s="5" t="s">
+      <c r="B665" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="C665" s="5" t="s">
+      <c r="C665" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="D665" s="1" t="s">
         <v>1280</v>
       </c>
-      <c r="E665" s="5" t="s">
+      <c r="E665" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="F665" s="5" t="s">
+      <c r="F665" s="1" t="s">
         <v>1278</v>
       </c>
-      <c r="G665" s="5" t="s">
+      <c r="G665" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="H665" s="5" t="s">
+      <c r="H665" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I665" s="1" t="b">
@@ -24274,28 +24450,28 @@
       </c>
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A666" s="5" t="s">
+      <c r="A666" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B666" s="5" t="s">
+      <c r="B666" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C666" s="5" t="s">
+      <c r="C666" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="D666" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="E666" s="5" t="s">
+      <c r="E666" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="F666" s="5" t="s">
+      <c r="F666" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="G666" s="5" t="s">
+      <c r="G666" s="1" t="s">
         <v>1273</v>
       </c>
-      <c r="H666" s="5" t="s">
+      <c r="H666" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I666" s="1" t="b">
@@ -24303,28 +24479,28 @@
       </c>
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A667" s="5" t="s">
+      <c r="A667" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B667" s="5" t="s">
+      <c r="B667" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C667" s="5" t="s">
+      <c r="C667" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="D667" s="1" t="s">
         <v>1284</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>19</v>
+        <v>1275</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G667" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G667" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="H667" s="5" t="s">
+      <c r="H667" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I667" s="1" t="b">
@@ -24332,28 +24508,28 @@
       </c>
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A668" s="5" t="s">
+      <c r="A668" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B668" s="5" t="s">
+      <c r="B668" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C668" s="5" t="s">
+      <c r="C668" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="D668" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>19</v>
+        <v>1275</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G668" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G668" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="H668" s="5" t="s">
+      <c r="H668" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I668" s="1" t="b">
@@ -24361,28 +24537,28 @@
       </c>
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A669" s="5" t="s">
+      <c r="A669" s="1" t="s">
         <v>1282</v>
       </c>
-      <c r="B669" s="5" t="s">
+      <c r="B669" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C669" s="5" t="s">
+      <c r="C669" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="D669" s="1" t="s">
         <v>1286</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>19</v>
+        <v>1275</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G669" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G669" s="1" t="s">
         <v>1283</v>
       </c>
-      <c r="H669" s="5" t="s">
+      <c r="H669" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I669" s="1" t="b">
@@ -24390,28 +24566,28 @@
       </c>
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A670" s="5" t="s">
+      <c r="A670" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B670" s="5" t="s">
+      <c r="B670" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="C670" s="5" t="s">
+      <c r="C670" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="D670" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="E670" s="5" t="s">
+      <c r="E670" s="1" t="s">
         <v>1275</v>
       </c>
-      <c r="F670" s="5" t="s">
+      <c r="F670" s="1" t="s">
         <v>1277</v>
       </c>
-      <c r="G670" s="5" t="s">
+      <c r="G670" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="H670" s="5" t="s">
+      <c r="H670" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I670" s="1" t="b">
@@ -24419,26 +24595,26 @@
       </c>
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A671" s="5" t="s">
+      <c r="A671" s="1" t="s">
         <v>1290</v>
       </c>
-      <c r="B671" s="5" t="s">
+      <c r="B671" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C671" s="5" t="s">
+      <c r="C671" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="D671" s="1" t="s">
         <v>1291</v>
       </c>
-      <c r="E671" s="5" t="s">
+      <c r="E671" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="F671" s="5" t="s">
+      <c r="F671" s="1" t="s">
         <v>848</v>
       </c>
       <c r="G671" s="1"/>
-      <c r="H671" s="5" t="s">
+      <c r="H671" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="I671" s="1" t="b">
@@ -24446,26 +24622,26 @@
       </c>
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A672" s="5" t="s">
+      <c r="A672" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B672" s="5" t="s">
+      <c r="B672" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C672" s="5" t="s">
+      <c r="C672" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="D672" s="1" t="s">
         <v>1293</v>
       </c>
-      <c r="E672" s="5" t="s">
+      <c r="E672" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F672" s="5" t="s">
+      <c r="F672" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="G672" s="1"/>
-      <c r="H672" s="5" t="s">
+      <c r="H672" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I672" s="1" t="b">
@@ -24473,26 +24649,26 @@
       </c>
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A673" s="5" t="s">
+      <c r="A673" s="1" t="s">
         <v>1292</v>
       </c>
-      <c r="B673" s="5" t="s">
+      <c r="B673" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C673" s="5" t="s">
+      <c r="C673" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="D673" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="E673" s="5" t="s">
+      <c r="E673" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F673" s="5" t="s">
+      <c r="F673" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="G673" s="1"/>
-      <c r="H673" s="5" t="s">
+      <c r="H673" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I673" s="1" t="b">
@@ -24500,26 +24676,26 @@
       </c>
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A674" s="5" t="s">
+      <c r="A674" s="1" t="s">
         <v>1295</v>
       </c>
-      <c r="B674" s="5" t="s">
+      <c r="B674" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C674" s="5" t="s">
+      <c r="C674" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="D674" s="1" t="s">
         <v>1297</v>
       </c>
-      <c r="E674" s="5" t="s">
+      <c r="E674" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F674" s="5" t="s">
+      <c r="F674" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="G674" s="1"/>
-      <c r="H674" s="5" t="s">
+      <c r="H674" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I674" s="1" t="b">
@@ -24527,29 +24703,685 @@
       </c>
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A675" s="5" t="s">
+      <c r="A675" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B675" s="5" t="s">
+      <c r="B675" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C675" s="5" t="s">
+      <c r="C675" s="1" t="s">
         <v>1289</v>
       </c>
-      <c r="D675" s="5" t="s">
+      <c r="D675" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="E675" s="5" t="s">
+      <c r="E675" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="F675" s="5" t="s">
+      <c r="F675" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="G675" s="1"/>
-      <c r="H675" s="5" t="s">
+      <c r="H675" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I675" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A676" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E676" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F676" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G676" s="1"/>
+      <c r="H676" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I676" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A677" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E677" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F677" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G677" s="1"/>
+      <c r="H677" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I677" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A678" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E678" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F678" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G678" s="1"/>
+      <c r="H678" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I678" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A679" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E679" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F679" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G679" s="1"/>
+      <c r="H679" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I679" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A680" s="5" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E680" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F680" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G680" s="1"/>
+      <c r="H680" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I680" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A681" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E681" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F681" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G681" s="1"/>
+      <c r="H681" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I681" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A682" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E682" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F682" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G682" s="1"/>
+      <c r="H682" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I682" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A683" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E683" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F683" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G683" s="1"/>
+      <c r="H683" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I683" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A684" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E684" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F684" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G684" s="1"/>
+      <c r="H684" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I684" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A685" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E685" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F685" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G685" s="1"/>
+      <c r="H685" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I685" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A686" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B686" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C686" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E686" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F686" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G686" s="1"/>
+      <c r="H686" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I686" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A687" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C687" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E687" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F687" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="G687" s="1"/>
+      <c r="H687" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I687" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A688" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C688" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E688" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F688" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G688" s="1"/>
+      <c r="H688" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I688" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A689" s="5" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B689" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C689" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D689" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E689" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F689" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G689" s="1"/>
+      <c r="H689" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I689" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A690" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C690" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D690" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E690" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F690" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G690" s="1"/>
+      <c r="H690" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I690" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A691" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C691" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D691" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E691" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F691" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G691" s="1"/>
+      <c r="H691" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I691" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A692" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C692" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D692" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E692" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F692" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G692" s="1"/>
+      <c r="H692" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I692" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A693" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C693" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E693" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F693" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G693" s="1"/>
+      <c r="H693" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I693" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A694" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C694" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D694" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E694" s="6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F694" s="5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G694" s="1"/>
+      <c r="H694" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I694" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A695" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B695" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C695" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D695" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E695" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F695" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G695" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H695" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I695" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A696" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B696" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C696" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D696" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E696" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F696" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G696" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H696" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I696" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A697" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B697" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C697" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D697" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E697" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F697" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G697" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H697" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I697" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A698" s="5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E698" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F698" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G698" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H698" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I698" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A699" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E699" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="F699" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G699" s="1"/>
+      <c r="H699" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I699" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8CCA25-3F44-4699-AF01-4140C1F01891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFE820-2B5D-4E78-97CE-204F9DBA886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5490" uniqueCount="1339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="1380">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4768,10 +4768,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>🄬</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>_r_.plants</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4840,6 +4836,155 @@
   <si>
     <t>images/IMG_6157.avif</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DDGvcdkxP6n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キングマーサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6158.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6159.avif</t>
+  </si>
+  <si>
+    <t>C-AkzvaSyoB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6160.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6161.avif</t>
+  </si>
+  <si>
+    <t>DCtAjfjRvtD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6162.avif</t>
+  </si>
+  <si>
+    <t>不明</t>
+    <rPh sb="0" eb="2">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DCOHaoxxAPz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キングマーサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6163.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6164.avif</t>
+  </si>
+  <si>
+    <t>DBculpSzhBC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神鹿</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6165.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6166.avif</t>
+  </si>
+  <si>
+    <t>ノーネーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBRUkvYTTue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋸鱏</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6167.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6168.avif</t>
+  </si>
+  <si>
+    <t>C-adn3vS7Kc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6169.avif</t>
+  </si>
+  <si>
+    <t>C9gyw3iSsBN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dennis 007 ギドラ 魏怒羅</t>
+  </si>
+  <si>
+    <t>Dennis 007 ギドラ 魏怒羅</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6170.avif</t>
+  </si>
+  <si>
+    <t>C8miI5USXDI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6171.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6172.avif</t>
+  </si>
+  <si>
+    <t>C-nc596y2Cw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6173.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6174.avif</t>
+  </si>
+  <si>
+    <t>C7IaC2NLQyx</t>
+  </si>
+  <si>
+    <t>C7IaC2NLQyx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6175.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6176.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6177.avif</t>
   </si>
 </sst>
 </file>
@@ -4959,13 +5104,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5302,10 +5447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I699"/>
+  <dimension ref="A1:I719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="G699" sqref="G699"/>
+    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
+      <selection activeCell="D702" sqref="D702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24492,10 +24637,10 @@
         <v>1284</v>
       </c>
       <c r="E667" s="1" t="s">
-        <v>1275</v>
+        <v>19</v>
       </c>
       <c r="F667" s="1" t="s">
-        <v>1277</v>
+        <v>20</v>
       </c>
       <c r="G667" s="1" t="s">
         <v>1283</v>
@@ -24521,10 +24666,10 @@
         <v>1285</v>
       </c>
       <c r="E668" s="1" t="s">
-        <v>1275</v>
+        <v>19</v>
       </c>
       <c r="F668" s="1" t="s">
-        <v>1277</v>
+        <v>20</v>
       </c>
       <c r="G668" s="1" t="s">
         <v>1283</v>
@@ -24550,10 +24695,10 @@
         <v>1286</v>
       </c>
       <c r="E669" s="1" t="s">
-        <v>1275</v>
+        <v>19</v>
       </c>
       <c r="F669" s="1" t="s">
-        <v>1277</v>
+        <v>20</v>
       </c>
       <c r="G669" s="1" t="s">
         <v>1283</v>
@@ -24730,7 +24875,7 @@
       </c>
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A676" s="5" t="s">
+      <c r="A676" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B676" s="1" t="s">
@@ -24757,7 +24902,7 @@
       </c>
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A677" s="5" t="s">
+      <c r="A677" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B677" s="1" t="s">
@@ -24784,7 +24929,7 @@
       </c>
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A678" s="5" t="s">
+      <c r="A678" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B678" s="1" t="s">
@@ -24811,7 +24956,7 @@
       </c>
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A679" s="5" t="s">
+      <c r="A679" s="1" t="s">
         <v>1298</v>
       </c>
       <c r="B679" s="1" t="s">
@@ -24838,7 +24983,7 @@
       </c>
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A680" s="5" t="s">
+      <c r="A680" s="1" t="s">
         <v>1298</v>
       </c>
       <c r="B680" s="1" t="s">
@@ -24865,7 +25010,7 @@
       </c>
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A681" s="5" t="s">
+      <c r="A681" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B681" s="1" t="s">
@@ -24892,7 +25037,7 @@
       </c>
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A682" s="5" t="s">
+      <c r="A682" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B682" s="1" t="s">
@@ -24919,7 +25064,7 @@
       </c>
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A683" s="5" t="s">
+      <c r="A683" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B683" s="1" t="s">
@@ -24946,7 +25091,7 @@
       </c>
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A684" s="5" t="s">
+      <c r="A684" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B684" s="1" t="s">
@@ -24973,7 +25118,7 @@
       </c>
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A685" s="5" t="s">
+      <c r="A685" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="B685" s="1" t="s">
@@ -25000,23 +25145,23 @@
       </c>
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A686" s="5" t="s">
+      <c r="A686" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B686" s="6" t="s">
+      <c r="B686" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C686" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C686" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D686" s="1" t="s">
         <v>1321</v>
       </c>
-      <c r="E686" s="7" t="s">
+      <c r="E686" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F686" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="F686" s="5" t="s">
-        <v>1325</v>
       </c>
       <c r="G686" s="1"/>
       <c r="H686" s="1" t="s">
@@ -25027,23 +25172,23 @@
       </c>
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A687" s="5" t="s">
+      <c r="A687" s="1" t="s">
         <v>1310</v>
       </c>
-      <c r="B687" s="6" t="s">
+      <c r="B687" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C687" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C687" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D687" s="1" t="s">
         <v>1314</v>
       </c>
-      <c r="E687" s="7" t="s">
+      <c r="E687" s="6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F687" s="1" t="s">
         <v>1324</v>
-      </c>
-      <c r="F687" s="5" t="s">
-        <v>1325</v>
       </c>
       <c r="G687" s="1"/>
       <c r="H687" s="1" t="s">
@@ -25054,23 +25199,23 @@
       </c>
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A688" s="5" t="s">
+      <c r="A688" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="B688" s="6" t="s">
+      <c r="B688" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C688" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C688" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D688" s="1" t="s">
         <v>1315</v>
       </c>
       <c r="E688" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F688" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="F688" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="G688" s="1"/>
       <c r="H688" s="1" t="s">
@@ -25081,23 +25226,23 @@
       </c>
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A689" s="5" t="s">
+      <c r="A689" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="B689" s="6" t="s">
+      <c r="B689" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C689" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C689" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D689" s="1" t="s">
         <v>1316</v>
       </c>
       <c r="E689" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F689" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="F689" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="G689" s="1"/>
       <c r="H689" s="1" t="s">
@@ -25108,23 +25253,23 @@
       </c>
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A690" s="5" t="s">
+      <c r="A690" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B690" s="6" t="s">
+      <c r="B690" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C690" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C690" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D690" s="1" t="s">
         <v>1317</v>
       </c>
-      <c r="E690" s="7" t="s">
+      <c r="E690" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F690" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="F690" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="G690" s="1"/>
       <c r="H690" s="1" t="s">
@@ -25135,23 +25280,23 @@
       </c>
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A691" s="5" t="s">
+      <c r="A691" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B691" s="6" t="s">
+      <c r="B691" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C691" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C691" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D691" s="1" t="s">
         <v>1318</v>
       </c>
-      <c r="E691" s="7" t="s">
+      <c r="E691" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F691" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="F691" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="G691" s="1"/>
       <c r="H691" s="1" t="s">
@@ -25162,23 +25307,23 @@
       </c>
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A692" s="5" t="s">
+      <c r="A692" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B692" s="6" t="s">
+      <c r="B692" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C692" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C692" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D692" s="1" t="s">
         <v>1319</v>
       </c>
-      <c r="E692" s="7" t="s">
+      <c r="E692" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F692" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="F692" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="G692" s="1"/>
       <c r="H692" s="1" t="s">
@@ -25189,23 +25334,23 @@
       </c>
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A693" s="5" t="s">
+      <c r="A693" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="B693" s="6" t="s">
+      <c r="B693" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C693" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="C693" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="D693" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="E693" s="7" t="s">
+      <c r="E693" s="6" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F693" s="1" t="s">
         <v>1326</v>
-      </c>
-      <c r="F693" s="5" t="s">
-        <v>1327</v>
       </c>
       <c r="G693" s="1"/>
       <c r="H693" s="1" t="s">
@@ -25216,23 +25361,23 @@
       </c>
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A694" s="5" t="s">
+      <c r="A694" s="1" t="s">
         <v>1313</v>
       </c>
-      <c r="B694" s="6" t="s">
+      <c r="B694" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C694" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="C694" s="5" t="s">
-        <v>1323</v>
-      </c>
       <c r="D694" s="1" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E694" s="6" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F694" s="1" t="s">
         <v>1322</v>
-      </c>
-      <c r="F694" s="5" t="s">
-        <v>1323</v>
       </c>
       <c r="G694" s="1"/>
       <c r="H694" s="1" t="s">
@@ -25243,8 +25388,8 @@
       </c>
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A695" s="5" t="s">
-        <v>1329</v>
+      <c r="A695" s="1" t="s">
+        <v>1328</v>
       </c>
       <c r="B695" s="1" t="s">
         <v>1218</v>
@@ -25253,7 +25398,7 @@
         <v>1219</v>
       </c>
       <c r="D695" s="1" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E695" s="1" t="s">
         <v>1218</v>
@@ -25262,7 +25407,7 @@
         <v>1219</v>
       </c>
       <c r="G695" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H695" s="1" t="s">
         <v>157</v>
@@ -25272,8 +25417,8 @@
       </c>
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A696" s="5" t="s">
-        <v>1329</v>
+      <c r="A696" s="1" t="s">
+        <v>1328</v>
       </c>
       <c r="B696" s="1" t="s">
         <v>1218</v>
@@ -25282,7 +25427,7 @@
         <v>1219</v>
       </c>
       <c r="D696" s="1" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="E696" s="1" t="s">
         <v>1218</v>
@@ -25291,7 +25436,7 @@
         <v>1219</v>
       </c>
       <c r="G696" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H696" s="1" t="s">
         <v>157</v>
@@ -25301,8 +25446,8 @@
       </c>
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A697" s="5" t="s">
-        <v>1329</v>
+      <c r="A697" s="1" t="s">
+        <v>1328</v>
       </c>
       <c r="B697" s="1" t="s">
         <v>1218</v>
@@ -25311,7 +25456,7 @@
         <v>1219</v>
       </c>
       <c r="D697" s="1" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="E697" s="1" t="s">
         <v>1218</v>
@@ -25320,7 +25465,7 @@
         <v>1219</v>
       </c>
       <c r="G697" s="1" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="H697" s="1" t="s">
         <v>157</v>
@@ -25330,8 +25475,8 @@
       </c>
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A698" s="5" t="s">
-        <v>1335</v>
+      <c r="A698" s="1" t="s">
+        <v>1334</v>
       </c>
       <c r="B698" s="1" t="s">
         <v>1218</v>
@@ -25340,16 +25485,16 @@
         <v>1219</v>
       </c>
       <c r="D698" s="1" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="E698" s="1" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="F698" s="1" t="s">
         <v>1262</v>
       </c>
       <c r="G698" s="1" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="H698" s="1" t="s">
         <v>157</v>
@@ -25359,7 +25504,7 @@
       </c>
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A699" s="5" t="s">
+      <c r="A699" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B699" s="1" t="s">
@@ -25369,7 +25514,7 @@
         <v>1277</v>
       </c>
       <c r="D699" s="1" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E699" s="1" t="s">
         <v>1275</v>
@@ -25382,6 +25527,586 @@
         <v>157</v>
       </c>
       <c r="I699" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A700" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E700" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F700" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G700" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H700" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I700" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A701" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B701" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C701" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D701" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E701" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F701" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G701" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H701" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I701" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A702" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B702" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D702" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E702" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F702" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G702" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H702" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I702" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A703" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B703" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C703" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D703" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E703" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F703" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G703" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H703" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="I703" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A704" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B704" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C704" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D704" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E704" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F704" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G704" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H704" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I704" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A705" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E705" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F705" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G705" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H705" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I705" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A706" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B706" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C706" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D706" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E706" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F706" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G706" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H706" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I706" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A707" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B707" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C707" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D707" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E707" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F707" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G707" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H707" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I707" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A708" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B708" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C708" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D708" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E708" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="F708" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G708" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="H708" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I708" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A709" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B709" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C709" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D709" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E709" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F709" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G709" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H709" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I709" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A710" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E710" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F710" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G710" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H710" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I710" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A711" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E711" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F711" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G711" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="H711" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I711" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A712" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E712" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F712" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G712" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H712" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I712" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A713" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E713" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F713" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G713" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H713" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I713" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A714" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E714" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F714" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G714" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="H714" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I714" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A715" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E715" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F715" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G715" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H715" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I715" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A716" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E716" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F716" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G716" s="7" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H716" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I716" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A717" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E717" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F717" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G717" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H717" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I717" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A718" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E718" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F718" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G718" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H718" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I718" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A719" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E719" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F719" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G719" s="7" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H719" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I719" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DFE820-2B5D-4E78-97CE-204F9DBA886B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063351D8-F9B8-447D-9E8A-4D44C2B84EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5650" uniqueCount="1380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5664" uniqueCount="1384">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -4985,6 +4985,23 @@
   </si>
   <si>
     <t>images/IMG_6177.avif</t>
+  </si>
+  <si>
+    <t>オアハカ KPG-002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6178.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6179.avif</t>
+  </si>
+  <si>
+    <t>オアハカ子株</t>
+    <rPh sb="4" eb="6">
+      <t>コカブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5447,11 +5464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I719"/>
+  <dimension ref="A1:I721"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="D702" sqref="D702"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -25676,7 +25691,7 @@
       </c>
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A705" s="7" t="s">
+      <c r="A705" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="B705" s="1" t="s">
@@ -25694,10 +25709,10 @@
       <c r="F705" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G705" s="7" t="s">
+      <c r="G705" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="H705" s="7" t="s">
+      <c r="H705" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="I705" s="1" t="b">
@@ -25705,7 +25720,7 @@
       </c>
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A706" s="7" t="s">
+      <c r="A706" s="1" t="s">
         <v>1351</v>
       </c>
       <c r="B706" s="1" t="s">
@@ -25723,10 +25738,10 @@
       <c r="F706" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G706" s="7" t="s">
+      <c r="G706" s="1" t="s">
         <v>1350</v>
       </c>
-      <c r="H706" s="7" t="s">
+      <c r="H706" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="I706" s="1" t="b">
@@ -25734,7 +25749,7 @@
       </c>
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A707" s="7" t="s">
+      <c r="A707" s="1" t="s">
         <v>1355</v>
       </c>
       <c r="B707" s="1" t="s">
@@ -25752,10 +25767,10 @@
       <c r="F707" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="G707" s="7" t="s">
+      <c r="G707" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="H707" s="7" t="s">
+      <c r="H707" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I707" s="1" t="b">
@@ -25763,7 +25778,7 @@
       </c>
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A708" s="7" t="s">
+      <c r="A708" s="1" t="s">
         <v>1355</v>
       </c>
       <c r="B708" s="1" t="s">
@@ -25781,10 +25796,10 @@
       <c r="F708" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="G708" s="7" t="s">
+      <c r="G708" s="1" t="s">
         <v>1354</v>
       </c>
-      <c r="H708" s="7" t="s">
+      <c r="H708" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I708" s="1" t="b">
@@ -25792,7 +25807,7 @@
       </c>
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A709" s="7" t="s">
+      <c r="A709" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="B709" s="1" t="s">
@@ -25810,10 +25825,10 @@
       <c r="F709" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="G709" s="7" t="s">
+      <c r="G709" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="H709" s="7" t="s">
+      <c r="H709" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I709" s="1" t="b">
@@ -25821,7 +25836,7 @@
       </c>
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A710" s="7" t="s">
+      <c r="A710" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="B710" s="1" t="s">
@@ -25839,10 +25854,10 @@
       <c r="F710" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="G710" s="7" t="s">
+      <c r="G710" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="H710" s="7" t="s">
+      <c r="H710" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I710" s="1" t="b">
@@ -25850,7 +25865,7 @@
       </c>
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A711" s="7" t="s">
+      <c r="A711" s="1" t="s">
         <v>1360</v>
       </c>
       <c r="B711" s="1" t="s">
@@ -25868,10 +25883,10 @@
       <c r="F711" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="G711" s="7" t="s">
+      <c r="G711" s="1" t="s">
         <v>1363</v>
       </c>
-      <c r="H711" s="7" t="s">
+      <c r="H711" s="1" t="s">
         <v>157</v>
       </c>
       <c r="I711" s="1" t="b">
@@ -25879,7 +25894,7 @@
       </c>
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A712" s="7" t="s">
+      <c r="A712" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="B712" s="1" t="s">
@@ -25897,7 +25912,7 @@
       <c r="F712" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G712" s="7" t="s">
+      <c r="G712" s="1" t="s">
         <v>1365</v>
       </c>
       <c r="H712" s="1" t="s">
@@ -25908,7 +25923,7 @@
       </c>
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A713" s="7" t="s">
+      <c r="A713" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="B713" s="1" t="s">
@@ -25926,7 +25941,7 @@
       <c r="F713" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G713" s="7" t="s">
+      <c r="G713" s="1" t="s">
         <v>1369</v>
       </c>
       <c r="H713" s="1" t="s">
@@ -25937,7 +25952,7 @@
       </c>
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A714" s="7" t="s">
+      <c r="A714" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B714" s="1" t="s">
@@ -25955,7 +25970,7 @@
       <c r="F714" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G714" s="7" t="s">
+      <c r="G714" s="1" t="s">
         <v>1369</v>
       </c>
       <c r="H714" s="1" t="s">
@@ -25966,7 +25981,7 @@
       </c>
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A715" s="7" t="s">
+      <c r="A715" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B715" s="1" t="s">
@@ -25984,7 +25999,7 @@
       <c r="F715" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G715" s="7" t="s">
+      <c r="G715" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="H715" s="1" t="s">
@@ -25995,7 +26010,7 @@
       </c>
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A716" s="7" t="s">
+      <c r="A716" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B716" s="1" t="s">
@@ -26013,7 +26028,7 @@
       <c r="F716" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G716" s="7" t="s">
+      <c r="G716" s="1" t="s">
         <v>1372</v>
       </c>
       <c r="H716" s="1" t="s">
@@ -26024,7 +26039,7 @@
       </c>
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A717" s="7" t="s">
+      <c r="A717" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B717" s="1" t="s">
@@ -26042,7 +26057,7 @@
       <c r="F717" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G717" s="7" t="s">
+      <c r="G717" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="H717" s="1" t="s">
@@ -26053,7 +26068,7 @@
       </c>
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A718" s="7" t="s">
+      <c r="A718" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B718" s="1" t="s">
@@ -26071,7 +26086,7 @@
       <c r="F718" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G718" s="7" t="s">
+      <c r="G718" s="1" t="s">
         <v>1376</v>
       </c>
       <c r="H718" s="1" t="s">
@@ -26082,7 +26097,7 @@
       </c>
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A719" s="7" t="s">
+      <c r="A719" s="1" t="s">
         <v>1366</v>
       </c>
       <c r="B719" s="1" t="s">
@@ -26100,13 +26115,67 @@
       <c r="F719" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="G719" s="7" t="s">
+      <c r="G719" s="1" t="s">
         <v>1375</v>
       </c>
       <c r="H719" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I719" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A720" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B720" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C720" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E720" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F720" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G720" s="1"/>
+      <c r="H720" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I720" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A721" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B721" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C721" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E721" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F721" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G721" s="1"/>
+      <c r="H721" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I721" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -2,23 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6350F253-E495-4A42-B99D-934D16FEADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4CDDAF-D1DB-4CFC-994A-B01D3438E902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$721</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$610</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$610</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5987" uniqueCount="1416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6356" uniqueCount="1466">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -5350,7 +5353,322 @@
     <t>images/IMG_6327.avif</t>
   </si>
   <si>
+    <t>leaf_color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉色</t>
+    <rPh sb="0" eb="2">
+      <t>ハイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濃緑</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライムグリーン</t>
+  </si>
+  <si>
+    <t>ライムグリーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋸歯色</t>
+    <rPh sb="0" eb="3">
+      <t>キョシイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茶色</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spine_color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spine_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋸歯タイプ</t>
+    <rPh sb="0" eb="2">
+      <t>キョシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>わしゃわしゃ系</t>
+    <rPh sb="6" eb="7">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皺系</t>
+    <rPh sb="0" eb="1">
+      <t>シワ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トップ長い系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンド幅厚系</t>
+    <rPh sb="3" eb="4">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立体系</t>
+    <rPh sb="0" eb="3">
+      <t>リッタイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連刺系</t>
+    <rPh sb="0" eb="1">
+      <t>レン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>葉形</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>丸葉</t>
+    <rPh sb="0" eb="2">
+      <t>マルバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長葉</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短葉</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>leaf_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉厚葉</t>
+    <rPh sb="0" eb="2">
+      <t>ニクアツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幅広葉</t>
+    <rPh sb="0" eb="2">
+      <t>ハバヒロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶつぶつ系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>立体系</t>
+    <rPh sb="0" eb="2">
+      <t>リッタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連刺系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンド幅厚系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンド幅厚い系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょいぶつ系</t>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴリゴリ系</t>
+    <rPh sb="4" eb="5">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皺系</t>
+    <rPh sb="0" eb="2">
+      <t>シワケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陽炎</t>
+    <rPh sb="0" eb="2">
+      <t>カゲロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆刺系</t>
+    <rPh sb="0" eb="1">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トゲ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>逆刺系</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロブスター 大螯蝦</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キングアーサー 亞瑟王</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>images/IMG_6328.avif</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6329.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6330.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6331.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6332.avif</t>
+  </si>
+  <si>
+    <t>牛魔王</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャガーノートhyb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/IMG_6333.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6334.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6335.avif</t>
+  </si>
+  <si>
+    <t>images/IMG_6336.avif</t>
   </si>
 </sst>
 </file>
@@ -5387,7 +5705,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5397,6 +5715,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5454,7 +5778,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5475,6 +5799,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5813,10 +6143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE30CC70-88A5-450B-A4C1-F65B0B69D610}">
-  <dimension ref="A1:I737"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I745"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
-      <selection activeCell="H740" sqref="H740"/>
+    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
+      <selection activeCell="C734" sqref="C734"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -26647,28 +26978,28 @@
       </c>
     </row>
     <row r="726" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A726" s="7" t="s">
+      <c r="A726" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="B726" s="7" t="s">
+      <c r="B726" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C726" s="7" t="s">
+      <c r="C726" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="D726" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="E726" s="7" t="s">
+      <c r="E726" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F726" s="7" t="s">
+      <c r="F726" s="1" t="s">
         <v>1403</v>
       </c>
-      <c r="G726" s="7" t="s">
+      <c r="G726" s="1" t="s">
         <v>1399</v>
       </c>
-      <c r="H726" s="7" t="s">
+      <c r="H726" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I726" s="1" t="b">
@@ -26676,26 +27007,26 @@
       </c>
     </row>
     <row r="727" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A727" s="7" t="s">
+      <c r="A727" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="B727" s="7" t="s">
+      <c r="B727" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C727" s="7" t="s">
+      <c r="C727" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="D727" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="E727" s="7" t="s">
+      <c r="E727" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F727" s="7" t="s">
+      <c r="F727" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="G727" s="1"/>
-      <c r="H727" s="7" t="s">
+      <c r="H727" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I727" s="1" t="b">
@@ -26703,26 +27034,26 @@
       </c>
     </row>
     <row r="728" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A728" s="7" t="s">
+      <c r="A728" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B728" s="7" t="s">
+      <c r="B728" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C728" s="7" t="s">
+      <c r="C728" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D728" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="E728" s="7" t="s">
+      <c r="E728" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F728" s="7" t="s">
+      <c r="F728" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G728" s="1"/>
-      <c r="H728" s="7" t="s">
+      <c r="H728" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I728" s="1" t="b">
@@ -26730,26 +27061,26 @@
       </c>
     </row>
     <row r="729" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A729" s="7" t="s">
+      <c r="A729" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B729" s="7" t="s">
+      <c r="B729" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C729" s="7" t="s">
+      <c r="C729" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D729" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="E729" s="7" t="s">
+      <c r="E729" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F729" s="7" t="s">
+      <c r="F729" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G729" s="1"/>
-      <c r="H729" s="7" t="s">
+      <c r="H729" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I729" s="1" t="b">
@@ -26757,26 +27088,26 @@
       </c>
     </row>
     <row r="730" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A730" s="7" t="s">
+      <c r="A730" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B730" s="7" t="s">
+      <c r="B730" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C730" s="7" t="s">
+      <c r="C730" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D730" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="E730" s="7" t="s">
+      <c r="E730" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F730" s="7" t="s">
+      <c r="F730" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G730" s="1"/>
-      <c r="H730" s="7" t="s">
+      <c r="H730" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I730" s="1" t="b">
@@ -26784,26 +27115,26 @@
       </c>
     </row>
     <row r="731" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A731" s="7" t="s">
+      <c r="A731" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B731" s="7" t="s">
+      <c r="B731" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C731" s="7" t="s">
+      <c r="C731" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D731" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="E731" s="7" t="s">
+      <c r="E731" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F731" s="7" t="s">
+      <c r="F731" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G731" s="1"/>
-      <c r="H731" s="7" t="s">
+      <c r="H731" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I731" s="1" t="b">
@@ -26811,26 +27142,26 @@
       </c>
     </row>
     <row r="732" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A732" s="7" t="s">
+      <c r="A732" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="B732" s="7" t="s">
+      <c r="B732" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C732" s="7" t="s">
+      <c r="C732" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D732" s="1" t="s">
         <v>1410</v>
       </c>
-      <c r="E732" s="7" t="s">
+      <c r="E732" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F732" s="7" t="s">
+      <c r="F732" s="1" t="s">
         <v>1403</v>
       </c>
       <c r="G732" s="1"/>
-      <c r="H732" s="7" t="s">
+      <c r="H732" s="1" t="s">
         <v>46</v>
       </c>
       <c r="I732" s="1" t="b">
@@ -26838,22 +27169,22 @@
       </c>
     </row>
     <row r="733" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A733" s="7" t="s">
+      <c r="A733" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B733" s="7" t="s">
+      <c r="B733" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C733" s="7" t="s">
+      <c r="C733" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D733" s="1" t="s">
         <v>1411</v>
       </c>
-      <c r="E733" s="7" t="s">
+      <c r="E733" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F733" s="7" t="s">
+      <c r="F733" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G733" s="1"/>
@@ -26865,22 +27196,22 @@
       </c>
     </row>
     <row r="734" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A734" s="7" t="s">
+      <c r="A734" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B734" s="7" t="s">
+      <c r="B734" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C734" s="7" t="s">
+      <c r="C734" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D734" s="1" t="s">
         <v>1412</v>
       </c>
-      <c r="E734" s="7" t="s">
+      <c r="E734" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F734" s="7" t="s">
+      <c r="F734" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G734" s="1"/>
@@ -26892,22 +27223,22 @@
       </c>
     </row>
     <row r="735" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A735" s="7" t="s">
+      <c r="A735" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B735" s="7" t="s">
+      <c r="B735" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C735" s="7" t="s">
+      <c r="C735" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D735" s="1" t="s">
         <v>1413</v>
       </c>
-      <c r="E735" s="7" t="s">
+      <c r="E735" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F735" s="7" t="s">
+      <c r="F735" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G735" s="1"/>
@@ -26919,22 +27250,22 @@
       </c>
     </row>
     <row r="736" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A736" s="7" t="s">
+      <c r="A736" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B736" s="7" t="s">
+      <c r="B736" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C736" s="7" t="s">
+      <c r="C736" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D736" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="E736" s="7" t="s">
+      <c r="E736" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F736" s="7" t="s">
+      <c r="F736" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G736" s="1"/>
@@ -26946,22 +27277,22 @@
       </c>
     </row>
     <row r="737" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A737" s="7" t="s">
+      <c r="A737" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B737" s="7" t="s">
+      <c r="B737" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="C737" s="7" t="s">
+      <c r="C737" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="D737" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E737" s="7" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E737" s="1" t="s">
         <v>1404</v>
       </c>
-      <c r="F737" s="7" t="s">
+      <c r="F737" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="G737" s="1"/>
@@ -26969,6 +27300,222 @@
         <v>41</v>
       </c>
       <c r="I737" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A738" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B738" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C738" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E738" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F738" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G738" s="1"/>
+      <c r="H738" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I738" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A739" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B739" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C739" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E739" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F739" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G739" s="1"/>
+      <c r="H739" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I739" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A740" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B740" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C740" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E740" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F740" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G740" s="1"/>
+      <c r="H740" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I740" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A741" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B741" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C741" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E741" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F741" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G741" s="1"/>
+      <c r="H741" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I741" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A742" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B742" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C742" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E742" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F742" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G742" s="1"/>
+      <c r="H742" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I742" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A743" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B743" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C743" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E743" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F743" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G743" s="1"/>
+      <c r="H743" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I743" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A744" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B744" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C744" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E744" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F744" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G744" s="1"/>
+      <c r="H744" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I744" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A745" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B745" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="C745" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E745" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="F745" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="G745" s="1"/>
+      <c r="H745" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I745" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -26981,10 +27528,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C148DB-7DBC-44F1-A457-7D7E2198FC87}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B195"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -28193,4 +28741,2499 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G195"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="36.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
+      <c r="G166" s="1"/>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A167" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
+      <c r="G167" s="1"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+      <c r="G168" s="1"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="F169" s="1"/>
+      <c r="G169" s="1"/>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="F170" s="1"/>
+      <c r="G170" s="1"/>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="F171" s="1"/>
+      <c r="G171" s="1"/>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="F172" s="1"/>
+      <c r="G172" s="1"/>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1"/>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="F179" s="1"/>
+      <c r="G179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A182" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="F182" s="1"/>
+      <c r="G182" s="1"/>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="F185" s="1"/>
+      <c r="G185" s="1"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="F186" s="1"/>
+      <c r="G186" s="1"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="F187" s="1"/>
+      <c r="G187" s="1"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="F189" s="1"/>
+      <c r="G189" s="1"/>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A190" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="F190" s="1"/>
+      <c r="G190" s="1"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="F192" s="1"/>
+      <c r="G192" s="1"/>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A194" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="F194" s="1"/>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="F195" s="1"/>
+      <c r="G195" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A610" xr:uid="{B8C148DB-7DBC-44F1-A457-7D7E2198FC87}"/>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{15EF36B8-0207-40EA-9B25-1A0CB73C6259}">
+          <x14:formula1>
+            <xm:f>Sheet4!$B$3:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D195</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{218357E2-2BE7-4D72-B1C8-9C2568967159}">
+          <x14:formula1>
+            <xm:f>Sheet4!$B$5:$F$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C195</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B7D25A8-4F5A-418F-B233-63CC6C929D06}">
+          <x14:formula1>
+            <xm:f>Sheet4!$B$2:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B195</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1547C303-272E-4BDC-A7C7-3E9D10E3BBC5}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1433</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1447</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1450</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580BCB8B-9B76-4F77-8BA1-A0250C2638D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB54D7-F810-4F4F-84D4-F0AE46DDF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7284" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="1503">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -5643,13 +5643,6 @@
     <t>皺系</t>
     <rPh sb="0" eb="2">
       <t>シワケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ちょいぶつ系</t>
-    <rPh sb="5" eb="6">
-      <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5994,7 +5987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6021,9 +6014,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6362,7 +6352,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I753"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -19384,7 +19376,7 @@
         <v>879</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G450" s="1" t="s">
         <v>875</v>
@@ -19413,7 +19405,7 @@
         <v>879</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G451" s="1" t="s">
         <v>875</v>
@@ -25159,7 +25151,7 @@
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A654" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B654" s="1" t="s">
         <v>1211</v>
@@ -26704,7 +26696,7 @@
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A709" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B709" s="1" t="s">
         <v>1211</v>
@@ -26733,7 +26725,7 @@
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A710" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B710" s="1" t="s">
         <v>1211</v>
@@ -26762,7 +26754,7 @@
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A711" s="1" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>1211</v>
@@ -27734,71 +27726,71 @@
       </c>
     </row>
     <row r="746" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A746" s="9" t="s">
+      <c r="A746" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B746" s="9" t="s">
+      <c r="B746" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E746" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F746" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G746" s="1"/>
+      <c r="H746" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I746" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A747" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E747" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F747" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G747" s="1"/>
+      <c r="H747" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I747" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A748" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C748" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="C746" s="9" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D746" s="1" t="s">
+      <c r="D748" s="1" t="s">
         <v>1485</v>
-      </c>
-      <c r="E746" s="9" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F746" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G746" s="1"/>
-      <c r="H746" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I746" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="747" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A747" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="B747" s="9" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C747" s="9" t="s">
-        <v>1496</v>
-      </c>
-      <c r="D747" s="1" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E747" s="9" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F747" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G747" s="1"/>
-      <c r="H747" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I747" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="748" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A748" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B748" s="9" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C748" s="9" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D748" s="1" t="s">
-        <v>1486</v>
       </c>
       <c r="E748" s="1" t="s">
         <v>879</v>
@@ -27807,25 +27799,25 @@
         <v>880</v>
       </c>
       <c r="G748" s="1"/>
-      <c r="H748" s="9" t="s">
-        <v>1503</v>
+      <c r="H748" s="1" t="s">
+        <v>1502</v>
       </c>
       <c r="I748" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A749" s="9" t="s">
+      <c r="A749" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B749" s="9" t="s">
+      <c r="B749" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C749" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="C749" s="9" t="s">
-        <v>1495</v>
-      </c>
       <c r="D749" s="1" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E749" s="1" t="s">
         <v>879</v>
@@ -27834,116 +27826,116 @@
         <v>880</v>
       </c>
       <c r="G749" s="1"/>
-      <c r="H749" s="9" t="s">
-        <v>1503</v>
+      <c r="H749" s="1" t="s">
+        <v>1502</v>
       </c>
       <c r="I749" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A750" s="9" t="s">
+      <c r="A750" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D750" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="B750" s="9" t="s">
+      <c r="E750" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F750" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G750" s="1"/>
+      <c r="H750" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I750" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A751" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C751" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="C750" s="9" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D750" s="1" t="s">
+      <c r="D751" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="E750" s="9" t="s">
+      <c r="E751" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F750" s="9" t="s">
+      <c r="F751" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G750" s="1"/>
-      <c r="H750" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I750" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="751" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A751" s="9" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B751" s="9" t="s">
+      <c r="G751" s="1"/>
+      <c r="H751" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I751" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A752" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C752" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="C751" s="9" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D751" s="1" t="s">
+      <c r="D752" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E752" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F752" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="G752" s="1"/>
+      <c r="H752" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="I752" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A753" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="E751" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F751" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G751" s="1"/>
-      <c r="H751" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I751" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="752" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A752" s="9" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B752" s="9" t="s">
+      <c r="B753" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C753" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="C752" s="9" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D752" s="1" t="s">
+      <c r="D753" s="1" t="s">
         <v>1492</v>
       </c>
-      <c r="E752" s="9" t="s">
+      <c r="E753" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="F753" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="F752" s="9" t="s">
+      <c r="G753" s="1"/>
+      <c r="H753" s="1" t="s">
         <v>1502</v>
-      </c>
-      <c r="G752" s="1"/>
-      <c r="H752" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="I752" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="753" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A753" s="9" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B753" s="9" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C753" s="9" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D753" s="1" t="s">
-        <v>1493</v>
-      </c>
-      <c r="E753" s="9" t="s">
-        <v>1501</v>
-      </c>
-      <c r="F753" s="9" t="s">
-        <v>1502</v>
-      </c>
-      <c r="G753" s="1"/>
-      <c r="H753" s="9" t="s">
-        <v>1503</v>
       </c>
       <c r="I753" s="1" t="b">
         <v>1</v>
@@ -29175,10 +29167,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J199" sqref="J199"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -29208,18 +29202,18 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1422</v>
@@ -29227,20 +29221,22 @@
       <c r="F2" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G2" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1440</v>
@@ -29252,37 +29248,41 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="F4" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1436</v>
@@ -29292,7 +29292,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>300</v>
       </c>
@@ -29303,7 +29303,7 @@
         <v>1427</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1436</v>
@@ -29313,18 +29313,18 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1420</v>
@@ -29332,18 +29332,18 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1436</v>
@@ -29353,18 +29353,18 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>781</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1457</v>
@@ -29372,18 +29372,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1459</v>
@@ -29391,18 +29391,18 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>1283</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1461</v>
@@ -29410,139 +29410,139 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1427</v>
+        <v>1480</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1462</v>
+        <v>1438</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1436</v>
+        <v>1424</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>1463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>1359</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>680</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1458</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1458</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>635</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>1439</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>729</v>
       </c>
@@ -29553,30 +29553,30 @@
         <v>1428</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>602</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1423</v>
@@ -29588,39 +29588,39 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>1439</v>
@@ -29632,18 +29632,18 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>688</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>1425</v>
@@ -29651,18 +29651,18 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>701</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>1425</v>
@@ -29670,18 +29670,18 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>668</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1423</v>
@@ -29691,18 +29691,18 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>1423</v>
@@ -29714,7 +29714,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>642</v>
       </c>
@@ -29725,30 +29725,30 @@
         <v>1432</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>623</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>1425</v>
@@ -29758,18 +29758,18 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>613</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>1420</v>
@@ -29778,21 +29778,21 @@
         <v>1423</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>1423</v>
@@ -29804,18 +29804,18 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>1424</v>
@@ -29825,18 +29825,18 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>697</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>1439</v>
@@ -29844,18 +29844,18 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>1439</v>
@@ -29863,18 +29863,18 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>706</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>1441</v>
@@ -29882,41 +29882,41 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>1427</v>
+        <v>1480</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1424</v>
+        <v>1471</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1423</v>
@@ -29928,7 +29928,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>1139</v>
       </c>
@@ -29939,7 +29939,7 @@
         <v>1431</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>1424</v>
@@ -29947,18 +29947,18 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>835</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1433</v>
@@ -29967,21 +29967,21 @@
         <v>1459</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>752</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1438</v>
@@ -29993,18 +29993,18 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>832</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>1433</v>
@@ -30016,18 +30016,18 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1420</v>
@@ -30037,18 +30037,18 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>1459</v>
@@ -30058,7 +30058,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>1018</v>
       </c>
@@ -30069,17 +30069,17 @@
         <v>1428</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>1042</v>
       </c>
@@ -30090,17 +30090,17 @@
         <v>1427</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>1019</v>
       </c>
@@ -30111,24 +30111,24 @@
         <v>1428</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>900</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>1421</v>
@@ -30137,54 +30137,54 @@
         <v>1441</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>1020</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>1047</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1021</v>
       </c>
@@ -30195,80 +30195,80 @@
         <v>1427</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>911</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1023</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>1049</v>
       </c>
@@ -30279,7 +30279,7 @@
         <v>1428</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>1459</v>
@@ -30287,18 +30287,18 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>962</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>1421</v>
@@ -30308,28 +30308,28 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>1010</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>1025</v>
       </c>
@@ -30340,7 +30340,7 @@
         <v>1428</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>1459</v>
@@ -30348,28 +30348,28 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>1050</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>1026</v>
       </c>
@@ -30380,42 +30380,42 @@
         <v>1429</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>1027</v>
       </c>
@@ -30426,7 +30426,7 @@
         <v>1429</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>1459</v>
@@ -30434,18 +30434,18 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>1421</v>
@@ -30455,91 +30455,91 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>1028</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>938</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>952</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>1030</v>
       </c>
@@ -30550,7 +30550,7 @@
         <v>1429</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>1421</v>
@@ -30558,41 +30558,41 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>1055</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>1421</v>
@@ -30604,89 +30604,89 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>1056</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>1032</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>1057</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>1033</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>1058</v>
       </c>
@@ -30697,66 +30697,66 @@
         <v>1428</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>1034</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>1424</v>
@@ -30765,54 +30765,54 @@
         <v>1423</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1061</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>1036</v>
       </c>
@@ -30823,74 +30823,74 @@
         <v>1427</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>1467</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>1062</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>1037</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>1059</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>1423</v>
@@ -30900,114 +30900,114 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>1038</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>996</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>1039</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>1045</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>1441</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>1064</v>
       </c>
@@ -31018,15 +31018,15 @@
         <v>1428</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>1040</v>
       </c>
@@ -31037,31 +31037,31 @@
         <v>1428</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>930</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>1423</v>
@@ -31070,7 +31070,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>1095</v>
       </c>
@@ -31081,28 +31081,28 @@
         <v>1428</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>922</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>1421</v>
@@ -31119,44 +31119,44 @@
         <v>988</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>1459</v>
+        <v>1472</v>
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>218</v>
       </c>
@@ -31167,108 +31167,108 @@
         <v>1427</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>289</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>285</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>1459</v>
@@ -31276,39 +31276,39 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>1423</v>
@@ -31318,18 +31318,18 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>1423</v>
@@ -31339,62 +31339,62 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>1481</v>
+        <v>1428</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>1442</v>
@@ -31404,64 +31404,64 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>1481</v>
+        <v>1428</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1424</v>
+        <v>1442</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>1459</v>
+        <v>1466</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>1460</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>1441</v>
@@ -31470,44 +31470,44 @@
         <v>1423</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>1423</v>
@@ -31517,18 +31517,18 @@
       </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>1182</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>1423</v>
@@ -31540,7 +31540,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>26</v>
       </c>
@@ -31551,18 +31551,18 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>1434</v>
@@ -31570,39 +31570,39 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>1442</v>
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>1420</v>
@@ -31612,18 +31612,18 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>1435</v>
@@ -31631,18 +31631,18 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>1327</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>1433</v>
@@ -31650,39 +31650,39 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>766</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>1423</v>
@@ -31692,7 +31692,7 @@
       </c>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>1378</v>
       </c>
@@ -31703,28 +31703,28 @@
         <v>1427</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>1459</v>
       </c>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>1333</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>1437</v>
@@ -31732,7 +31732,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>65</v>
       </c>
@@ -31740,52 +31740,52 @@
         <v>1414</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E123" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>1442</v>
@@ -31793,18 +31793,18 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E125" s="1" t="s">
         <v>1423</v>
@@ -31814,18 +31814,18 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>1442</v>
@@ -31833,18 +31833,18 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>1421</v>
@@ -31854,18 +31854,18 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>1459</v>
@@ -31875,89 +31875,89 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>1267</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>1439</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>1288</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>165</v>
       </c>
@@ -31968,28 +31968,28 @@
         <v>1427</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>1435</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>776</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>1433</v>
@@ -31997,18 +31997,18 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>1437</v>
@@ -32018,39 +32018,39 @@
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>1421</v>
@@ -32058,41 +32058,41 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>767</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>1420</v>
@@ -32100,18 +32100,18 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>1424</v>
@@ -32119,58 +32119,58 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>855</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>1421</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>811</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>1438</v>
@@ -32179,10 +32179,10 @@
         <v>1425</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>1162</v>
       </c>
@@ -32190,10 +32190,10 @@
         <v>1414</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>1425</v>
@@ -32201,58 +32201,58 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>1423</v>
@@ -32262,39 +32262,39 @@
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>1420</v>
@@ -32304,7 +32304,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>213</v>
       </c>
@@ -32315,26 +32315,26 @@
         <v>1427</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>1459</v>
@@ -32344,62 +32344,62 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>908</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>1460</v>
@@ -32407,37 +32407,37 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>1459</v>
@@ -32447,83 +32447,83 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>1425</v>
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>1424</v>
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>1481</v>
-      </c>
       <c r="D159" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>1383</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>1433</v>
@@ -32533,124 +32533,124 @@
       </c>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>1305</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>1303</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>1304</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>837</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>1433</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>828</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>1433</v>
@@ -32658,18 +32658,18 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>765</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>1433</v>
@@ -32677,37 +32677,37 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>1420</v>
@@ -32715,18 +32715,18 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>1429</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>1423</v>
@@ -32736,18 +32736,18 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>1423</v>
@@ -32755,58 +32755,58 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>1424</v>
@@ -32815,42 +32815,42 @@
         <v>1420</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>1425</v>
@@ -32858,119 +32858,119 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>1428</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>916</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E180" s="1" t="s">
         <v>1438</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>1432</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>1442</v>
+        <v>1425</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>1423</v>
@@ -32982,39 +32982,39 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>1420</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>1424</v>
@@ -33023,21 +33023,21 @@
         <v>1420</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>1424</v>
@@ -33046,21 +33046,21 @@
         <v>1420</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>748</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>1424</v>
@@ -33072,18 +33072,18 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>1433</v>
@@ -33091,59 +33091,59 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>1219</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>769</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>1433</v>
@@ -33152,21 +33152,21 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>1423</v>
@@ -33175,18 +33175,18 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>1431</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>1459</v>
@@ -33196,18 +33196,18 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>774</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>1427</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>1423</v>
@@ -33219,24 +33219,24 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>1433</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>1459</v>
@@ -33244,6 +33244,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G195" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="イランエメラルド Z1"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
@@ -33315,19 +33320,19 @@
         <v>1413</v>
       </c>
       <c r="B2" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C2" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="D2" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E2" t="s">
         <v>1415</v>
       </c>
       <c r="F2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.4">
@@ -33335,13 +33340,13 @@
         <v>1416</v>
       </c>
       <c r="B3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C3" t="s">
         <v>1474</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1475</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1476</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -33385,19 +33390,19 @@
         <v>1460</v>
       </c>
       <c r="N4" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="O4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="P4" t="s">
+        <v>1471</v>
+      </c>
+      <c r="Q4" t="s">
         <v>1472</v>
       </c>
-      <c r="Q4" t="s">
-        <v>1473</v>
-      </c>
       <c r="R4" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -33420,10 +33425,10 @@
         <v>1431</v>
       </c>
       <c r="G5" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="H5" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
   </sheetData>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FB54D7-F810-4F4F-84D4-F0AE46DDF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481F7BB-A982-45CE-A6FD-D2DBEDCEE75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$721</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$610</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$G$195</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$G$196</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7287" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7289" uniqueCount="1504">
   <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
@@ -5877,6 +5877,10 @@
     <rPh sb="0" eb="2">
       <t>タイワン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンブルビー 大黃蜂</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5987,7 +5991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6014,6 +6018,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6352,8 +6359,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I753"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A186" sqref="A186"/>
+    <sheetView topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="B764" sqref="B764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29168,11 +29175,9 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
   <sheetPr codeName="Sheet3" filterMode="1"/>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J199" sqref="J199"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -29947,7 +29952,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>835</v>
       </c>
@@ -29955,7 +29960,7 @@
         <v>1477</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1427</v>
+        <v>1480</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1473</v>
@@ -29964,11 +29969,9 @@
         <v>1433</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G37" s="1" t="s">
         <v>1468</v>
       </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
@@ -29993,7 +29996,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>832</v>
       </c>
@@ -30012,9 +30015,7 @@
       <c r="F39" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>1459</v>
-      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
@@ -31114,7 +31115,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>988</v>
       </c>
@@ -31631,7 +31632,7 @@
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>1327</v>
       </c>
@@ -31639,7 +31640,7 @@
         <v>1477</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>1476</v>
+        <v>1427</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>1473</v>
@@ -31978,7 +31979,7 @@
       </c>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>776</v>
       </c>
@@ -32512,7 +32513,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
         <v>1383</v>
       </c>
@@ -32528,9 +32529,7 @@
       <c r="E160" s="1" t="s">
         <v>1433</v>
       </c>
-      <c r="F160" s="1" t="s">
-        <v>1424</v>
-      </c>
+      <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
     <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
@@ -32618,7 +32617,7 @@
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
         <v>42</v>
       </c>
@@ -32639,7 +32638,7 @@
       </c>
       <c r="G166" s="1"/>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
         <v>828</v>
       </c>
@@ -32647,7 +32646,7 @@
         <v>1477</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>1474</v>
@@ -32658,7 +32657,7 @@
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
         <v>765</v>
       </c>
@@ -33072,7 +33071,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
         <v>193</v>
       </c>
@@ -33219,15 +33218,15 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>1476</v>
+        <v>1431</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>1473</v>
@@ -33236,20 +33235,38 @@
         <v>1433</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>1472</v>
-      </c>
-      <c r="G195" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="G195" s="1"/>
+    </row>
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>1459</v>
       </c>
+      <c r="G196" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G195" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:G196" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
+    <filterColumn colId="4" showButton="0">
       <filters>
-        <filter val="イランエメラルド Z1"/>
+        <filter val="ぶつぶつ系"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -33264,25 +33281,25 @@
           <x14:formula1>
             <xm:f>Sheet4!$B$3:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D195</xm:sqref>
+          <xm:sqref>D2:D196</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{218357E2-2BE7-4D72-B1C8-9C2568967159}">
           <x14:formula1>
             <xm:f>Sheet4!$B$5:$H$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C195</xm:sqref>
+          <xm:sqref>C2:C196</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B7D25A8-4F5A-418F-B233-63CC6C929D06}">
           <x14:formula1>
             <xm:f>Sheet4!$B$2:$F$2</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B195</xm:sqref>
+          <xm:sqref>B2:B196</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CBE53946-01E3-4074-B580-BC3E27646FCB}">
           <x14:formula1>
             <xm:f>Sheet4!$B$4:$R$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:G195</xm:sqref>
+          <xm:sqref>E2:G196</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481F7BB-A982-45CE-A6FD-D2DBEDCEE75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A1914E-F1F0-4E72-B6FA-FF69C27B80CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -5991,7 +5991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6018,9 +6018,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6359,8 +6356,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I753"/>
   <sheetViews>
-    <sheetView topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="B764" sqref="B764"/>
+    <sheetView topLeftCell="A735" workbookViewId="0">
+      <selection activeCell="A750" sqref="A750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -29174,7 +29171,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -29207,7 +29204,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -29230,7 +29227,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>295</v>
       </c>
@@ -29253,7 +29250,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>296</v>
       </c>
@@ -29276,7 +29273,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
@@ -29297,7 +29294,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>300</v>
       </c>
@@ -29318,7 +29315,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>301</v>
       </c>
@@ -29337,7 +29334,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -29358,7 +29355,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>781</v>
       </c>
@@ -29377,7 +29374,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>145</v>
       </c>
@@ -29396,7 +29393,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>1283</v>
       </c>
@@ -29415,7 +29412,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1210</v>
       </c>
@@ -29438,7 +29435,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>1359</v>
       </c>
@@ -29459,7 +29456,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>680</v>
       </c>
@@ -29480,7 +29477,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>725</v>
       </c>
@@ -29501,7 +29498,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>635</v>
       </c>
@@ -29524,7 +29521,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>636</v>
       </c>
@@ -29547,7 +29544,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>729</v>
       </c>
@@ -29570,7 +29567,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>602</v>
       </c>
@@ -29593,7 +29590,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>661</v>
       </c>
@@ -29614,7 +29611,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>694</v>
       </c>
@@ -29637,7 +29634,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>688</v>
       </c>
@@ -29656,7 +29653,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>701</v>
       </c>
@@ -29675,7 +29672,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>668</v>
       </c>
@@ -29696,7 +29693,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>652</v>
       </c>
@@ -29719,7 +29716,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>642</v>
       </c>
@@ -29742,7 +29739,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>623</v>
       </c>
@@ -29763,7 +29760,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>613</v>
       </c>
@@ -29786,7 +29783,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>717</v>
       </c>
@@ -29809,7 +29806,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>711</v>
       </c>
@@ -29830,7 +29827,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>697</v>
       </c>
@@ -29849,7 +29846,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>721</v>
       </c>
@@ -29868,7 +29865,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>706</v>
       </c>
@@ -29887,7 +29884,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>736</v>
       </c>
@@ -29910,7 +29907,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>154</v>
       </c>
@@ -29933,7 +29930,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>1139</v>
       </c>
@@ -29973,7 +29970,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>752</v>
       </c>
@@ -30017,7 +30014,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -30038,7 +30035,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -30059,7 +30056,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>1018</v>
       </c>
@@ -30080,7 +30077,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>1042</v>
       </c>
@@ -30101,7 +30098,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>1019</v>
       </c>
@@ -30118,7 +30115,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>900</v>
       </c>
@@ -30141,7 +30138,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>1020</v>
       </c>
@@ -30164,7 +30161,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>1047</v>
       </c>
@@ -30185,7 +30182,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1021</v>
       </c>
@@ -30206,7 +30203,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>911</v>
       </c>
@@ -30227,7 +30224,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>1048</v>
       </c>
@@ -30248,7 +30245,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1023</v>
       </c>
@@ -30269,7 +30266,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>1049</v>
       </c>
@@ -30288,7 +30285,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>962</v>
       </c>
@@ -30309,7 +30306,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>1010</v>
       </c>
@@ -30330,7 +30327,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>1025</v>
       </c>
@@ -30349,7 +30346,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>1050</v>
       </c>
@@ -30370,7 +30367,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>1026</v>
       </c>
@@ -30393,7 +30390,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>274</v>
       </c>
@@ -30416,7 +30413,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>1027</v>
       </c>
@@ -30435,7 +30432,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>1052</v>
       </c>
@@ -30456,7 +30453,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>1028</v>
       </c>
@@ -30475,7 +30472,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>1002</v>
       </c>
@@ -30496,7 +30493,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>938</v>
       </c>
@@ -30517,7 +30514,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>952</v>
       </c>
@@ -30540,7 +30537,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>1030</v>
       </c>
@@ -30559,7 +30556,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>1055</v>
       </c>
@@ -30582,7 +30579,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>1031</v>
       </c>
@@ -30605,7 +30602,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>1056</v>
       </c>
@@ -30626,7 +30623,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>1032</v>
       </c>
@@ -30647,7 +30644,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>1057</v>
       </c>
@@ -30666,7 +30663,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>1033</v>
       </c>
@@ -30687,7 +30684,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>1058</v>
       </c>
@@ -30708,7 +30705,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>1034</v>
       </c>
@@ -30727,7 +30724,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>1060</v>
       </c>
@@ -30746,7 +30743,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -30769,7 +30766,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>1035</v>
       </c>
@@ -30790,7 +30787,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1061</v>
       </c>
@@ -30813,7 +30810,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>1036</v>
       </c>
@@ -30836,7 +30833,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>1062</v>
       </c>
@@ -30859,7 +30856,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>1037</v>
       </c>
@@ -30880,7 +30877,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>1059</v>
       </c>
@@ -30901,7 +30898,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>1038</v>
       </c>
@@ -30922,7 +30919,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>996</v>
       </c>
@@ -30943,7 +30940,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>1039</v>
       </c>
@@ -30962,7 +30959,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>270</v>
       </c>
@@ -30985,7 +30982,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>1045</v>
       </c>
@@ -31008,7 +31005,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>1064</v>
       </c>
@@ -31027,7 +31024,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>1040</v>
       </c>
@@ -31048,7 +31045,7 @@
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>930</v>
       </c>
@@ -31071,7 +31068,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>1095</v>
       </c>
@@ -31092,7 +31089,7 @@
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>922</v>
       </c>
@@ -31115,7 +31112,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>988</v>
       </c>
@@ -31136,7 +31133,7 @@
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>1117</v>
       </c>
@@ -31157,7 +31154,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>218</v>
       </c>
@@ -31176,7 +31173,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>15</v>
       </c>
@@ -31195,7 +31192,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>288</v>
       </c>
@@ -31216,7 +31213,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>289</v>
       </c>
@@ -31237,7 +31234,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>290</v>
       </c>
@@ -31258,7 +31255,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>285</v>
       </c>
@@ -31277,7 +31274,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>284</v>
       </c>
@@ -31298,7 +31295,7 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -31319,7 +31316,7 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -31340,7 +31337,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -31363,7 +31360,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -31384,7 +31381,7 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>287</v>
       </c>
@@ -31405,7 +31402,7 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -31428,7 +31425,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -31451,7 +31448,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -31474,7 +31471,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -31497,7 +31494,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
@@ -31518,7 +31515,7 @@
       </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>1182</v>
       </c>
@@ -31541,7 +31538,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>26</v>
       </c>
@@ -31552,7 +31549,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>163</v>
       </c>
@@ -31571,7 +31568,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
@@ -31592,7 +31589,7 @@
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>37</v>
       </c>
@@ -31613,7 +31610,7 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>261</v>
       </c>
@@ -31651,7 +31648,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>1128</v>
       </c>
@@ -31672,7 +31669,7 @@
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>766</v>
       </c>
@@ -31693,7 +31690,7 @@
       </c>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>1378</v>
       </c>
@@ -31714,7 +31711,7 @@
       </c>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>1333</v>
       </c>
@@ -31733,7 +31730,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>65</v>
       </c>
@@ -31754,7 +31751,7 @@
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>67</v>
       </c>
@@ -31775,7 +31772,7 @@
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>147</v>
       </c>
@@ -31794,7 +31791,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
@@ -31815,7 +31812,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>197</v>
       </c>
@@ -31834,7 +31831,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
@@ -31855,7 +31852,7 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
@@ -31876,7 +31873,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>1267</v>
       </c>
@@ -31897,7 +31894,7 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>188</v>
       </c>
@@ -31918,7 +31915,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>34</v>
       </c>
@@ -31939,7 +31936,7 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>1288</v>
       </c>
@@ -31958,7 +31955,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>165</v>
       </c>
@@ -31998,7 +31995,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>156</v>
       </c>
@@ -32019,7 +32016,7 @@
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -32040,7 +32037,7 @@
       </c>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>68</v>
       </c>
@@ -32059,7 +32056,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>767</v>
       </c>
@@ -32082,7 +32079,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>49</v>
       </c>
@@ -32101,7 +32098,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>1126</v>
       </c>
@@ -32120,7 +32117,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
@@ -32139,7 +32136,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>855</v>
       </c>
@@ -32160,7 +32157,7 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>811</v>
       </c>
@@ -32183,7 +32180,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>1162</v>
       </c>
@@ -32202,7 +32199,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>57</v>
       </c>
@@ -32221,7 +32218,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>134</v>
       </c>
@@ -32242,7 +32239,7 @@
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
@@ -32263,7 +32260,7 @@
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -32284,7 +32281,7 @@
       </c>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>222</v>
       </c>
@@ -32305,7 +32302,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>213</v>
       </c>
@@ -32324,7 +32321,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>184</v>
       </c>
@@ -32345,7 +32342,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -32368,7 +32365,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>908</v>
       </c>
@@ -32389,7 +32386,7 @@
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>129</v>
       </c>
@@ -32408,7 +32405,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -32427,7 +32424,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>278</v>
       </c>
@@ -32448,7 +32445,7 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>1173</v>
       </c>
@@ -32469,7 +32466,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>48</v>
       </c>
@@ -32490,7 +32487,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -32532,7 +32529,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>1305</v>
       </c>
@@ -32549,7 +32546,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>1303</v>
       </c>
@@ -32566,7 +32563,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>1304</v>
       </c>
@@ -32583,7 +32580,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>837</v>
       </c>
@@ -32600,7 +32597,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>1306</v>
       </c>
@@ -32676,7 +32673,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>60</v>
       </c>
@@ -32695,7 +32692,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>125</v>
       </c>
@@ -32714,7 +32711,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>69</v>
       </c>
@@ -32735,7 +32732,7 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>1157</v>
       </c>
@@ -32754,7 +32751,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -32775,7 +32772,7 @@
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>62</v>
       </c>
@@ -32794,7 +32791,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>51</v>
       </c>
@@ -32817,7 +32814,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>157</v>
       </c>
@@ -32838,7 +32835,7 @@
       </c>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>64</v>
       </c>
@@ -32857,7 +32854,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>149</v>
       </c>
@@ -32876,7 +32873,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>916</v>
       </c>
@@ -32895,7 +32892,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>1291</v>
       </c>
@@ -32918,7 +32915,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>203</v>
       </c>
@@ -32937,7 +32934,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>70</v>
       </c>
@@ -32958,7 +32955,7 @@
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>1482</v>
       </c>
@@ -32981,7 +32978,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>164</v>
       </c>
@@ -33002,7 +32999,7 @@
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>210</v>
       </c>
@@ -33025,7 +33022,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>17</v>
       </c>
@@ -33048,7 +33045,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>748</v>
       </c>
@@ -33090,7 +33087,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>1219</v>
       </c>
@@ -33107,7 +33104,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>158</v>
       </c>
@@ -33128,7 +33125,7 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>769</v>
       </c>
@@ -33151,7 +33148,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>179</v>
       </c>
@@ -33174,7 +33171,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>208</v>
       </c>
@@ -33195,7 +33192,7 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>774</v>
       </c>
@@ -33239,8 +33236,8 @@
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="9" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -33262,11 +33259,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G196" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
-    <filterColumn colId="4" showButton="0">
-      <filters>
-        <filter val="ぶつぶつ系"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">

--- a/src/backend/excel/対応表.xlsx
+++ b/src/backend/excel/対応表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\agave-image-search-system\agave-image-search-system\src\backend\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481F7BB-A982-45CE-A6FD-D2DBEDCEE75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E76197-B635-4ABB-9112-E09C25550022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{1537D78B-629D-4697-86D0-899745FC700A}"/>
   </bookViews>
@@ -5991,7 +5991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6018,9 +6018,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29174,7 +29171,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -29207,7 +29204,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -29230,7 +29227,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>295</v>
       </c>
@@ -29253,7 +29250,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>296</v>
       </c>
@@ -29276,7 +29273,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>297</v>
       </c>
@@ -29297,7 +29294,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>300</v>
       </c>
@@ -29318,7 +29315,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>301</v>
       </c>
@@ -29337,7 +29334,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>302</v>
       </c>
@@ -29358,7 +29355,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>781</v>
       </c>
@@ -29377,7 +29374,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>145</v>
       </c>
@@ -29396,7 +29393,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>1283</v>
       </c>
@@ -29415,7 +29412,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1210</v>
       </c>
@@ -29438,7 +29435,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>1359</v>
       </c>
@@ -29459,7 +29456,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>680</v>
       </c>
@@ -29480,7 +29477,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>725</v>
       </c>
@@ -29501,7 +29498,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>635</v>
       </c>
@@ -29524,7 +29521,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>636</v>
       </c>
@@ -29547,7 +29544,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>729</v>
       </c>
@@ -29570,7 +29567,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>602</v>
       </c>
@@ -29593,7 +29590,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>661</v>
       </c>
@@ -29614,7 +29611,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>694</v>
       </c>
@@ -29637,7 +29634,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>688</v>
       </c>
@@ -29656,7 +29653,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>701</v>
       </c>
@@ -29675,7 +29672,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>668</v>
       </c>
@@ -29696,7 +29693,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>652</v>
       </c>
@@ -29719,7 +29716,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>642</v>
       </c>
@@ -29742,7 +29739,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>623</v>
       </c>
@@ -29763,7 +29760,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>613</v>
       </c>
@@ -29786,7 +29783,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>717</v>
       </c>
@@ -29809,7 +29806,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>711</v>
       </c>
@@ -29830,7 +29827,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>697</v>
       </c>
@@ -29849,7 +29846,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>721</v>
       </c>
@@ -29868,7 +29865,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>706</v>
       </c>
@@ -29887,7 +29884,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>736</v>
       </c>
@@ -29910,7 +29907,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>154</v>
       </c>
@@ -29933,7 +29930,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>1139</v>
       </c>
@@ -29973,7 +29970,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>752</v>
       </c>
@@ -30017,7 +30014,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -30038,7 +30035,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>8</v>
       </c>
@@ -30059,7 +30056,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>1018</v>
       </c>
@@ -30080,7 +30077,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>1042</v>
       </c>
@@ -30101,7 +30098,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>1019</v>
       </c>
@@ -30118,7 +30115,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>900</v>
       </c>
@@ -30141,7 +30138,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>1020</v>
       </c>
@@ -30164,7 +30161,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>1047</v>
       </c>
@@ -30185,7 +30182,7 @@
       </c>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1021</v>
       </c>
@@ -30206,7 +30203,7 @@
       </c>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>911</v>
       </c>
@@ -30227,7 +30224,7 @@
       </c>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>1048</v>
       </c>
@@ -30248,7 +30245,7 @@
       </c>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1023</v>
       </c>
@@ -30269,7 +30266,7 @@
       </c>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>1049</v>
       </c>
@@ -30288,7 +30285,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>962</v>
       </c>
@@ -30309,7 +30306,7 @@
       </c>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>1010</v>
       </c>
@@ -30330,7 +30327,7 @@
       </c>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>1025</v>
       </c>
@@ -30349,7 +30346,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>1050</v>
       </c>
@@ -30370,7 +30367,7 @@
       </c>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>1026</v>
       </c>
@@ -30393,7 +30390,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>274</v>
       </c>
@@ -30416,7 +30413,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>1027</v>
       </c>
@@ -30435,7 +30432,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>1052</v>
       </c>
@@ -30456,7 +30453,7 @@
       </c>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>1028</v>
       </c>
@@ -30475,7 +30472,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>1002</v>
       </c>
@@ -30496,7 +30493,7 @@
       </c>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>938</v>
       </c>
@@ -30517,7 +30514,7 @@
       </c>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>952</v>
       </c>
@@ -30540,7 +30537,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>1030</v>
       </c>
@@ -30559,7 +30556,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>1055</v>
       </c>
@@ -30582,7 +30579,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>1031</v>
       </c>
@@ -30605,7 +30602,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>1056</v>
       </c>
@@ -30626,7 +30623,7 @@
       </c>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>1032</v>
       </c>
@@ -30647,7 +30644,7 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>1057</v>
       </c>
@@ -30666,7 +30663,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>1033</v>
       </c>
@@ -30687,7 +30684,7 @@
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>1058</v>
       </c>
@@ -30708,7 +30705,7 @@
       </c>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>1034</v>
       </c>
@@ -30727,7 +30724,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>1060</v>
       </c>
@@ -30746,7 +30743,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -30769,7 +30766,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>1035</v>
       </c>
@@ -30790,7 +30787,7 @@
       </c>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1061</v>
       </c>
@@ -30813,7 +30810,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>1036</v>
       </c>
@@ -30836,7 +30833,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>1062</v>
       </c>
@@ -30859,7 +30856,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>1037</v>
       </c>
@@ -30880,7 +30877,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>1059</v>
       </c>
@@ -30901,7 +30898,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>1038</v>
       </c>
@@ -30922,7 +30919,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>996</v>
       </c>
@@ -30943,7 +30940,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>1039</v>
       </c>
@@ -30962,7 +30959,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>270</v>
       </c>
@@ -30985,7 +30982,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>1045</v>
       </c>
@@ -31008,7 +31005,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>1064</v>
       </c>
@@ -31027,7 +31024,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>1040</v>
       </c>
@@ -31048,7 +31045,7 @@
       </c>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>930</v>
       </c>
@@ -31071,7 +31068,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>1095</v>
       </c>
@@ -31092,7 +31089,7 @@
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>922</v>
       </c>
@@ -31115,7 +31112,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>988</v>
       </c>
@@ -31136,7 +31133,7 @@
       </c>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>1117</v>
       </c>
@@ -31157,7 +31154,7 @@
       </c>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>218</v>
       </c>
@@ -31176,7 +31173,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>15</v>
       </c>
@@ -31195,7 +31192,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>288</v>
       </c>
@@ -31216,7 +31213,7 @@
       </c>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>289</v>
       </c>
@@ -31237,7 +31234,7 @@
       </c>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>290</v>
       </c>
@@ -31258,7 +31255,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>285</v>
       </c>
@@ -31277,7 +31274,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>284</v>
       </c>
@@ -31298,7 +31295,7 @@
       </c>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
@@ -31319,7 +31316,7 @@
       </c>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>117</v>
       </c>
@@ -31340,7 +31337,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
@@ -31363,7 +31360,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>119</v>
       </c>
@@ -31384,7 +31381,7 @@
       </c>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>287</v>
       </c>
@@ -31405,7 +31402,7 @@
       </c>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>121</v>
       </c>
@@ -31428,7 +31425,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>123</v>
       </c>
@@ -31451,7 +31448,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -31474,7 +31471,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
@@ -31497,7 +31494,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
@@ -31518,7 +31515,7 @@
       </c>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>1182</v>
       </c>
@@ -31541,7 +31538,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>26</v>
       </c>
@@ -31552,7 +31549,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>163</v>
       </c>
@@ -31571,7 +31568,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>71</v>
       </c>
@@ -31592,7 +31589,7 @@
       </c>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>37</v>
       </c>
@@ -31613,7 +31610,7 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>261</v>
       </c>
@@ -31651,7 +31648,7 @@
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>1128</v>
       </c>
@@ -31672,7 +31669,7 @@
       </c>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>766</v>
       </c>
@@ -31693,7 +31690,7 @@
       </c>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>1378</v>
       </c>
@@ -31714,7 +31711,7 @@
       </c>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>1333</v>
       </c>
@@ -31733,7 +31730,7 @@
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>65</v>
       </c>
@@ -31754,7 +31751,7 @@
       </c>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>67</v>
       </c>
@@ -31775,7 +31772,7 @@
       </c>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>147</v>
       </c>
@@ -31794,7 +31791,7 @@
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
@@ -31815,7 +31812,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>197</v>
       </c>
@@ -31834,7 +31831,7 @@
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>177</v>
       </c>
@@ -31855,7 +31852,7 @@
       </c>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
@@ -31876,7 +31873,7 @@
       </c>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>1267</v>
       </c>
@@ -31897,7 +31894,7 @@
       </c>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>188</v>
       </c>
@@ -31918,7 +31915,7 @@
       </c>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>34</v>
       </c>
@@ -31939,7 +31936,7 @@
       </c>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>1288</v>
       </c>
@@ -31958,7 +31955,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>165</v>
       </c>
@@ -31998,7 +31995,7 @@
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>156</v>
       </c>
@@ -32019,7 +32016,7 @@
       </c>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>12</v>
       </c>
@@ -32040,7 +32037,7 @@
       </c>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>68</v>
       </c>
@@ -32059,7 +32056,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>767</v>
       </c>
@@ -32082,7 +32079,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>49</v>
       </c>
@@ -32101,7 +32098,7 @@
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>1126</v>
       </c>
@@ -32120,7 +32117,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>141</v>
       </c>
@@ -32139,7 +32136,7 @@
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>855</v>
       </c>
@@ -32160,7 +32157,7 @@
       </c>
       <c r="G142" s="1"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>811</v>
       </c>
@@ -32183,7 +32180,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>1162</v>
       </c>
@@ -32202,7 +32199,7 @@
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>57</v>
       </c>
@@ -32221,7 +32218,7 @@
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>134</v>
       </c>
@@ -32242,7 +32239,7 @@
       </c>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
@@ -32263,7 +32260,7 @@
       </c>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>53</v>
       </c>
@@ -32284,7 +32281,7 @@
       </c>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>222</v>
       </c>
@@ -32305,7 +32302,7 @@
       </c>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
         <v>213</v>
       </c>
@@ -32324,7 +32321,7 @@
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
         <v>184</v>
       </c>
@@ -32345,7 +32342,7 @@
       </c>
       <c r="G151" s="1"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
         <v>40</v>
       </c>
@@ -32368,7 +32365,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
         <v>908</v>
       </c>
@@ -32389,7 +32386,7 @@
       </c>
       <c r="G153" s="1"/>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
         <v>129</v>
       </c>
@@ -32408,7 +32405,7 @@
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
         <v>155</v>
       </c>
@@ -32427,7 +32424,7 @@
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
         <v>278</v>
       </c>
@@ -32448,7 +32445,7 @@
       </c>
       <c r="G156" s="1"/>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
         <v>1173</v>
       </c>
@@ -32469,7 +32466,7 @@
       </c>
       <c r="G157" s="1"/>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
         <v>48</v>
       </c>
@@ -32490,7 +32487,7 @@
       </c>
       <c r="G158" s="1"/>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
         <v>161</v>
       </c>
@@ -32532,7 +32529,7 @@
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>1305</v>
       </c>
@@ -32549,7 +32546,7 @@
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
         <v>1303</v>
       </c>
@@ -32566,7 +32563,7 @@
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
         <v>1304</v>
       </c>
@@ -32583,7 +32580,7 @@
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
         <v>837</v>
       </c>
@@ -32600,7 +32597,7 @@
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
         <v>1306</v>
       </c>
@@ -32676,7 +32673,7 @@
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
         <v>60</v>
       </c>
@@ -32695,7 +32692,7 @@
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
         <v>125</v>
       </c>
@@ -32714,7 +32711,7 @@
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
         <v>69</v>
       </c>
@@ -32735,7 +32732,7 @@
       </c>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
         <v>1157</v>
       </c>
@@ -32754,7 +32751,7 @@
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
         <v>162</v>
       </c>
@@ -32775,7 +32772,7 @@
       </c>
       <c r="G173" s="1"/>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
         <v>62</v>
       </c>
@@ -32794,7 +32791,7 @@
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
         <v>51</v>
       </c>
@@ -32817,7 +32814,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
         <v>157</v>
       </c>
@@ -32838,7 +32835,7 @@
       </c>
       <c r="G176" s="1"/>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
         <v>64</v>
       </c>
@@ -32857,7 +32854,7 @@
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
         <v>149</v>
       </c>
@@ -32876,7 +32873,7 @@
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
         <v>916</v>
       </c>
@@ -32895,7 +32892,7 @@
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
         <v>1291</v>
       </c>
@@ -32918,7 +32915,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
         <v>203</v>
       </c>
@@ -32937,7 +32934,7 @@
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
         <v>70</v>
       </c>
@@ -32958,7 +32955,7 @@
       </c>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
         <v>1482</v>
       </c>
@@ -32981,7 +32978,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
         <v>164</v>
       </c>
@@ -33002,7 +32999,7 @@
       </c>
       <c r="G184" s="1"/>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
         <v>210</v>
       </c>
@@ -33025,7 +33022,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
         <v>17</v>
       </c>
@@ -33048,7 +33045,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
         <v>748</v>
       </c>
@@ -33090,7 +33087,7 @@
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
         <v>1219</v>
       </c>
@@ -33107,7 +33104,7 @@
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
         <v>158</v>
       </c>
@@ -33128,7 +33125,7 @@
       </c>
       <c r="G190" s="1"/>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
         <v>769</v>
       </c>
@@ -33151,7 +33148,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
         <v>179</v>
       </c>
@@ -33174,7 +33171,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
         <v>208</v>
       </c>
@@ -33195,7 +33192,7 @@
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
         <v>774</v>
       </c>
@@ -33239,8 +33236,8 @@
       </c>
       <c r="G195" s="1"/>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="9" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -33262,11 +33259,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G196" xr:uid="{D50F0EC6-0B96-40FB-91B2-3FE1A7B038F7}">
-    <filterColumn colId="4" showButton="0">
-      <filters>
-        <filter val="ぶつぶつ系"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="4" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
